--- a/doc/EMMS  Project 信息查询系统-网页模板格式(用于爬虫解析).xlsx
+++ b/doc/EMMS  Project 信息查询系统-网页模板格式(用于爬虫解析).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="495" windowWidth="14805" windowHeight="6840" tabRatio="911" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="495" windowWidth="14805" windowHeight="6840" tabRatio="911" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="6" r:id="rId1"/>
@@ -350,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://legalref.judiciary.gov.hk/lrs/common/search/search_result.jsp?isadvsearch=0&amp;txtSearch=a&amp;txtselectopt=1&amp;selDatabase=JU&amp;selDatabase=RS&amp;selDatabase=RV&amp;selDatabase=PD&amp;selall=1&amp;order=0&amp;SHC=&amp;page=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>判决书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,15 +398,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变更：DIS=103299就可以，DIS可在上面的源代码中查找到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://legalref.judiciary.gov.hk/lrs//common/ju/ju_frame.jsp?AH=S&amp;DIS=103299&amp;QS=%28a%29&amp;TP=JU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://legalref.judiciary.gov.hk/lrs//common/ju/ju_frame.jsp?AH=S&amp;DIS=103275&amp;QS=%28a%29&amp;TP=JU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1361,6 +1349,18 @@
   <si>
     <t>http://www.judiciary.gov.hk/en/crt_lists/lists/20042016/smt.html</t>
   </si>
+  <si>
+    <t>http://legalref.judiciary.gov.hk/lrs/common/search/search_result.jsp?isadvsearch=0&amp;txtSearch=a&amp;txtselectopt=1&amp;selDatabase=JU&amp;selDatabase=RS&amp;selDatabase=RV&amp;selDatabase=PD&amp;selall=1&amp;order=0&amp;SHC=&amp;page=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://legalref.judiciary.gov.hk/lrs//common/ju/ju_frame.jsp?AH=S&amp;DIS=103275&amp;QS=%28a%29&amp;TP=JU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更：DIS=103299就可以，DIS可在上面的源代码中查找到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1773,7 +1773,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1981,6 +1981,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7265,7 +7268,7 @@
   <dimension ref="A1:BZ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+      <selection activeCell="AV10" sqref="AV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7360,7 +7363,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -7416,7 +7419,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -7685,7 +7688,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -7904,7 +7907,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -7986,7 +7989,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -8632,7 +8635,7 @@
     </row>
     <row r="20" spans="1:78">
       <c r="A20" s="32" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8692,7 +8695,7 @@
     </row>
     <row r="21" spans="1:78">
       <c r="A21" s="12" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9856,7 +9859,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -9912,7 +9915,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -10181,7 +10184,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -10400,7 +10403,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -10482,7 +10485,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -12186,7 +12189,7 @@
     </row>
     <row r="40" spans="1:78">
       <c r="A40" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="BB40" s="26"/>
       <c r="BC40" s="1"/>
@@ -12197,42 +12200,42 @@
     </row>
     <row r="42" spans="1:78">
       <c r="A42" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BB42" s="26"/>
       <c r="BC42" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:78">
       <c r="BB43" s="26"/>
       <c r="BD43" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:78">
       <c r="BB44" s="26"/>
       <c r="BE44" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:78">
       <c r="BB45" s="26"/>
       <c r="BE45" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:78">
       <c r="A46"/>
       <c r="BB46" s="26"/>
       <c r="BE46" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:78">
       <c r="BB47" s="26"/>
       <c r="BE47" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:78">
@@ -12241,7 +12244,7 @@
     <row r="49" spans="54:56">
       <c r="BB49" s="26"/>
       <c r="BD49" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="54:56">
@@ -12330,27 +12333,27 @@
     </row>
     <row r="84" spans="3:4">
       <c r="C84" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="3:4">
       <c r="C86" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="3:4">
       <c r="D87" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="3:4">
       <c r="D88" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -12471,7 +12474,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -12527,7 +12530,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -12796,7 +12799,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -13015,7 +13018,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -13097,7 +13100,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -14922,7 +14925,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -14978,7 +14981,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -15247,7 +15250,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -15466,7 +15469,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -15548,7 +15551,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -15629,7 +15632,7 @@
       <c r="BB10" s="26"/>
       <c r="BC10" s="1"/>
       <c r="BE10" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BF10" s="30"/>
       <c r="BG10" s="30"/>
@@ -15709,7 +15712,7 @@
       <c r="BB11" s="26"/>
       <c r="BC11" s="1"/>
       <c r="BE11" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BF11" s="30"/>
       <c r="BG11" s="30"/>
@@ -15789,7 +15792,7 @@
       <c r="BB12" s="26"/>
       <c r="BC12" s="1"/>
       <c r="BE12" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="BF12" s="30"/>
       <c r="BG12" s="30"/>
@@ -17439,7 +17442,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -17495,7 +17498,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -17764,7 +17767,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -17983,7 +17986,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -18065,7 +18068,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -19890,7 +19893,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -19946,7 +19949,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -20215,7 +20218,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -20434,7 +20437,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -20516,7 +20519,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -22341,7 +22344,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -22397,7 +22400,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -22666,7 +22669,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -22885,7 +22888,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -22967,7 +22970,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -24792,7 +24795,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -24848,7 +24851,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -25117,7 +25120,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -25336,7 +25339,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -25418,7 +25421,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -27243,7 +27246,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -27299,7 +27302,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -27568,7 +27571,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -27787,7 +27790,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -27869,7 +27872,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -29694,7 +29697,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -29750,7 +29753,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -30019,7 +30022,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -30238,7 +30241,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -30320,7 +30323,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -32111,7 +32114,7 @@
     <row r="2" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -32134,7 +32137,7 @@
       <c r="U2" s="68"/>
       <c r="V2" s="69"/>
       <c r="W2" s="65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="X2" s="65"/>
       <c r="Y2" s="65"/>
@@ -32145,13 +32148,13 @@
       <c r="AD2" s="65"/>
       <c r="AE2" s="65"/>
       <c r="AF2" s="39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG2" s="39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AH2" s="66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AI2" s="66"/>
       <c r="AJ2" s="66"/>
@@ -32166,7 +32169,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
@@ -32189,7 +32192,7 @@
       <c r="U3" s="59"/>
       <c r="V3" s="60"/>
       <c r="W3" s="61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="X3" s="62"/>
       <c r="Y3" s="62"/>
@@ -32200,7 +32203,7 @@
       <c r="AD3" s="62"/>
       <c r="AE3" s="63"/>
       <c r="AF3" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG3" s="38"/>
       <c r="AH3" s="64"/>
@@ -32217,7 +32220,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
@@ -32240,7 +32243,7 @@
       <c r="U4" s="59"/>
       <c r="V4" s="60"/>
       <c r="W4" s="61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="X4" s="62"/>
       <c r="Y4" s="62"/>
@@ -32251,7 +32254,7 @@
       <c r="AD4" s="62"/>
       <c r="AE4" s="63"/>
       <c r="AF4" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG4" s="38"/>
       <c r="AH4" s="64"/>
@@ -32268,7 +32271,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -32291,7 +32294,7 @@
       <c r="U5" s="59"/>
       <c r="V5" s="60"/>
       <c r="W5" s="61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X5" s="62"/>
       <c r="Y5" s="62"/>
@@ -32302,10 +32305,10 @@
       <c r="AD5" s="62"/>
       <c r="AE5" s="63"/>
       <c r="AF5" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG5" s="38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AH5" s="64"/>
       <c r="AI5" s="64"/>
@@ -32321,7 +32324,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
@@ -32344,7 +32347,7 @@
       <c r="U6" s="59"/>
       <c r="V6" s="60"/>
       <c r="W6" s="61" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="X6" s="62"/>
       <c r="Y6" s="62"/>
@@ -32355,10 +32358,10 @@
       <c r="AD6" s="62"/>
       <c r="AE6" s="63"/>
       <c r="AF6" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG6" s="38" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AH6" s="64"/>
       <c r="AI6" s="64"/>
@@ -32374,7 +32377,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -32397,7 +32400,7 @@
       <c r="U7" s="59"/>
       <c r="V7" s="60"/>
       <c r="W7" s="61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="X7" s="62"/>
       <c r="Y7" s="62"/>
@@ -32408,10 +32411,10 @@
       <c r="AD7" s="62"/>
       <c r="AE7" s="63"/>
       <c r="AF7" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG7" s="38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AH7" s="64"/>
       <c r="AI7" s="64"/>
@@ -32427,7 +32430,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -32450,7 +32453,7 @@
       <c r="U8" s="59"/>
       <c r="V8" s="60"/>
       <c r="W8" s="61" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="X8" s="62"/>
       <c r="Y8" s="62"/>
@@ -32461,10 +32464,10 @@
       <c r="AD8" s="62"/>
       <c r="AE8" s="63"/>
       <c r="AF8" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG8" s="38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH8" s="64"/>
       <c r="AI8" s="64"/>
@@ -32480,7 +32483,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
@@ -32503,7 +32506,7 @@
       <c r="U9" s="59"/>
       <c r="V9" s="60"/>
       <c r="W9" s="61" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="X9" s="62"/>
       <c r="Y9" s="62"/>
@@ -32514,10 +32517,10 @@
       <c r="AD9" s="62"/>
       <c r="AE9" s="63"/>
       <c r="AF9" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG9" s="38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH9" s="64"/>
       <c r="AI9" s="64"/>
@@ -32533,7 +32536,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
@@ -32556,7 +32559,7 @@
       <c r="U10" s="59"/>
       <c r="V10" s="60"/>
       <c r="W10" s="61" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="X10" s="62"/>
       <c r="Y10" s="62"/>
@@ -32567,7 +32570,7 @@
       <c r="AD10" s="62"/>
       <c r="AE10" s="63"/>
       <c r="AF10" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG10" s="38"/>
       <c r="AH10" s="64"/>
@@ -32584,7 +32587,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
@@ -32607,7 +32610,7 @@
       <c r="U11" s="59"/>
       <c r="V11" s="60"/>
       <c r="W11" s="61" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="X11" s="62"/>
       <c r="Y11" s="62"/>
@@ -32618,10 +32621,10 @@
       <c r="AD11" s="62"/>
       <c r="AE11" s="63"/>
       <c r="AF11" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG11" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AH11" s="64"/>
       <c r="AI11" s="64"/>
@@ -32637,7 +32640,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
@@ -32660,7 +32663,7 @@
       <c r="U12" s="59"/>
       <c r="V12" s="60"/>
       <c r="W12" s="61" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="X12" s="62"/>
       <c r="Y12" s="62"/>
@@ -32671,10 +32674,10 @@
       <c r="AD12" s="62"/>
       <c r="AE12" s="63"/>
       <c r="AF12" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG12" s="38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AH12" s="64"/>
       <c r="AI12" s="64"/>
@@ -32690,7 +32693,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -32713,7 +32716,7 @@
       <c r="U13" s="59"/>
       <c r="V13" s="60"/>
       <c r="W13" s="61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="X13" s="62"/>
       <c r="Y13" s="62"/>
@@ -32725,7 +32728,7 @@
       <c r="AE13" s="63"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AH13" s="64"/>
       <c r="AI13" s="64"/>
@@ -32741,7 +32744,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -32764,7 +32767,7 @@
       <c r="U14" s="59"/>
       <c r="V14" s="60"/>
       <c r="W14" s="61" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X14" s="62"/>
       <c r="Y14" s="62"/>
@@ -32776,7 +32779,7 @@
       <c r="AE14" s="63"/>
       <c r="AF14" s="16"/>
       <c r="AG14" s="38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AH14" s="64"/>
       <c r="AI14" s="64"/>
@@ -32792,7 +32795,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
@@ -32815,7 +32818,7 @@
       <c r="U15" s="59"/>
       <c r="V15" s="60"/>
       <c r="W15" s="61" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="X15" s="62"/>
       <c r="Y15" s="62"/>
@@ -32827,7 +32830,7 @@
       <c r="AE15" s="63"/>
       <c r="AF15" s="16"/>
       <c r="AG15" s="38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AH15" s="64"/>
       <c r="AI15" s="64"/>
@@ -32843,7 +32846,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
@@ -32866,7 +32869,7 @@
       <c r="U16" s="59"/>
       <c r="V16" s="60"/>
       <c r="W16" s="61" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="X16" s="62"/>
       <c r="Y16" s="62"/>
@@ -32878,7 +32881,7 @@
       <c r="AE16" s="63"/>
       <c r="AF16" s="16"/>
       <c r="AG16" s="38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AH16" s="64"/>
       <c r="AI16" s="64"/>
@@ -32894,7 +32897,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -32917,7 +32920,7 @@
       <c r="U17" s="59"/>
       <c r="V17" s="60"/>
       <c r="W17" s="61" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="X17" s="62"/>
       <c r="Y17" s="62"/>
@@ -32929,7 +32932,7 @@
       <c r="AE17" s="63"/>
       <c r="AF17" s="16"/>
       <c r="AG17" s="38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AH17" s="64"/>
       <c r="AI17" s="64"/>
@@ -32945,7 +32948,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -32968,7 +32971,7 @@
       <c r="U18" s="59"/>
       <c r="V18" s="60"/>
       <c r="W18" s="61" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="X18" s="62"/>
       <c r="Y18" s="62"/>
@@ -32980,7 +32983,7 @@
       <c r="AE18" s="63"/>
       <c r="AF18" s="16"/>
       <c r="AG18" s="38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AH18" s="64"/>
       <c r="AI18" s="64"/>
@@ -32996,7 +32999,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -33019,7 +33022,7 @@
       <c r="U19" s="59"/>
       <c r="V19" s="60"/>
       <c r="W19" s="61" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="X19" s="62"/>
       <c r="Y19" s="62"/>
@@ -33030,7 +33033,7 @@
       <c r="AD19" s="62"/>
       <c r="AE19" s="63"/>
       <c r="AF19" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG19" s="38"/>
       <c r="AH19" s="64"/>
@@ -33047,7 +33050,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -33070,7 +33073,7 @@
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
       <c r="W20" s="61" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="X20" s="62"/>
       <c r="Y20" s="62"/>
@@ -33081,7 +33084,7 @@
       <c r="AD20" s="62"/>
       <c r="AE20" s="63"/>
       <c r="AF20" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG20" s="38"/>
       <c r="AH20" s="64"/>
@@ -33098,7 +33101,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -33121,7 +33124,7 @@
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
       <c r="W21" s="61" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="X21" s="62"/>
       <c r="Y21" s="62"/>
@@ -33132,10 +33135,10 @@
       <c r="AD21" s="62"/>
       <c r="AE21" s="63"/>
       <c r="AF21" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG21" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AH21" s="64"/>
       <c r="AI21" s="64"/>
@@ -33151,7 +33154,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -33174,7 +33177,7 @@
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
       <c r="W22" s="61" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X22" s="62"/>
       <c r="Y22" s="62"/>
@@ -33185,10 +33188,10 @@
       <c r="AD22" s="62"/>
       <c r="AE22" s="63"/>
       <c r="AF22" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG22" s="38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AH22" s="64"/>
       <c r="AI22" s="64"/>
@@ -33204,7 +33207,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -33227,7 +33230,7 @@
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
       <c r="W23" s="61" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X23" s="62"/>
       <c r="Y23" s="62"/>
@@ -33238,7 +33241,7 @@
       <c r="AD23" s="62"/>
       <c r="AE23" s="63"/>
       <c r="AF23" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG23" s="38"/>
       <c r="AH23" s="64"/>
@@ -33255,7 +33258,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -33278,7 +33281,7 @@
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
       <c r="W24" s="61" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
@@ -33289,10 +33292,10 @@
       <c r="AD24" s="62"/>
       <c r="AE24" s="63"/>
       <c r="AF24" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG24" s="38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AH24" s="64"/>
       <c r="AI24" s="64"/>
@@ -33308,7 +33311,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -33331,7 +33334,7 @@
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
       <c r="W25" s="61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="X25" s="62"/>
       <c r="Y25" s="62"/>
@@ -33342,10 +33345,10 @@
       <c r="AD25" s="62"/>
       <c r="AE25" s="63"/>
       <c r="AF25" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG25" s="38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AH25" s="64"/>
       <c r="AI25" s="64"/>
@@ -33361,7 +33364,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
@@ -33384,7 +33387,7 @@
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
       <c r="W26" s="61" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="X26" s="62"/>
       <c r="Y26" s="62"/>
@@ -33395,10 +33398,10 @@
       <c r="AD26" s="62"/>
       <c r="AE26" s="63"/>
       <c r="AF26" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG26" s="38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AH26" s="64"/>
       <c r="AI26" s="64"/>
@@ -33414,7 +33417,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -33437,7 +33440,7 @@
       <c r="U27" s="59"/>
       <c r="V27" s="60"/>
       <c r="W27" s="61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="X27" s="62"/>
       <c r="Y27" s="62"/>
@@ -33448,10 +33451,10 @@
       <c r="AD27" s="62"/>
       <c r="AE27" s="63"/>
       <c r="AF27" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG27" s="38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AH27" s="64"/>
       <c r="AI27" s="64"/>
@@ -33467,7 +33470,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
@@ -33490,7 +33493,7 @@
       <c r="U28" s="59"/>
       <c r="V28" s="60"/>
       <c r="W28" s="61" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="X28" s="62"/>
       <c r="Y28" s="62"/>
@@ -33501,10 +33504,10 @@
       <c r="AD28" s="62"/>
       <c r="AE28" s="63"/>
       <c r="AF28" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG28" s="38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH28" s="64"/>
       <c r="AI28" s="64"/>
@@ -33520,7 +33523,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -33543,7 +33546,7 @@
       <c r="U29" s="59"/>
       <c r="V29" s="60"/>
       <c r="W29" s="61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="X29" s="62"/>
       <c r="Y29" s="62"/>
@@ -33554,10 +33557,10 @@
       <c r="AD29" s="62"/>
       <c r="AE29" s="63"/>
       <c r="AF29" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG29" s="38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH29" s="64"/>
       <c r="AI29" s="64"/>
@@ -33573,7 +33576,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -33596,7 +33599,7 @@
       <c r="U30" s="59"/>
       <c r="V30" s="60"/>
       <c r="W30" s="61" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="X30" s="62"/>
       <c r="Y30" s="62"/>
@@ -33607,7 +33610,7 @@
       <c r="AD30" s="62"/>
       <c r="AE30" s="63"/>
       <c r="AF30" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG30" s="38"/>
       <c r="AH30" s="64"/>
@@ -33624,7 +33627,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="71"/>
@@ -33647,7 +33650,7 @@
       <c r="U31" s="71"/>
       <c r="V31" s="72"/>
       <c r="W31" s="61" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="X31" s="62"/>
       <c r="Y31" s="62"/>
@@ -33658,7 +33661,7 @@
       <c r="AD31" s="62"/>
       <c r="AE31" s="63"/>
       <c r="AF31" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG31" s="38"/>
       <c r="AH31" s="64"/>
@@ -33675,7 +33678,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
@@ -33698,7 +33701,7 @@
       <c r="U32" s="59"/>
       <c r="V32" s="60"/>
       <c r="W32" s="61" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="X32" s="62"/>
       <c r="Y32" s="62"/>
@@ -33709,10 +33712,10 @@
       <c r="AD32" s="62"/>
       <c r="AE32" s="63"/>
       <c r="AF32" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG32" s="38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AH32" s="64"/>
       <c r="AI32" s="64"/>
@@ -33728,7 +33731,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
@@ -33751,7 +33754,7 @@
       <c r="U33" s="59"/>
       <c r="V33" s="60"/>
       <c r="W33" s="61" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="X33" s="62"/>
       <c r="Y33" s="62"/>
@@ -33762,10 +33765,10 @@
       <c r="AD33" s="62"/>
       <c r="AE33" s="63"/>
       <c r="AF33" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG33" s="38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AH33" s="64"/>
       <c r="AI33" s="64"/>
@@ -33781,7 +33784,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -33804,7 +33807,7 @@
       <c r="U34" s="59"/>
       <c r="V34" s="60"/>
       <c r="W34" s="61" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="X34" s="62"/>
       <c r="Y34" s="62"/>
@@ -33815,7 +33818,7 @@
       <c r="AD34" s="62"/>
       <c r="AE34" s="63"/>
       <c r="AF34" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG34" s="38"/>
       <c r="AH34" s="64"/>
@@ -33832,7 +33835,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="58" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
@@ -33855,7 +33858,7 @@
       <c r="U35" s="59"/>
       <c r="V35" s="60"/>
       <c r="W35" s="61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="X35" s="62"/>
       <c r="Y35" s="62"/>
@@ -33866,10 +33869,10 @@
       <c r="AD35" s="62"/>
       <c r="AE35" s="63"/>
       <c r="AF35" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG35" s="38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AH35" s="64"/>
       <c r="AI35" s="64"/>
@@ -33885,7 +33888,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
@@ -33908,7 +33911,7 @@
       <c r="U36" s="59"/>
       <c r="V36" s="60"/>
       <c r="W36" s="61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="X36" s="62"/>
       <c r="Y36" s="62"/>
@@ -33919,10 +33922,10 @@
       <c r="AD36" s="62"/>
       <c r="AE36" s="63"/>
       <c r="AF36" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG36" s="38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AH36" s="64"/>
       <c r="AI36" s="64"/>
@@ -33938,7 +33941,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
@@ -33961,7 +33964,7 @@
       <c r="U37" s="59"/>
       <c r="V37" s="60"/>
       <c r="W37" s="61" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="X37" s="62"/>
       <c r="Y37" s="62"/>
@@ -33972,10 +33975,10 @@
       <c r="AD37" s="62"/>
       <c r="AE37" s="63"/>
       <c r="AF37" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG37" s="38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AH37" s="64"/>
       <c r="AI37" s="64"/>
@@ -33991,7 +33994,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
@@ -34014,7 +34017,7 @@
       <c r="U38" s="59"/>
       <c r="V38" s="60"/>
       <c r="W38" s="61" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="X38" s="62"/>
       <c r="Y38" s="62"/>
@@ -34025,10 +34028,10 @@
       <c r="AD38" s="62"/>
       <c r="AE38" s="63"/>
       <c r="AF38" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG38" s="38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AH38" s="64"/>
       <c r="AI38" s="64"/>
@@ -34044,7 +34047,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -34067,7 +34070,7 @@
       <c r="U39" s="59"/>
       <c r="V39" s="60"/>
       <c r="W39" s="61" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="X39" s="62"/>
       <c r="Y39" s="62"/>
@@ -34078,10 +34081,10 @@
       <c r="AD39" s="62"/>
       <c r="AE39" s="63"/>
       <c r="AF39" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG39" s="38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AH39" s="64"/>
       <c r="AI39" s="64"/>
@@ -34097,7 +34100,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
@@ -34120,7 +34123,7 @@
       <c r="U40" s="59"/>
       <c r="V40" s="60"/>
       <c r="W40" s="61" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="X40" s="62"/>
       <c r="Y40" s="62"/>
@@ -34131,7 +34134,7 @@
       <c r="AD40" s="62"/>
       <c r="AE40" s="63"/>
       <c r="AF40" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG40" s="38"/>
       <c r="AH40" s="64"/>
@@ -34148,7 +34151,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="70" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="71"/>
@@ -34171,7 +34174,7 @@
       <c r="U41" s="71"/>
       <c r="V41" s="72"/>
       <c r="W41" s="61" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="X41" s="62"/>
       <c r="Y41" s="62"/>
@@ -34182,7 +34185,7 @@
       <c r="AD41" s="62"/>
       <c r="AE41" s="63"/>
       <c r="AF41" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG41" s="38"/>
       <c r="AH41" s="64"/>
@@ -34199,7 +34202,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -34222,7 +34225,7 @@
       <c r="U42" s="59"/>
       <c r="V42" s="60"/>
       <c r="W42" s="61" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="X42" s="62"/>
       <c r="Y42" s="62"/>
@@ -34233,7 +34236,7 @@
       <c r="AD42" s="62"/>
       <c r="AE42" s="63"/>
       <c r="AF42" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG42" s="38"/>
       <c r="AH42" s="64"/>
@@ -34250,7 +34253,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
@@ -34273,7 +34276,7 @@
       <c r="U43" s="59"/>
       <c r="V43" s="60"/>
       <c r="W43" s="61" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="X43" s="62"/>
       <c r="Y43" s="62"/>
@@ -34284,7 +34287,7 @@
       <c r="AD43" s="62"/>
       <c r="AE43" s="63"/>
       <c r="AF43" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG43" s="38"/>
       <c r="AH43" s="64"/>
@@ -34301,7 +34304,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -34324,7 +34327,7 @@
       <c r="U44" s="59"/>
       <c r="V44" s="60"/>
       <c r="W44" s="61" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="X44" s="62"/>
       <c r="Y44" s="62"/>
@@ -34335,7 +34338,7 @@
       <c r="AD44" s="62"/>
       <c r="AE44" s="63"/>
       <c r="AF44" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG44" s="38"/>
       <c r="AH44" s="64"/>
@@ -34352,7 +34355,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
@@ -34375,7 +34378,7 @@
       <c r="U45" s="59"/>
       <c r="V45" s="60"/>
       <c r="W45" s="61" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="X45" s="62"/>
       <c r="Y45" s="62"/>
@@ -34386,10 +34389,10 @@
       <c r="AD45" s="62"/>
       <c r="AE45" s="63"/>
       <c r="AF45" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG45" s="38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH45" s="64"/>
       <c r="AI45" s="64"/>
@@ -34405,7 +34408,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
@@ -34428,7 +34431,7 @@
       <c r="U46" s="59"/>
       <c r="V46" s="60"/>
       <c r="W46" s="61" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="X46" s="62"/>
       <c r="Y46" s="62"/>
@@ -34439,7 +34442,7 @@
       <c r="AD46" s="62"/>
       <c r="AE46" s="63"/>
       <c r="AF46" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG46" s="38"/>
       <c r="AH46" s="64"/>
@@ -34456,7 +34459,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
@@ -34479,7 +34482,7 @@
       <c r="U47" s="59"/>
       <c r="V47" s="60"/>
       <c r="W47" s="61" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="X47" s="62"/>
       <c r="Y47" s="62"/>
@@ -34490,7 +34493,7 @@
       <c r="AD47" s="62"/>
       <c r="AE47" s="63"/>
       <c r="AF47" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG47" s="38"/>
       <c r="AH47" s="64"/>
@@ -34507,7 +34510,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
@@ -34530,7 +34533,7 @@
       <c r="U48" s="59"/>
       <c r="V48" s="60"/>
       <c r="W48" s="61" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="X48" s="62"/>
       <c r="Y48" s="62"/>
@@ -34541,10 +34544,10 @@
       <c r="AD48" s="62"/>
       <c r="AE48" s="63"/>
       <c r="AF48" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG48" s="38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH48" s="64"/>
       <c r="AI48" s="64"/>
@@ -34560,7 +34563,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -34583,7 +34586,7 @@
       <c r="U49" s="59"/>
       <c r="V49" s="60"/>
       <c r="W49" s="61" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="X49" s="62"/>
       <c r="Y49" s="62"/>
@@ -34594,10 +34597,10 @@
       <c r="AD49" s="62"/>
       <c r="AE49" s="63"/>
       <c r="AF49" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG49" s="38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AH49" s="64"/>
       <c r="AI49" s="64"/>
@@ -34613,7 +34616,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
@@ -34636,7 +34639,7 @@
       <c r="U50" s="59"/>
       <c r="V50" s="60"/>
       <c r="W50" s="61" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="X50" s="62"/>
       <c r="Y50" s="62"/>
@@ -34647,10 +34650,10 @@
       <c r="AD50" s="62"/>
       <c r="AE50" s="63"/>
       <c r="AF50" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG50" s="38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH50" s="64"/>
       <c r="AI50" s="64"/>
@@ -34968,7 +34971,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -35024,7 +35027,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -35293,7 +35296,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -35512,7 +35515,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -35594,7 +35597,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -37419,7 +37422,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -37475,7 +37478,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -37744,7 +37747,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -37963,7 +37966,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -38045,7 +38048,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -39870,7 +39873,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -39926,7 +39929,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -40195,7 +40198,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -40414,7 +40417,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -40496,7 +40499,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -42322,7 +42325,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -42378,7 +42381,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -42647,7 +42650,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -42866,7 +42869,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -42948,7 +42951,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -44773,7 +44776,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -44829,7 +44832,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -45098,7 +45101,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -45317,7 +45320,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -45399,7 +45402,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -47227,7 +47230,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -47283,7 +47286,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -47552,7 +47555,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -47771,7 +47774,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -47853,7 +47856,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -49583,7 +49586,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -49617,7 +49620,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>22</v>
@@ -49626,7 +49629,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27">
@@ -49634,7 +49637,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>25</v>
@@ -49649,13 +49652,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E4" s="33"/>
     </row>
@@ -49664,7 +49667,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>31</v>
@@ -49679,13 +49682,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>33</v>
+      <c r="C6" s="86" t="s">
+        <v>278</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="33"/>
     </row>
@@ -49694,13 +49697,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="33"/>
     </row>
@@ -49709,13 +49712,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="33"/>
     </row>
@@ -49724,13 +49727,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E9" s="33"/>
     </row>
@@ -49739,16 +49742,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5">
@@ -49756,16 +49759,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27">
@@ -49773,16 +49776,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="40.5">
@@ -49790,13 +49793,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E13" s="35"/>
     </row>
@@ -49805,13 +49808,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E14" s="35"/>
     </row>
@@ -49820,13 +49823,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E15" s="35"/>
     </row>
@@ -49835,13 +49838,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E16" s="35"/>
     </row>
@@ -49850,13 +49853,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="35"/>
     </row>
@@ -49865,13 +49868,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E18" s="35"/>
     </row>
@@ -49880,13 +49883,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E19" s="35"/>
     </row>
@@ -49895,13 +49898,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E20" s="35"/>
     </row>
@@ -49910,13 +49913,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E21" s="35"/>
     </row>
@@ -49925,22 +49928,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -49956,14 +49962,14 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -49977,7 +49983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Y1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y31" workbookViewId="0">
       <selection activeCell="BC2" sqref="BC2:BZ2"/>
     </sheetView>
   </sheetViews>
@@ -50132,7 +50138,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="79" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -50401,7 +50407,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -51533,7 +51539,7 @@
       <c r="BB23" s="26"/>
       <c r="BC23" s="1"/>
       <c r="BE23" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF23" s="83"/>
       <c r="BG23" s="83"/>
@@ -52542,7 +52548,7 @@
     </row>
     <row r="41" spans="1:78">
       <c r="A41" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="BB41" s="26"/>
       <c r="BC41" s="1"/>
@@ -52553,7 +52559,7 @@
     </row>
     <row r="43" spans="1:78">
       <c r="A43" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BB43" s="26"/>
       <c r="BC43" s="1"/>
@@ -52562,21 +52568,21 @@
       <c r="BB44" s="26"/>
       <c r="BC44" s="1"/>
       <c r="BD44" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:78">
       <c r="BB45" s="26"/>
       <c r="BC45" s="1"/>
       <c r="BE45" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:78">
       <c r="BB46" s="26"/>
       <c r="BC46" s="1"/>
       <c r="BF46" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:78">
@@ -52587,7 +52593,7 @@
       <c r="BB48" s="26"/>
       <c r="BC48" s="1"/>
       <c r="BE48" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="54:58">
@@ -52599,35 +52605,35 @@
       <c r="BB50" s="26"/>
       <c r="BC50" s="1"/>
       <c r="BF50" s="47" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="54:58">
       <c r="BB51" s="26"/>
       <c r="BC51" s="1"/>
       <c r="BF51" s="47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="54:58">
       <c r="BB52" s="26"/>
       <c r="BC52" s="1"/>
       <c r="BF52" s="47" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="54:58">
       <c r="BB53" s="26"/>
       <c r="BC53" s="1"/>
       <c r="BF53" s="47" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="54:58">
       <c r="BB54" s="26"/>
       <c r="BC54" s="1"/>
       <c r="BF54" s="47" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="54:58">
@@ -52639,7 +52645,7 @@
       <c r="BB56" s="26"/>
       <c r="BC56" s="1"/>
       <c r="BE56" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BF56" s="46"/>
     </row>
@@ -52751,7 +52757,7 @@
       <c r="BB83" s="26"/>
       <c r="BC83" s="1"/>
       <c r="BF83" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="54:58">
@@ -52845,7 +52851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="BD29" sqref="BD29:BE36"/>
     </sheetView>
   </sheetViews>
@@ -52941,7 +52947,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -52997,7 +53003,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="79" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -53266,7 +53272,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -53485,7 +53491,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -53567,7 +53573,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -54750,7 +54756,7 @@
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:78">
@@ -54810,7 +54816,7 @@
       <c r="BB30" s="26"/>
       <c r="BC30" s="1"/>
       <c r="BE30" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:78">
@@ -54870,7 +54876,7 @@
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
       <c r="BF31" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:78">
@@ -55158,7 +55164,7 @@
       <c r="BB36" s="26"/>
       <c r="BC36" s="1"/>
       <c r="BE36" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:57">
@@ -55773,7 +55779,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -55992,7 +55998,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -57544,7 +57550,7 @@
       <c r="BB34" s="26"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:59">
@@ -57604,7 +57610,7 @@
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
       <c r="BE35" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:59">
@@ -57721,7 +57727,7 @@
       <c r="BB37" s="26"/>
       <c r="BC37" s="1"/>
       <c r="BG37" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:59">
@@ -57783,7 +57789,7 @@
     <row r="41" spans="1:59">
       <c r="BB41" s="26"/>
       <c r="BE41" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:59">
@@ -58053,7 +58059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="CC35" sqref="CC35"/>
     </sheetView>
   </sheetViews>
@@ -58474,7 +58480,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -58693,7 +58699,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -58775,7 +58781,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -59899,7 +59905,7 @@
       <c r="BB28" s="26"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:78">
@@ -59959,7 +59965,7 @@
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
       <c r="BE29" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:78">
@@ -60076,7 +60082,7 @@
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
       <c r="BG31" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:78">
@@ -60307,7 +60313,7 @@
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
       <c r="BE35" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:57">
@@ -60892,7 +60898,7 @@
   <dimension ref="A1:BZ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AU22" sqref="AU22"/>
+      <selection activeCell="A2" sqref="A2:BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -60987,7 +60993,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -61043,7 +61049,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -61312,7 +61318,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -61531,7 +61537,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -61613,7 +61619,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -61694,7 +61700,7 @@
       <c r="BB10" s="26"/>
       <c r="BC10" s="1"/>
       <c r="BE10" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BF10" s="30"/>
       <c r="BG10" s="30"/>
@@ -61774,7 +61780,7 @@
       <c r="BB11" s="26"/>
       <c r="BC11" s="1"/>
       <c r="BE11" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BF11" s="30"/>
       <c r="BG11" s="30"/>
@@ -63364,12 +63370,12 @@
     </row>
     <row r="46" spans="1:78">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:78">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/doc/EMMS  Project 信息查询系统-网页模板格式(用于爬虫解析).xlsx
+++ b/doc/EMMS  Project 信息查询系统-网页模板格式(用于爬虫解析).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="495" windowWidth="14805" windowHeight="6840" tabRatio="911" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="495" windowWidth="14805" windowHeight="6840" tabRatio="911" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="6" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="285">
   <si>
     <t>香港大搜索有限公司</t>
   </si>
@@ -351,10 +351,6 @@
   </si>
   <si>
     <t>判决书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判案书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1360,6 +1356,24 @@
   <si>
     <t>变更：DIS=103299就可以，DIS可在上面的源代码中查找到</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上诉记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判案书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://legalref.judiciary.gov.hk/lrs/common/ju/ju_body.jsp?DIS=102431</t>
+  </si>
+  <si>
+    <t>1.当前网页URL参数DIS查询。从0开始采集数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://legalref.judiciary.gov.hk/lrs/common/search/search_appeal.jsp?DIS=98875</t>
   </si>
 </sst>
 </file>
@@ -3423,6 +3437,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>503297</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>18528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="3638550"/>
+          <a:ext cx="12228572" cy="4180953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3496,6 +3548,44 @@
         <a:xfrm>
           <a:off x="0" y="1285875"/>
           <a:ext cx="5047619" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>169922</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="4886325"/>
+          <a:ext cx="12228572" cy="4180953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7265,10 +7355,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ46"/>
+  <dimension ref="A1:BZ61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AV10" sqref="AV10"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="CF20" sqref="CF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7363,7 +7453,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -7419,7 +7509,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -7688,7 +7778,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -7907,7 +7997,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -7989,7 +8079,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -8631,11 +8721,10 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="26"/>
       <c r="BC19" s="1"/>
-      <c r="BZ19" s="13"/>
     </row>
     <row r="20" spans="1:78">
       <c r="A20" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8691,11 +8780,10 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="26"/>
       <c r="BC20" s="1"/>
-      <c r="BZ20" s="13"/>
     </row>
     <row r="21" spans="1:78">
       <c r="A21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -8751,7 +8839,9 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="26"/>
       <c r="BC21" s="1"/>
-      <c r="BZ21" s="13"/>
+      <c r="BE21" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="22" spans="1:78">
       <c r="A22" s="12"/>
@@ -8809,7 +8899,6 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="26"/>
       <c r="BC22" s="1"/>
-      <c r="BZ22" s="13"/>
     </row>
     <row r="23" spans="1:78">
       <c r="A23" s="12"/>
@@ -8867,7 +8956,6 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="26"/>
       <c r="BC23" s="1"/>
-      <c r="BZ23" s="13"/>
     </row>
     <row r="24" spans="1:78">
       <c r="A24" s="12"/>
@@ -8925,7 +9013,9 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="26"/>
       <c r="BC24" s="1"/>
-      <c r="BZ24" s="13"/>
+      <c r="BG24" s="2" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="25" spans="1:78">
       <c r="A25" s="12"/>
@@ -8983,7 +9073,6 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="26"/>
       <c r="BC25" s="1"/>
-      <c r="BZ25" s="13"/>
     </row>
     <row r="26" spans="1:78">
       <c r="A26" s="12"/>
@@ -9041,7 +9130,6 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="26"/>
       <c r="BC26" s="1"/>
-      <c r="BZ26" s="13"/>
     </row>
     <row r="27" spans="1:78">
       <c r="A27" s="12"/>
@@ -9099,7 +9187,9 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="26"/>
       <c r="BC27" s="1"/>
-      <c r="BZ27" s="13"/>
+      <c r="BE27" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="28" spans="1:78">
       <c r="A28" s="12"/>
@@ -9157,7 +9247,6 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="26"/>
       <c r="BC28" s="1"/>
-      <c r="BZ28" s="13"/>
     </row>
     <row r="29" spans="1:78">
       <c r="A29" s="12"/>
@@ -9215,7 +9304,6 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
-      <c r="BZ29" s="13"/>
     </row>
     <row r="30" spans="1:78">
       <c r="A30" s="12"/>
@@ -9273,7 +9361,6 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="26"/>
       <c r="BC30" s="1"/>
-      <c r="BZ30" s="13"/>
     </row>
     <row r="31" spans="1:78">
       <c r="A31" s="12"/>
@@ -9331,7 +9418,6 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
-      <c r="BZ31" s="13"/>
     </row>
     <row r="32" spans="1:78">
       <c r="A32" s="12"/>
@@ -9389,9 +9475,8 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="26"/>
       <c r="BC32" s="1"/>
-      <c r="BZ32" s="13"/>
-    </row>
-    <row r="33" spans="1:78">
+    </row>
+    <row r="33" spans="1:55">
       <c r="A33" s="12"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -9447,9 +9532,8 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="26"/>
       <c r="BC33" s="1"/>
-      <c r="BZ33" s="13"/>
-    </row>
-    <row r="34" spans="1:78">
+    </row>
+    <row r="34" spans="1:55">
       <c r="A34" s="12"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -9505,9 +9589,8 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="26"/>
       <c r="BC34" s="1"/>
-      <c r="BZ34" s="13"/>
-    </row>
-    <row r="35" spans="1:78">
+    </row>
+    <row r="35" spans="1:55">
       <c r="A35" s="12"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -9563,9 +9646,8 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
-      <c r="BZ35" s="13"/>
-    </row>
-    <row r="36" spans="1:78">
+    </row>
+    <row r="36" spans="1:55">
       <c r="A36" s="12"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -9621,9 +9703,8 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="26"/>
       <c r="BC36" s="1"/>
-      <c r="BZ36" s="13"/>
-    </row>
-    <row r="37" spans="1:78">
+    </row>
+    <row r="37" spans="1:55">
       <c r="A37" s="12"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -9679,9 +9760,8 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="26"/>
       <c r="BC37" s="1"/>
-      <c r="BZ37" s="13"/>
-    </row>
-    <row r="38" spans="1:78">
+    </row>
+    <row r="38" spans="1:55">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -9728,18 +9808,78 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="26"/>
       <c r="BC38" s="1"/>
-      <c r="BZ38" s="13"/>
-    </row>
-    <row r="39" spans="1:78">
+    </row>
+    <row r="39" spans="1:55">
+      <c r="BB39" s="26"/>
       <c r="BC39" s="1"/>
-      <c r="BZ39" s="13"/>
-    </row>
-    <row r="40" spans="1:78">
+    </row>
+    <row r="40" spans="1:55">
+      <c r="BB40" s="26"/>
       <c r="BC40" s="1"/>
-      <c r="BZ40" s="13"/>
-    </row>
-    <row r="46" spans="1:78">
+    </row>
+    <row r="41" spans="1:55">
+      <c r="BB41" s="26"/>
+    </row>
+    <row r="42" spans="1:55">
+      <c r="BB42" s="26"/>
+    </row>
+    <row r="43" spans="1:55">
+      <c r="BB43" s="26"/>
+    </row>
+    <row r="44" spans="1:55">
+      <c r="BB44" s="26"/>
+    </row>
+    <row r="45" spans="1:55">
+      <c r="BB45" s="26"/>
+    </row>
+    <row r="46" spans="1:55">
       <c r="A46"/>
+      <c r="BB46" s="26"/>
+    </row>
+    <row r="47" spans="1:55">
+      <c r="BB47" s="26"/>
+    </row>
+    <row r="48" spans="1:55">
+      <c r="BB48" s="26"/>
+    </row>
+    <row r="49" spans="54:54">
+      <c r="BB49" s="26"/>
+    </row>
+    <row r="50" spans="54:54">
+      <c r="BB50" s="26"/>
+    </row>
+    <row r="51" spans="54:54">
+      <c r="BB51" s="26"/>
+    </row>
+    <row r="52" spans="54:54">
+      <c r="BB52" s="26"/>
+    </row>
+    <row r="53" spans="54:54">
+      <c r="BB53" s="26"/>
+    </row>
+    <row r="54" spans="54:54">
+      <c r="BB54" s="26"/>
+    </row>
+    <row r="55" spans="54:54">
+      <c r="BB55" s="26"/>
+    </row>
+    <row r="56" spans="54:54">
+      <c r="BB56" s="26"/>
+    </row>
+    <row r="57" spans="54:54">
+      <c r="BB57" s="26"/>
+    </row>
+    <row r="58" spans="54:54">
+      <c r="BB58" s="26"/>
+    </row>
+    <row r="59" spans="54:54">
+      <c r="BB59" s="26"/>
+    </row>
+    <row r="60" spans="54:54">
+      <c r="BB60" s="26"/>
+    </row>
+    <row r="61" spans="54:54">
+      <c r="BB61" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9763,7 +9903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="CB47" sqref="CB47"/>
     </sheetView>
   </sheetViews>
@@ -9859,7 +9999,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -9915,7 +10055,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -10184,7 +10324,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -10403,7 +10543,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -10485,7 +10625,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -12189,7 +12329,7 @@
     </row>
     <row r="40" spans="1:78">
       <c r="A40" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB40" s="26"/>
       <c r="BC40" s="1"/>
@@ -12200,42 +12340,42 @@
     </row>
     <row r="42" spans="1:78">
       <c r="A42" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB42" s="26"/>
       <c r="BC42" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:78">
       <c r="BB43" s="26"/>
       <c r="BD43" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:78">
       <c r="BB44" s="26"/>
       <c r="BE44" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:78">
       <c r="BB45" s="26"/>
       <c r="BE45" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:78">
       <c r="A46"/>
       <c r="BB46" s="26"/>
       <c r="BE46" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:78">
       <c r="BB47" s="26"/>
       <c r="BE47" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:78">
@@ -12244,116 +12384,116 @@
     <row r="49" spans="54:56">
       <c r="BB49" s="26"/>
       <c r="BD49" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="54:56">
+      <c r="BB50" s="26"/>
+    </row>
+    <row r="51" spans="54:56">
+      <c r="BB51" s="26"/>
+    </row>
+    <row r="52" spans="54:56">
+      <c r="BB52" s="26"/>
+    </row>
+    <row r="53" spans="54:56">
+      <c r="BB53" s="26"/>
+    </row>
+    <row r="54" spans="54:56">
+      <c r="BB54" s="26"/>
+    </row>
+    <row r="55" spans="54:56">
+      <c r="BB55" s="26"/>
+    </row>
+    <row r="56" spans="54:56">
+      <c r="BB56" s="26"/>
+    </row>
+    <row r="57" spans="54:56">
+      <c r="BB57" s="26"/>
+    </row>
+    <row r="58" spans="54:56">
+      <c r="BB58" s="26"/>
+    </row>
+    <row r="59" spans="54:56">
+      <c r="BB59" s="26"/>
+    </row>
+    <row r="60" spans="54:56">
+      <c r="BB60" s="26"/>
+    </row>
+    <row r="61" spans="54:56">
+      <c r="BB61" s="26"/>
+    </row>
+    <row r="62" spans="54:56">
+      <c r="BB62" s="26"/>
+    </row>
+    <row r="63" spans="54:56">
+      <c r="BB63" s="26"/>
+    </row>
+    <row r="64" spans="54:56">
+      <c r="BB64" s="26"/>
+    </row>
+    <row r="65" spans="54:54">
+      <c r="BB65" s="26"/>
+    </row>
+    <row r="66" spans="54:54">
+      <c r="BB66" s="26"/>
+    </row>
+    <row r="67" spans="54:54">
+      <c r="BB67" s="26"/>
+    </row>
+    <row r="68" spans="54:54">
+      <c r="BB68" s="26"/>
+    </row>
+    <row r="69" spans="54:54">
+      <c r="BB69" s="26"/>
+    </row>
+    <row r="70" spans="54:54">
+      <c r="BB70" s="26"/>
+    </row>
+    <row r="71" spans="54:54">
+      <c r="BB71" s="26"/>
+    </row>
+    <row r="72" spans="54:54">
+      <c r="BB72" s="26"/>
+    </row>
+    <row r="73" spans="54:54">
+      <c r="BB73" s="26"/>
+    </row>
+    <row r="74" spans="54:54">
+      <c r="BB74" s="26"/>
+    </row>
+    <row r="75" spans="54:54">
+      <c r="BB75" s="26"/>
+    </row>
+    <row r="76" spans="54:54">
+      <c r="BB76" s="26"/>
+    </row>
+    <row r="77" spans="54:54">
+      <c r="BB77" s="26"/>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="54:56">
-      <c r="BB50" s="26"/>
-    </row>
-    <row r="51" spans="54:56">
-      <c r="BB51" s="26"/>
-    </row>
-    <row r="52" spans="54:56">
-      <c r="BB52" s="26"/>
-    </row>
-    <row r="53" spans="54:56">
-      <c r="BB53" s="26"/>
-    </row>
-    <row r="54" spans="54:56">
-      <c r="BB54" s="26"/>
-    </row>
-    <row r="55" spans="54:56">
-      <c r="BB55" s="26"/>
-    </row>
-    <row r="56" spans="54:56">
-      <c r="BB56" s="26"/>
-    </row>
-    <row r="57" spans="54:56">
-      <c r="BB57" s="26"/>
-    </row>
-    <row r="58" spans="54:56">
-      <c r="BB58" s="26"/>
-    </row>
-    <row r="59" spans="54:56">
-      <c r="BB59" s="26"/>
-    </row>
-    <row r="60" spans="54:56">
-      <c r="BB60" s="26"/>
-    </row>
-    <row r="61" spans="54:56">
-      <c r="BB61" s="26"/>
-    </row>
-    <row r="62" spans="54:56">
-      <c r="BB62" s="26"/>
-    </row>
-    <row r="63" spans="54:56">
-      <c r="BB63" s="26"/>
-    </row>
-    <row r="64" spans="54:56">
-      <c r="BB64" s="26"/>
-    </row>
-    <row r="65" spans="54:54">
-      <c r="BB65" s="26"/>
-    </row>
-    <row r="66" spans="54:54">
-      <c r="BB66" s="26"/>
-    </row>
-    <row r="67" spans="54:54">
-      <c r="BB67" s="26"/>
-    </row>
-    <row r="68" spans="54:54">
-      <c r="BB68" s="26"/>
-    </row>
-    <row r="69" spans="54:54">
-      <c r="BB69" s="26"/>
-    </row>
-    <row r="70" spans="54:54">
-      <c r="BB70" s="26"/>
-    </row>
-    <row r="71" spans="54:54">
-      <c r="BB71" s="26"/>
-    </row>
-    <row r="72" spans="54:54">
-      <c r="BB72" s="26"/>
-    </row>
-    <row r="73" spans="54:54">
-      <c r="BB73" s="26"/>
-    </row>
-    <row r="74" spans="54:54">
-      <c r="BB74" s="26"/>
-    </row>
-    <row r="75" spans="54:54">
-      <c r="BB75" s="26"/>
-    </row>
-    <row r="76" spans="54:54">
-      <c r="BB76" s="26"/>
-    </row>
-    <row r="77" spans="54:54">
-      <c r="BB77" s="26"/>
-    </row>
-    <row r="84" spans="3:4">
-      <c r="C84" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
     <row r="86" spans="3:4">
       <c r="C86" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="D87" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="D88" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="3:4">
-      <c r="D87" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="D88" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
     <row r="129" spans="2:2">
       <c r="B129" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -12474,7 +12614,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -12530,7 +12670,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -12799,7 +12939,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -13018,7 +13158,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -13100,7 +13240,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -14925,7 +15065,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -14981,7 +15121,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -15250,7 +15390,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -15469,7 +15609,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -15551,7 +15691,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -15632,7 +15772,7 @@
       <c r="BB10" s="26"/>
       <c r="BC10" s="1"/>
       <c r="BE10" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BF10" s="30"/>
       <c r="BG10" s="30"/>
@@ -15712,7 +15852,7 @@
       <c r="BB11" s="26"/>
       <c r="BC11" s="1"/>
       <c r="BE11" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BF11" s="30"/>
       <c r="BG11" s="30"/>
@@ -15792,7 +15932,7 @@
       <c r="BB12" s="26"/>
       <c r="BC12" s="1"/>
       <c r="BE12" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BF12" s="30"/>
       <c r="BG12" s="30"/>
@@ -17442,7 +17582,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -17498,7 +17638,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -17767,7 +17907,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -17986,7 +18126,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -18068,7 +18208,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -19893,7 +20033,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -19949,7 +20089,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -20218,7 +20358,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -20437,7 +20577,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -20519,7 +20659,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -22344,7 +22484,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -22400,7 +22540,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -22669,7 +22809,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -22888,7 +23028,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -22970,7 +23110,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -24795,7 +24935,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -24851,7 +24991,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -25120,7 +25260,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -25339,7 +25479,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -25421,7 +25561,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -27246,7 +27386,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -27302,7 +27442,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -27571,7 +27711,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -27790,7 +27930,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -27872,7 +28012,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -29697,7 +29837,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -29753,7 +29893,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -30022,7 +30162,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -30241,7 +30381,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -30323,7 +30463,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -32114,7 +32254,7 @@
     <row r="2" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -32137,7 +32277,7 @@
       <c r="U2" s="68"/>
       <c r="V2" s="69"/>
       <c r="W2" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X2" s="65"/>
       <c r="Y2" s="65"/>
@@ -32148,13 +32288,13 @@
       <c r="AD2" s="65"/>
       <c r="AE2" s="65"/>
       <c r="AF2" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG2" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="AG2" s="39" t="s">
+      <c r="AH2" s="66" t="s">
         <v>128</v>
-      </c>
-      <c r="AH2" s="66" t="s">
-        <v>129</v>
       </c>
       <c r="AI2" s="66"/>
       <c r="AJ2" s="66"/>
@@ -32169,7 +32309,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
@@ -32192,7 +32332,7 @@
       <c r="U3" s="59"/>
       <c r="V3" s="60"/>
       <c r="W3" s="61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X3" s="62"/>
       <c r="Y3" s="62"/>
@@ -32203,7 +32343,7 @@
       <c r="AD3" s="62"/>
       <c r="AE3" s="63"/>
       <c r="AF3" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG3" s="38"/>
       <c r="AH3" s="64"/>
@@ -32220,7 +32360,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
@@ -32243,7 +32383,7 @@
       <c r="U4" s="59"/>
       <c r="V4" s="60"/>
       <c r="W4" s="61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X4" s="62"/>
       <c r="Y4" s="62"/>
@@ -32254,7 +32394,7 @@
       <c r="AD4" s="62"/>
       <c r="AE4" s="63"/>
       <c r="AF4" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG4" s="38"/>
       <c r="AH4" s="64"/>
@@ -32271,7 +32411,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -32294,7 +32434,7 @@
       <c r="U5" s="59"/>
       <c r="V5" s="60"/>
       <c r="W5" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X5" s="62"/>
       <c r="Y5" s="62"/>
@@ -32305,10 +32445,10 @@
       <c r="AD5" s="62"/>
       <c r="AE5" s="63"/>
       <c r="AF5" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG5" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH5" s="64"/>
       <c r="AI5" s="64"/>
@@ -32324,7 +32464,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
@@ -32347,7 +32487,7 @@
       <c r="U6" s="59"/>
       <c r="V6" s="60"/>
       <c r="W6" s="61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X6" s="62"/>
       <c r="Y6" s="62"/>
@@ -32358,10 +32498,10 @@
       <c r="AD6" s="62"/>
       <c r="AE6" s="63"/>
       <c r="AF6" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG6" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH6" s="64"/>
       <c r="AI6" s="64"/>
@@ -32377,7 +32517,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -32400,7 +32540,7 @@
       <c r="U7" s="59"/>
       <c r="V7" s="60"/>
       <c r="W7" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X7" s="62"/>
       <c r="Y7" s="62"/>
@@ -32411,10 +32551,10 @@
       <c r="AD7" s="62"/>
       <c r="AE7" s="63"/>
       <c r="AF7" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG7" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AH7" s="64"/>
       <c r="AI7" s="64"/>
@@ -32430,7 +32570,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -32453,7 +32593,7 @@
       <c r="U8" s="59"/>
       <c r="V8" s="60"/>
       <c r="W8" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X8" s="62"/>
       <c r="Y8" s="62"/>
@@ -32464,10 +32604,10 @@
       <c r="AD8" s="62"/>
       <c r="AE8" s="63"/>
       <c r="AF8" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG8" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH8" s="64"/>
       <c r="AI8" s="64"/>
@@ -32483,7 +32623,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
@@ -32506,7 +32646,7 @@
       <c r="U9" s="59"/>
       <c r="V9" s="60"/>
       <c r="W9" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X9" s="62"/>
       <c r="Y9" s="62"/>
@@ -32517,10 +32657,10 @@
       <c r="AD9" s="62"/>
       <c r="AE9" s="63"/>
       <c r="AF9" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG9" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH9" s="64"/>
       <c r="AI9" s="64"/>
@@ -32536,7 +32676,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
@@ -32559,7 +32699,7 @@
       <c r="U10" s="59"/>
       <c r="V10" s="60"/>
       <c r="W10" s="61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X10" s="62"/>
       <c r="Y10" s="62"/>
@@ -32570,7 +32710,7 @@
       <c r="AD10" s="62"/>
       <c r="AE10" s="63"/>
       <c r="AF10" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG10" s="38"/>
       <c r="AH10" s="64"/>
@@ -32587,7 +32727,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
@@ -32610,7 +32750,7 @@
       <c r="U11" s="59"/>
       <c r="V11" s="60"/>
       <c r="W11" s="61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X11" s="62"/>
       <c r="Y11" s="62"/>
@@ -32621,10 +32761,10 @@
       <c r="AD11" s="62"/>
       <c r="AE11" s="63"/>
       <c r="AF11" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG11" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH11" s="64"/>
       <c r="AI11" s="64"/>
@@ -32640,7 +32780,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
@@ -32663,7 +32803,7 @@
       <c r="U12" s="59"/>
       <c r="V12" s="60"/>
       <c r="W12" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X12" s="62"/>
       <c r="Y12" s="62"/>
@@ -32674,10 +32814,10 @@
       <c r="AD12" s="62"/>
       <c r="AE12" s="63"/>
       <c r="AF12" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG12" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH12" s="64"/>
       <c r="AI12" s="64"/>
@@ -32693,7 +32833,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -32716,7 +32856,7 @@
       <c r="U13" s="59"/>
       <c r="V13" s="60"/>
       <c r="W13" s="61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X13" s="62"/>
       <c r="Y13" s="62"/>
@@ -32728,7 +32868,7 @@
       <c r="AE13" s="63"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH13" s="64"/>
       <c r="AI13" s="64"/>
@@ -32744,7 +32884,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -32767,7 +32907,7 @@
       <c r="U14" s="59"/>
       <c r="V14" s="60"/>
       <c r="W14" s="61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X14" s="62"/>
       <c r="Y14" s="62"/>
@@ -32779,7 +32919,7 @@
       <c r="AE14" s="63"/>
       <c r="AF14" s="16"/>
       <c r="AG14" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH14" s="64"/>
       <c r="AI14" s="64"/>
@@ -32795,7 +32935,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
@@ -32818,7 +32958,7 @@
       <c r="U15" s="59"/>
       <c r="V15" s="60"/>
       <c r="W15" s="61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X15" s="62"/>
       <c r="Y15" s="62"/>
@@ -32830,7 +32970,7 @@
       <c r="AE15" s="63"/>
       <c r="AF15" s="16"/>
       <c r="AG15" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH15" s="64"/>
       <c r="AI15" s="64"/>
@@ -32846,7 +32986,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
@@ -32869,7 +33009,7 @@
       <c r="U16" s="59"/>
       <c r="V16" s="60"/>
       <c r="W16" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X16" s="62"/>
       <c r="Y16" s="62"/>
@@ -32881,7 +33021,7 @@
       <c r="AE16" s="63"/>
       <c r="AF16" s="16"/>
       <c r="AG16" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH16" s="64"/>
       <c r="AI16" s="64"/>
@@ -32897,7 +33037,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -32920,7 +33060,7 @@
       <c r="U17" s="59"/>
       <c r="V17" s="60"/>
       <c r="W17" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X17" s="62"/>
       <c r="Y17" s="62"/>
@@ -32932,7 +33072,7 @@
       <c r="AE17" s="63"/>
       <c r="AF17" s="16"/>
       <c r="AG17" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH17" s="64"/>
       <c r="AI17" s="64"/>
@@ -32948,7 +33088,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -32971,7 +33111,7 @@
       <c r="U18" s="59"/>
       <c r="V18" s="60"/>
       <c r="W18" s="61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X18" s="62"/>
       <c r="Y18" s="62"/>
@@ -32983,7 +33123,7 @@
       <c r="AE18" s="63"/>
       <c r="AF18" s="16"/>
       <c r="AG18" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH18" s="64"/>
       <c r="AI18" s="64"/>
@@ -32999,7 +33139,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -33022,7 +33162,7 @@
       <c r="U19" s="59"/>
       <c r="V19" s="60"/>
       <c r="W19" s="61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X19" s="62"/>
       <c r="Y19" s="62"/>
@@ -33033,7 +33173,7 @@
       <c r="AD19" s="62"/>
       <c r="AE19" s="63"/>
       <c r="AF19" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG19" s="38"/>
       <c r="AH19" s="64"/>
@@ -33050,7 +33190,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -33073,7 +33213,7 @@
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
       <c r="W20" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X20" s="62"/>
       <c r="Y20" s="62"/>
@@ -33084,7 +33224,7 @@
       <c r="AD20" s="62"/>
       <c r="AE20" s="63"/>
       <c r="AF20" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG20" s="38"/>
       <c r="AH20" s="64"/>
@@ -33101,7 +33241,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -33124,7 +33264,7 @@
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
       <c r="W21" s="61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X21" s="62"/>
       <c r="Y21" s="62"/>
@@ -33135,10 +33275,10 @@
       <c r="AD21" s="62"/>
       <c r="AE21" s="63"/>
       <c r="AF21" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG21" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH21" s="64"/>
       <c r="AI21" s="64"/>
@@ -33154,7 +33294,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -33177,7 +33317,7 @@
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
       <c r="W22" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X22" s="62"/>
       <c r="Y22" s="62"/>
@@ -33188,10 +33328,10 @@
       <c r="AD22" s="62"/>
       <c r="AE22" s="63"/>
       <c r="AF22" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG22" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AH22" s="64"/>
       <c r="AI22" s="64"/>
@@ -33207,7 +33347,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -33230,7 +33370,7 @@
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
       <c r="W23" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X23" s="62"/>
       <c r="Y23" s="62"/>
@@ -33241,7 +33381,7 @@
       <c r="AD23" s="62"/>
       <c r="AE23" s="63"/>
       <c r="AF23" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG23" s="38"/>
       <c r="AH23" s="64"/>
@@ -33258,7 +33398,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -33281,7 +33421,7 @@
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
       <c r="W24" s="61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
@@ -33292,10 +33432,10 @@
       <c r="AD24" s="62"/>
       <c r="AE24" s="63"/>
       <c r="AF24" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG24" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AH24" s="64"/>
       <c r="AI24" s="64"/>
@@ -33311,7 +33451,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -33334,7 +33474,7 @@
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
       <c r="W25" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X25" s="62"/>
       <c r="Y25" s="62"/>
@@ -33345,10 +33485,10 @@
       <c r="AD25" s="62"/>
       <c r="AE25" s="63"/>
       <c r="AF25" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG25" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH25" s="64"/>
       <c r="AI25" s="64"/>
@@ -33364,7 +33504,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
@@ -33387,7 +33527,7 @@
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
       <c r="W26" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X26" s="62"/>
       <c r="Y26" s="62"/>
@@ -33398,10 +33538,10 @@
       <c r="AD26" s="62"/>
       <c r="AE26" s="63"/>
       <c r="AF26" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG26" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH26" s="64"/>
       <c r="AI26" s="64"/>
@@ -33417,7 +33557,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -33440,7 +33580,7 @@
       <c r="U27" s="59"/>
       <c r="V27" s="60"/>
       <c r="W27" s="61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X27" s="62"/>
       <c r="Y27" s="62"/>
@@ -33451,10 +33591,10 @@
       <c r="AD27" s="62"/>
       <c r="AE27" s="63"/>
       <c r="AF27" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG27" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH27" s="64"/>
       <c r="AI27" s="64"/>
@@ -33470,7 +33610,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
@@ -33493,7 +33633,7 @@
       <c r="U28" s="59"/>
       <c r="V28" s="60"/>
       <c r="W28" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X28" s="62"/>
       <c r="Y28" s="62"/>
@@ -33504,10 +33644,10 @@
       <c r="AD28" s="62"/>
       <c r="AE28" s="63"/>
       <c r="AF28" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG28" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH28" s="64"/>
       <c r="AI28" s="64"/>
@@ -33523,7 +33663,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -33546,7 +33686,7 @@
       <c r="U29" s="59"/>
       <c r="V29" s="60"/>
       <c r="W29" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X29" s="62"/>
       <c r="Y29" s="62"/>
@@ -33557,10 +33697,10 @@
       <c r="AD29" s="62"/>
       <c r="AE29" s="63"/>
       <c r="AF29" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG29" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH29" s="64"/>
       <c r="AI29" s="64"/>
@@ -33576,7 +33716,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -33599,7 +33739,7 @@
       <c r="U30" s="59"/>
       <c r="V30" s="60"/>
       <c r="W30" s="61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X30" s="62"/>
       <c r="Y30" s="62"/>
@@ -33610,7 +33750,7 @@
       <c r="AD30" s="62"/>
       <c r="AE30" s="63"/>
       <c r="AF30" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG30" s="38"/>
       <c r="AH30" s="64"/>
@@ -33627,7 +33767,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="71"/>
@@ -33650,7 +33790,7 @@
       <c r="U31" s="71"/>
       <c r="V31" s="72"/>
       <c r="W31" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X31" s="62"/>
       <c r="Y31" s="62"/>
@@ -33661,7 +33801,7 @@
       <c r="AD31" s="62"/>
       <c r="AE31" s="63"/>
       <c r="AF31" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG31" s="38"/>
       <c r="AH31" s="64"/>
@@ -33678,7 +33818,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
@@ -33701,7 +33841,7 @@
       <c r="U32" s="59"/>
       <c r="V32" s="60"/>
       <c r="W32" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X32" s="62"/>
       <c r="Y32" s="62"/>
@@ -33712,10 +33852,10 @@
       <c r="AD32" s="62"/>
       <c r="AE32" s="63"/>
       <c r="AF32" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG32" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH32" s="64"/>
       <c r="AI32" s="64"/>
@@ -33731,7 +33871,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
@@ -33754,7 +33894,7 @@
       <c r="U33" s="59"/>
       <c r="V33" s="60"/>
       <c r="W33" s="61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X33" s="62"/>
       <c r="Y33" s="62"/>
@@ -33765,10 +33905,10 @@
       <c r="AD33" s="62"/>
       <c r="AE33" s="63"/>
       <c r="AF33" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG33" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH33" s="64"/>
       <c r="AI33" s="64"/>
@@ -33784,7 +33924,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -33807,7 +33947,7 @@
       <c r="U34" s="59"/>
       <c r="V34" s="60"/>
       <c r="W34" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X34" s="62"/>
       <c r="Y34" s="62"/>
@@ -33818,7 +33958,7 @@
       <c r="AD34" s="62"/>
       <c r="AE34" s="63"/>
       <c r="AF34" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG34" s="38"/>
       <c r="AH34" s="64"/>
@@ -33835,7 +33975,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
@@ -33858,7 +33998,7 @@
       <c r="U35" s="59"/>
       <c r="V35" s="60"/>
       <c r="W35" s="61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X35" s="62"/>
       <c r="Y35" s="62"/>
@@ -33869,10 +34009,10 @@
       <c r="AD35" s="62"/>
       <c r="AE35" s="63"/>
       <c r="AF35" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG35" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH35" s="64"/>
       <c r="AI35" s="64"/>
@@ -33888,7 +34028,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
@@ -33911,7 +34051,7 @@
       <c r="U36" s="59"/>
       <c r="V36" s="60"/>
       <c r="W36" s="61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X36" s="62"/>
       <c r="Y36" s="62"/>
@@ -33922,10 +34062,10 @@
       <c r="AD36" s="62"/>
       <c r="AE36" s="63"/>
       <c r="AF36" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG36" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH36" s="64"/>
       <c r="AI36" s="64"/>
@@ -33941,7 +34081,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
@@ -33964,7 +34104,7 @@
       <c r="U37" s="59"/>
       <c r="V37" s="60"/>
       <c r="W37" s="61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X37" s="62"/>
       <c r="Y37" s="62"/>
@@ -33975,10 +34115,10 @@
       <c r="AD37" s="62"/>
       <c r="AE37" s="63"/>
       <c r="AF37" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG37" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH37" s="64"/>
       <c r="AI37" s="64"/>
@@ -33994,7 +34134,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
@@ -34017,7 +34157,7 @@
       <c r="U38" s="59"/>
       <c r="V38" s="60"/>
       <c r="W38" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X38" s="62"/>
       <c r="Y38" s="62"/>
@@ -34028,10 +34168,10 @@
       <c r="AD38" s="62"/>
       <c r="AE38" s="63"/>
       <c r="AF38" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG38" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH38" s="64"/>
       <c r="AI38" s="64"/>
@@ -34047,7 +34187,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -34070,7 +34210,7 @@
       <c r="U39" s="59"/>
       <c r="V39" s="60"/>
       <c r="W39" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X39" s="62"/>
       <c r="Y39" s="62"/>
@@ -34081,10 +34221,10 @@
       <c r="AD39" s="62"/>
       <c r="AE39" s="63"/>
       <c r="AF39" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG39" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AH39" s="64"/>
       <c r="AI39" s="64"/>
@@ -34100,7 +34240,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
@@ -34123,7 +34263,7 @@
       <c r="U40" s="59"/>
       <c r="V40" s="60"/>
       <c r="W40" s="61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X40" s="62"/>
       <c r="Y40" s="62"/>
@@ -34134,7 +34274,7 @@
       <c r="AD40" s="62"/>
       <c r="AE40" s="63"/>
       <c r="AF40" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG40" s="38"/>
       <c r="AH40" s="64"/>
@@ -34151,7 +34291,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="71"/>
@@ -34174,7 +34314,7 @@
       <c r="U41" s="71"/>
       <c r="V41" s="72"/>
       <c r="W41" s="61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X41" s="62"/>
       <c r="Y41" s="62"/>
@@ -34185,7 +34325,7 @@
       <c r="AD41" s="62"/>
       <c r="AE41" s="63"/>
       <c r="AF41" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG41" s="38"/>
       <c r="AH41" s="64"/>
@@ -34202,7 +34342,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -34225,7 +34365,7 @@
       <c r="U42" s="59"/>
       <c r="V42" s="60"/>
       <c r="W42" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X42" s="62"/>
       <c r="Y42" s="62"/>
@@ -34236,7 +34376,7 @@
       <c r="AD42" s="62"/>
       <c r="AE42" s="63"/>
       <c r="AF42" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG42" s="38"/>
       <c r="AH42" s="64"/>
@@ -34253,7 +34393,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
@@ -34276,7 +34416,7 @@
       <c r="U43" s="59"/>
       <c r="V43" s="60"/>
       <c r="W43" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X43" s="62"/>
       <c r="Y43" s="62"/>
@@ -34287,7 +34427,7 @@
       <c r="AD43" s="62"/>
       <c r="AE43" s="63"/>
       <c r="AF43" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG43" s="38"/>
       <c r="AH43" s="64"/>
@@ -34304,7 +34444,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -34327,7 +34467,7 @@
       <c r="U44" s="59"/>
       <c r="V44" s="60"/>
       <c r="W44" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X44" s="62"/>
       <c r="Y44" s="62"/>
@@ -34338,7 +34478,7 @@
       <c r="AD44" s="62"/>
       <c r="AE44" s="63"/>
       <c r="AF44" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG44" s="38"/>
       <c r="AH44" s="64"/>
@@ -34355,7 +34495,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
@@ -34378,7 +34518,7 @@
       <c r="U45" s="59"/>
       <c r="V45" s="60"/>
       <c r="W45" s="61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X45" s="62"/>
       <c r="Y45" s="62"/>
@@ -34389,10 +34529,10 @@
       <c r="AD45" s="62"/>
       <c r="AE45" s="63"/>
       <c r="AF45" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG45" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH45" s="64"/>
       <c r="AI45" s="64"/>
@@ -34408,7 +34548,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
@@ -34431,7 +34571,7 @@
       <c r="U46" s="59"/>
       <c r="V46" s="60"/>
       <c r="W46" s="61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X46" s="62"/>
       <c r="Y46" s="62"/>
@@ -34442,7 +34582,7 @@
       <c r="AD46" s="62"/>
       <c r="AE46" s="63"/>
       <c r="AF46" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG46" s="38"/>
       <c r="AH46" s="64"/>
@@ -34459,7 +34599,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
@@ -34482,7 +34622,7 @@
       <c r="U47" s="59"/>
       <c r="V47" s="60"/>
       <c r="W47" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X47" s="62"/>
       <c r="Y47" s="62"/>
@@ -34493,7 +34633,7 @@
       <c r="AD47" s="62"/>
       <c r="AE47" s="63"/>
       <c r="AF47" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG47" s="38"/>
       <c r="AH47" s="64"/>
@@ -34510,7 +34650,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
@@ -34533,7 +34673,7 @@
       <c r="U48" s="59"/>
       <c r="V48" s="60"/>
       <c r="W48" s="61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X48" s="62"/>
       <c r="Y48" s="62"/>
@@ -34544,10 +34684,10 @@
       <c r="AD48" s="62"/>
       <c r="AE48" s="63"/>
       <c r="AF48" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG48" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH48" s="64"/>
       <c r="AI48" s="64"/>
@@ -34563,7 +34703,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -34586,7 +34726,7 @@
       <c r="U49" s="59"/>
       <c r="V49" s="60"/>
       <c r="W49" s="61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X49" s="62"/>
       <c r="Y49" s="62"/>
@@ -34597,10 +34737,10 @@
       <c r="AD49" s="62"/>
       <c r="AE49" s="63"/>
       <c r="AF49" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG49" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AH49" s="64"/>
       <c r="AI49" s="64"/>
@@ -34616,7 +34756,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
@@ -34639,7 +34779,7 @@
       <c r="U50" s="59"/>
       <c r="V50" s="60"/>
       <c r="W50" s="61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X50" s="62"/>
       <c r="Y50" s="62"/>
@@ -34650,10 +34790,10 @@
       <c r="AD50" s="62"/>
       <c r="AE50" s="63"/>
       <c r="AF50" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG50" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH50" s="64"/>
       <c r="AI50" s="64"/>
@@ -34971,7 +35111,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -35027,7 +35167,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -35296,7 +35436,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -35515,7 +35655,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -35597,7 +35737,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -37422,7 +37562,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -37478,7 +37618,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -37747,7 +37887,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -37966,7 +38106,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -38048,7 +38188,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -39873,7 +40013,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -39929,7 +40069,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -40198,7 +40338,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -40417,7 +40557,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -40499,7 +40639,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -42325,7 +42465,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -42381,7 +42521,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -42650,7 +42790,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -42869,7 +43009,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -42951,7 +43091,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -44776,7 +44916,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -44832,7 +44972,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -45101,7 +45241,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -45320,7 +45460,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -45402,7 +45542,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -47230,7 +47370,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -47286,7 +47426,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -47555,7 +47695,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -47774,7 +47914,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -47856,7 +47996,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -49620,7 +49760,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>22</v>
@@ -49629,7 +49769,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27">
@@ -49637,7 +49777,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>25</v>
@@ -49652,13 +49792,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="33"/>
     </row>
@@ -49667,7 +49807,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>31</v>
@@ -49682,13 +49822,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="33"/>
     </row>
@@ -49697,13 +49837,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="33"/>
     </row>
@@ -49712,13 +49852,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="33"/>
     </row>
@@ -49727,13 +49867,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="33"/>
     </row>
@@ -49742,16 +49882,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5">
@@ -49759,16 +49899,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27">
@@ -49776,16 +49916,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="40.5">
@@ -49793,13 +49933,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="35"/>
     </row>
@@ -49808,13 +49948,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="35"/>
     </row>
@@ -49823,13 +49963,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="35"/>
     </row>
@@ -49838,13 +49978,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="35"/>
     </row>
@@ -49853,13 +49993,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="35"/>
     </row>
@@ -49868,13 +50008,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="35"/>
     </row>
@@ -49883,13 +50023,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="35"/>
     </row>
@@ -49898,13 +50038,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="35"/>
     </row>
@@ -49913,13 +50053,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="35"/>
     </row>
@@ -49928,16 +50068,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -49962,14 +50102,14 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -49983,7 +50123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y31" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="Y31" workbookViewId="0">
       <selection activeCell="BC2" sqref="BC2:BZ2"/>
     </sheetView>
   </sheetViews>
@@ -50138,7 +50278,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -50407,7 +50547,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -51539,7 +51679,7 @@
       <c r="BB23" s="26"/>
       <c r="BC23" s="1"/>
       <c r="BE23" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF23" s="83"/>
       <c r="BG23" s="83"/>
@@ -52548,7 +52688,7 @@
     </row>
     <row r="41" spans="1:78">
       <c r="A41" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB41" s="26"/>
       <c r="BC41" s="1"/>
@@ -52559,7 +52699,7 @@
     </row>
     <row r="43" spans="1:78">
       <c r="A43" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB43" s="26"/>
       <c r="BC43" s="1"/>
@@ -52568,21 +52708,21 @@
       <c r="BB44" s="26"/>
       <c r="BC44" s="1"/>
       <c r="BD44" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:78">
       <c r="BB45" s="26"/>
       <c r="BC45" s="1"/>
       <c r="BE45" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:78">
       <c r="BB46" s="26"/>
       <c r="BC46" s="1"/>
       <c r="BF46" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:78">
@@ -52593,7 +52733,7 @@
       <c r="BB48" s="26"/>
       <c r="BC48" s="1"/>
       <c r="BE48" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="54:58">
@@ -52605,35 +52745,35 @@
       <c r="BB50" s="26"/>
       <c r="BC50" s="1"/>
       <c r="BF50" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="54:58">
       <c r="BB51" s="26"/>
       <c r="BC51" s="1"/>
       <c r="BF51" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="54:58">
       <c r="BB52" s="26"/>
       <c r="BC52" s="1"/>
       <c r="BF52" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="54:58">
       <c r="BB53" s="26"/>
       <c r="BC53" s="1"/>
       <c r="BF53" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="54:58">
       <c r="BB54" s="26"/>
       <c r="BC54" s="1"/>
       <c r="BF54" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="54:58">
@@ -52645,7 +52785,7 @@
       <c r="BB56" s="26"/>
       <c r="BC56" s="1"/>
       <c r="BE56" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BF56" s="46"/>
     </row>
@@ -52757,7 +52897,7 @@
       <c r="BB83" s="26"/>
       <c r="BC83" s="1"/>
       <c r="BF83" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="54:58">
@@ -52947,7 +53087,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -53003,7 +53143,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -53272,7 +53412,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -53491,7 +53631,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -53573,7 +53713,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -54756,7 +54896,7 @@
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:78">
@@ -54816,7 +54956,7 @@
       <c r="BB30" s="26"/>
       <c r="BC30" s="1"/>
       <c r="BE30" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:78">
@@ -54876,7 +55016,7 @@
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
       <c r="BF31" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:78">
@@ -55164,7 +55304,7 @@
       <c r="BB36" s="26"/>
       <c r="BC36" s="1"/>
       <c r="BE36" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:57">
@@ -55779,7 +55919,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -55998,7 +56138,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -57550,7 +57690,7 @@
       <c r="BB34" s="26"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:59">
@@ -57610,7 +57750,7 @@
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
       <c r="BE35" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:59">
@@ -57727,7 +57867,7 @@
       <c r="BB37" s="26"/>
       <c r="BC37" s="1"/>
       <c r="BG37" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:59">
@@ -57789,7 +57929,7 @@
     <row r="41" spans="1:59">
       <c r="BB41" s="26"/>
       <c r="BE41" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:59">
@@ -58060,7 +58200,7 @@
   <dimension ref="A1:BZ170"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="CC35" sqref="CC35"/>
+      <selection activeCell="BD28" sqref="BD28:BE35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -58480,7 +58620,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -58699,7 +58839,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -58781,7 +58921,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -59905,7 +60045,7 @@
       <c r="BB28" s="26"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:78">
@@ -59965,7 +60105,7 @@
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
       <c r="BE29" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:78">
@@ -60082,7 +60222,7 @@
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
       <c r="BG31" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:78">
@@ -60313,7 +60453,7 @@
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
       <c r="BE35" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:57">
@@ -60889,7 +61029,8 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -60897,8 +61038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BB2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="BF20" sqref="BF14:BF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -60993,7 +61134,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -61318,7 +61459,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -61537,7 +61678,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -61619,7 +61760,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -61700,7 +61841,7 @@
       <c r="BB10" s="26"/>
       <c r="BC10" s="1"/>
       <c r="BE10" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BF10" s="30"/>
       <c r="BG10" s="30"/>
@@ -61780,7 +61921,7 @@
       <c r="BB11" s="26"/>
       <c r="BC11" s="1"/>
       <c r="BE11" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BF11" s="30"/>
       <c r="BG11" s="30"/>
@@ -61917,7 +62058,9 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="26"/>
       <c r="BC13" s="1"/>
-      <c r="BZ13" s="13"/>
+      <c r="BE13" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="14" spans="1:78">
       <c r="A14" s="12"/>
@@ -61975,7 +62118,9 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="26"/>
       <c r="BC14" s="1"/>
-      <c r="BZ14" s="13"/>
+      <c r="BF14" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="15" spans="1:78">
       <c r="A15" s="12"/>
@@ -62033,7 +62178,6 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="26"/>
       <c r="BC15" s="1"/>
-      <c r="BZ15" s="13"/>
     </row>
     <row r="16" spans="1:78">
       <c r="A16" s="12"/>
@@ -62091,9 +62235,8 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="26"/>
       <c r="BC16" s="1"/>
-      <c r="BZ16" s="13"/>
-    </row>
-    <row r="17" spans="1:78">
+    </row>
+    <row r="17" spans="1:61">
       <c r="A17" s="12"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -62149,9 +62292,11 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="26"/>
       <c r="BC17" s="1"/>
-      <c r="BZ17" s="13"/>
-    </row>
-    <row r="18" spans="1:78">
+      <c r="BI17" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61">
       <c r="A18" s="12"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -62207,9 +62352,8 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="26"/>
       <c r="BC18" s="1"/>
-      <c r="BZ18" s="13"/>
-    </row>
-    <row r="19" spans="1:78">
+    </row>
+    <row r="19" spans="1:61">
       <c r="A19" s="12"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -62265,9 +62409,8 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="26"/>
       <c r="BC19" s="1"/>
-      <c r="BZ19" s="13"/>
-    </row>
-    <row r="20" spans="1:78">
+    </row>
+    <row r="20" spans="1:61">
       <c r="A20" s="12"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -62323,9 +62466,11 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="26"/>
       <c r="BC20" s="1"/>
-      <c r="BZ20" s="13"/>
-    </row>
-    <row r="21" spans="1:78">
+      <c r="BF20" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61">
       <c r="A21" s="12"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -62381,9 +62526,8 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="26"/>
       <c r="BC21" s="1"/>
-      <c r="BZ21" s="13"/>
-    </row>
-    <row r="22" spans="1:78">
+    </row>
+    <row r="22" spans="1:61">
       <c r="A22" s="12"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -62439,9 +62583,8 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="26"/>
       <c r="BC22" s="1"/>
-      <c r="BZ22" s="13"/>
-    </row>
-    <row r="23" spans="1:78">
+    </row>
+    <row r="23" spans="1:61">
       <c r="A23" s="12"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -62497,9 +62640,8 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="26"/>
       <c r="BC23" s="1"/>
-      <c r="BZ23" s="13"/>
-    </row>
-    <row r="24" spans="1:78">
+    </row>
+    <row r="24" spans="1:61">
       <c r="A24" s="12"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -62555,9 +62697,8 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="26"/>
       <c r="BC24" s="1"/>
-      <c r="BZ24" s="13"/>
-    </row>
-    <row r="25" spans="1:78">
+    </row>
+    <row r="25" spans="1:61">
       <c r="A25" s="12"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -62613,9 +62754,8 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="26"/>
       <c r="BC25" s="1"/>
-      <c r="BZ25" s="13"/>
-    </row>
-    <row r="26" spans="1:78">
+    </row>
+    <row r="26" spans="1:61">
       <c r="A26" s="12"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -62671,9 +62811,8 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="26"/>
       <c r="BC26" s="1"/>
-      <c r="BZ26" s="13"/>
-    </row>
-    <row r="27" spans="1:78">
+    </row>
+    <row r="27" spans="1:61">
       <c r="A27" s="12"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -62729,9 +62868,8 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="26"/>
       <c r="BC27" s="1"/>
-      <c r="BZ27" s="13"/>
-    </row>
-    <row r="28" spans="1:78">
+    </row>
+    <row r="28" spans="1:61">
       <c r="A28" s="12"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -62787,9 +62925,8 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="26"/>
       <c r="BC28" s="1"/>
-      <c r="BZ28" s="13"/>
-    </row>
-    <row r="29" spans="1:78">
+    </row>
+    <row r="29" spans="1:61">
       <c r="A29" s="12"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -62845,9 +62982,8 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
-      <c r="BZ29" s="13"/>
-    </row>
-    <row r="30" spans="1:78">
+    </row>
+    <row r="30" spans="1:61">
       <c r="A30" s="12"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -62903,9 +63039,8 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="26"/>
       <c r="BC30" s="1"/>
-      <c r="BZ30" s="13"/>
-    </row>
-    <row r="31" spans="1:78">
+    </row>
+    <row r="31" spans="1:61">
       <c r="A31" s="12"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -62961,9 +63096,8 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
-      <c r="BZ31" s="13"/>
-    </row>
-    <row r="32" spans="1:78">
+    </row>
+    <row r="32" spans="1:61">
       <c r="A32" s="12"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -63019,9 +63153,8 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="26"/>
       <c r="BC32" s="1"/>
-      <c r="BZ32" s="13"/>
-    </row>
-    <row r="33" spans="1:78">
+    </row>
+    <row r="33" spans="1:55">
       <c r="A33" s="12"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -63077,9 +63210,8 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="26"/>
       <c r="BC33" s="1"/>
-      <c r="BZ33" s="13"/>
-    </row>
-    <row r="34" spans="1:78">
+    </row>
+    <row r="34" spans="1:55">
       <c r="A34" s="12"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -63135,9 +63267,8 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="26"/>
       <c r="BC34" s="1"/>
-      <c r="BZ34" s="13"/>
-    </row>
-    <row r="35" spans="1:78">
+    </row>
+    <row r="35" spans="1:55">
       <c r="A35" s="12"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -63193,9 +63324,8 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
-      <c r="BZ35" s="13"/>
-    </row>
-    <row r="36" spans="1:78">
+    </row>
+    <row r="36" spans="1:55">
       <c r="A36" s="12"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -63251,9 +63381,8 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="26"/>
       <c r="BC36" s="1"/>
-      <c r="BZ36" s="13"/>
-    </row>
-    <row r="37" spans="1:78">
+    </row>
+    <row r="37" spans="1:55">
       <c r="A37" s="12"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -63309,9 +63438,8 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="26"/>
       <c r="BC37" s="1"/>
-      <c r="BZ37" s="13"/>
-    </row>
-    <row r="38" spans="1:78">
+    </row>
+    <row r="38" spans="1:55">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -63358,24 +63486,21 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="26"/>
       <c r="BC38" s="1"/>
-      <c r="BZ38" s="13"/>
-    </row>
-    <row r="39" spans="1:78">
+    </row>
+    <row r="39" spans="1:55">
       <c r="BC39" s="1"/>
-      <c r="BZ39" s="13"/>
-    </row>
-    <row r="40" spans="1:78">
+    </row>
+    <row r="40" spans="1:55">
       <c r="BC40" s="1"/>
-      <c r="BZ40" s="13"/>
-    </row>
-    <row r="46" spans="1:78">
+    </row>
+    <row r="46" spans="1:55">
       <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:55">
+      <c r="A47" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:78">
-      <c r="A47" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -63391,6 +63516,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/doc/EMMS  Project 信息查询系统-网页模板格式(用于爬虫解析).xlsx
+++ b/doc/EMMS  Project 信息查询系统-网页模板格式(用于爬虫解析).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="495" windowWidth="14805" windowHeight="6840" tabRatio="911" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="495" windowWidth="14805" windowHeight="6840" tabRatio="911" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="6" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="290">
   <si>
     <t>香港大搜索有限公司</t>
   </si>
@@ -403,10 +403,6 @@
   </si>
   <si>
     <t>公司注册处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.icris.cr.gov.hk/csci/DO_Index.do?PageNO=4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -630,10 +626,6 @@
   </si>
   <si>
     <t>竞争事务审裁处不能确定，因为没有内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消资格令纪录册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1374,6 +1366,33 @@
   </si>
   <si>
     <t>http://legalref.judiciary.gov.hk/lrs/common/search/search_appeal.jsp?DIS=98875</t>
+  </si>
+  <si>
+    <t>https://www.icris.cr.gov.hk/csci/DO_Index.do?PageNO=4</t>
+  </si>
+  <si>
+    <t>https://www.icris.cr.gov.hk/csci/DO_Index.do?PageNO=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消资格令纪录册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.每30秒更新一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.采集数据如下图示：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.提取网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageNO从第一页到最后一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3848,6 +3867,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>503446</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="5753100"/>
+          <a:ext cx="11038096" cy="3123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7357,8 +7414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ61"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="CF20" sqref="CF20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BE9" sqref="BE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7778,7 +7835,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -7997,7 +8054,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -8079,7 +8136,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -8724,7 +8781,7 @@
     </row>
     <row r="20" spans="1:78">
       <c r="A20" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8783,7 +8840,7 @@
     </row>
     <row r="21" spans="1:78">
       <c r="A21" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -8840,7 +8897,7 @@
       <c r="BB21" s="26"/>
       <c r="BC21" s="1"/>
       <c r="BE21" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:78">
@@ -9014,7 +9071,7 @@
       <c r="BB24" s="26"/>
       <c r="BC24" s="1"/>
       <c r="BG24" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:78">
@@ -9188,7 +9245,7 @@
       <c r="BB27" s="26"/>
       <c r="BC27" s="1"/>
       <c r="BE27" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:78">
@@ -9903,8 +9960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="CB47" sqref="CB47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="BD43" sqref="BD43:BO47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10055,7 +10112,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -10324,7 +10381,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -10543,7 +10600,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -10625,7 +10682,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -12329,7 +12386,7 @@
     </row>
     <row r="40" spans="1:78">
       <c r="A40" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="BB40" s="26"/>
       <c r="BC40" s="1"/>
@@ -12340,42 +12397,42 @@
     </row>
     <row r="42" spans="1:78">
       <c r="A42" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="BB42" s="26"/>
       <c r="BC42" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:78">
       <c r="BB43" s="26"/>
       <c r="BD43" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:78">
       <c r="BB44" s="26"/>
       <c r="BE44" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:78">
       <c r="BB45" s="26"/>
       <c r="BE45" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:78">
       <c r="A46"/>
       <c r="BB46" s="26"/>
       <c r="BE46" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:78">
       <c r="BB47" s="26"/>
       <c r="BE47" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:78">
@@ -12384,7 +12441,7 @@
     <row r="49" spans="54:56">
       <c r="BB49" s="26"/>
       <c r="BD49" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="54:56">
@@ -12473,27 +12530,27 @@
     </row>
     <row r="84" spans="3:4">
       <c r="C84" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="3:4">
       <c r="C86" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="3:4">
       <c r="D87" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="3:4">
       <c r="D88" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -12518,8 +12575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BY20" sqref="BY20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BI30" sqref="BI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12614,7 +12671,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -12670,7 +12727,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -12939,7 +12996,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -13158,7 +13215,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -13240,7 +13297,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -13670,7 +13727,7 @@
       <c r="BC16" s="1"/>
       <c r="BZ16" s="13"/>
     </row>
-    <row r="17" spans="1:78">
+    <row r="17" spans="1:61">
       <c r="A17" s="12"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -13726,9 +13783,8 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="26"/>
       <c r="BC17" s="1"/>
-      <c r="BZ17" s="13"/>
-    </row>
-    <row r="18" spans="1:78">
+    </row>
+    <row r="18" spans="1:61">
       <c r="A18" s="12"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -13784,9 +13840,8 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="26"/>
       <c r="BC18" s="1"/>
-      <c r="BZ18" s="13"/>
-    </row>
-    <row r="19" spans="1:78">
+    </row>
+    <row r="19" spans="1:61">
       <c r="A19" s="12"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -13842,9 +13897,8 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="26"/>
       <c r="BC19" s="1"/>
-      <c r="BZ19" s="13"/>
-    </row>
-    <row r="20" spans="1:78">
+    </row>
+    <row r="20" spans="1:61">
       <c r="A20" s="32"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -13900,9 +13954,11 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="26"/>
       <c r="BC20" s="1"/>
-      <c r="BZ20" s="13"/>
-    </row>
-    <row r="21" spans="1:78">
+      <c r="BE20" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61">
       <c r="A21" s="12"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -13958,9 +14014,11 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="26"/>
       <c r="BC21" s="1"/>
-      <c r="BZ21" s="13"/>
-    </row>
-    <row r="22" spans="1:78">
+      <c r="BF21" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61">
       <c r="A22" s="12"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -14016,9 +14074,11 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="26"/>
       <c r="BC22" s="1"/>
-      <c r="BZ22" s="13"/>
-    </row>
-    <row r="23" spans="1:78">
+      <c r="BG22" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61">
       <c r="A23" s="12"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -14074,9 +14134,11 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="26"/>
       <c r="BC23" s="1"/>
-      <c r="BZ23" s="13"/>
-    </row>
-    <row r="24" spans="1:78">
+      <c r="BG23" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61">
       <c r="A24" s="12"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -14132,9 +14194,11 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="26"/>
       <c r="BC24" s="1"/>
-      <c r="BZ24" s="13"/>
-    </row>
-    <row r="25" spans="1:78">
+      <c r="BG24" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61">
       <c r="A25" s="12"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -14190,9 +14254,11 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="26"/>
       <c r="BC25" s="1"/>
-      <c r="BZ25" s="13"/>
-    </row>
-    <row r="26" spans="1:78">
+      <c r="BG25" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61">
       <c r="A26" s="12"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -14248,9 +14314,8 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="26"/>
       <c r="BC26" s="1"/>
-      <c r="BZ26" s="13"/>
-    </row>
-    <row r="27" spans="1:78">
+    </row>
+    <row r="27" spans="1:61">
       <c r="A27" s="12"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -14306,9 +14371,11 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="26"/>
       <c r="BC27" s="1"/>
-      <c r="BZ27" s="13"/>
-    </row>
-    <row r="28" spans="1:78">
+      <c r="BF27" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61">
       <c r="A28" s="12"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -14364,9 +14431,8 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="26"/>
       <c r="BC28" s="1"/>
-      <c r="BZ28" s="13"/>
-    </row>
-    <row r="29" spans="1:78">
+    </row>
+    <row r="29" spans="1:61">
       <c r="A29" s="12"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -14422,9 +14488,11 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
-      <c r="BZ29" s="13"/>
-    </row>
-    <row r="30" spans="1:78">
+      <c r="BI29" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61">
       <c r="A30" s="12"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -14480,9 +14548,11 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="26"/>
       <c r="BC30" s="1"/>
-      <c r="BZ30" s="13"/>
-    </row>
-    <row r="31" spans="1:78">
+      <c r="BI30" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61">
       <c r="A31" s="12"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -14538,9 +14608,8 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
-      <c r="BZ31" s="13"/>
-    </row>
-    <row r="32" spans="1:78">
+    </row>
+    <row r="32" spans="1:61">
       <c r="A32" s="12"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -14596,9 +14665,11 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="26"/>
       <c r="BC32" s="1"/>
-      <c r="BZ32" s="13"/>
-    </row>
-    <row r="33" spans="1:78">
+      <c r="BF32" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:55">
       <c r="A33" s="12"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -14654,9 +14725,8 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="26"/>
       <c r="BC33" s="1"/>
-      <c r="BZ33" s="13"/>
-    </row>
-    <row r="34" spans="1:78">
+    </row>
+    <row r="34" spans="1:55">
       <c r="A34" s="12"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -14712,9 +14782,8 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="26"/>
       <c r="BC34" s="1"/>
-      <c r="BZ34" s="13"/>
-    </row>
-    <row r="35" spans="1:78">
+    </row>
+    <row r="35" spans="1:55">
       <c r="A35" s="12"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -14770,9 +14839,8 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
-      <c r="BZ35" s="13"/>
-    </row>
-    <row r="36" spans="1:78">
+    </row>
+    <row r="36" spans="1:55">
       <c r="A36" s="12"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -14828,9 +14896,8 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="26"/>
       <c r="BC36" s="1"/>
-      <c r="BZ36" s="13"/>
-    </row>
-    <row r="37" spans="1:78">
+    </row>
+    <row r="37" spans="1:55">
       <c r="A37" s="12"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -14886,9 +14953,8 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="26"/>
       <c r="BC37" s="1"/>
-      <c r="BZ37" s="13"/>
-    </row>
-    <row r="38" spans="1:78">
+    </row>
+    <row r="38" spans="1:55">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -14935,17 +15001,14 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="26"/>
       <c r="BC38" s="1"/>
-      <c r="BZ38" s="13"/>
-    </row>
-    <row r="39" spans="1:78">
+    </row>
+    <row r="39" spans="1:55">
       <c r="BC39" s="1"/>
-      <c r="BZ39" s="13"/>
-    </row>
-    <row r="40" spans="1:78">
+    </row>
+    <row r="40" spans="1:55">
       <c r="BC40" s="1"/>
-      <c r="BZ40" s="13"/>
-    </row>
-    <row r="46" spans="1:78">
+    </row>
+    <row r="46" spans="1:55">
       <c r="A46"/>
     </row>
   </sheetData>
@@ -14961,7 +15024,8 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15065,7 +15129,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -15121,7 +15185,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -15390,7 +15454,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -15609,7 +15673,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -15691,7 +15755,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -15772,7 +15836,7 @@
       <c r="BB10" s="26"/>
       <c r="BC10" s="1"/>
       <c r="BE10" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BF10" s="30"/>
       <c r="BG10" s="30"/>
@@ -15852,7 +15916,7 @@
       <c r="BB11" s="26"/>
       <c r="BC11" s="1"/>
       <c r="BE11" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BF11" s="30"/>
       <c r="BG11" s="30"/>
@@ -15932,7 +15996,7 @@
       <c r="BB12" s="26"/>
       <c r="BC12" s="1"/>
       <c r="BE12" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BF12" s="30"/>
       <c r="BG12" s="30"/>
@@ -17582,7 +17646,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -17638,7 +17702,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -17907,7 +17971,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -18126,7 +18190,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -18208,7 +18272,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -20033,7 +20097,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -20089,7 +20153,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -20358,7 +20422,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -20577,7 +20641,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -20659,7 +20723,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -22484,7 +22548,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -22540,7 +22604,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -22809,7 +22873,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -23028,7 +23092,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -23110,7 +23174,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -24935,7 +24999,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -24991,7 +25055,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -25260,7 +25324,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -25479,7 +25543,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -25561,7 +25625,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -27386,7 +27450,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -27442,7 +27506,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -27711,7 +27775,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -27930,7 +27994,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -28012,7 +28076,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -29837,7 +29901,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -29893,7 +29957,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -30162,7 +30226,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -30381,7 +30445,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -30463,7 +30527,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -32254,7 +32318,7 @@
     <row r="2" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -32277,7 +32341,7 @@
       <c r="U2" s="68"/>
       <c r="V2" s="69"/>
       <c r="W2" s="65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X2" s="65"/>
       <c r="Y2" s="65"/>
@@ -32288,13 +32352,13 @@
       <c r="AD2" s="65"/>
       <c r="AE2" s="65"/>
       <c r="AF2" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG2" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AH2" s="66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AI2" s="66"/>
       <c r="AJ2" s="66"/>
@@ -32309,7 +32373,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
@@ -32332,7 +32396,7 @@
       <c r="U3" s="59"/>
       <c r="V3" s="60"/>
       <c r="W3" s="61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X3" s="62"/>
       <c r="Y3" s="62"/>
@@ -32343,7 +32407,7 @@
       <c r="AD3" s="62"/>
       <c r="AE3" s="63"/>
       <c r="AF3" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG3" s="38"/>
       <c r="AH3" s="64"/>
@@ -32360,7 +32424,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
@@ -32383,7 +32447,7 @@
       <c r="U4" s="59"/>
       <c r="V4" s="60"/>
       <c r="W4" s="61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="X4" s="62"/>
       <c r="Y4" s="62"/>
@@ -32394,7 +32458,7 @@
       <c r="AD4" s="62"/>
       <c r="AE4" s="63"/>
       <c r="AF4" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG4" s="38"/>
       <c r="AH4" s="64"/>
@@ -32411,7 +32475,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -32434,7 +32498,7 @@
       <c r="U5" s="59"/>
       <c r="V5" s="60"/>
       <c r="W5" s="61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X5" s="62"/>
       <c r="Y5" s="62"/>
@@ -32445,10 +32509,10 @@
       <c r="AD5" s="62"/>
       <c r="AE5" s="63"/>
       <c r="AF5" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG5" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AH5" s="64"/>
       <c r="AI5" s="64"/>
@@ -32464,7 +32528,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
@@ -32487,7 +32551,7 @@
       <c r="U6" s="59"/>
       <c r="V6" s="60"/>
       <c r="W6" s="61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X6" s="62"/>
       <c r="Y6" s="62"/>
@@ -32498,10 +32562,10 @@
       <c r="AD6" s="62"/>
       <c r="AE6" s="63"/>
       <c r="AF6" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG6" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH6" s="64"/>
       <c r="AI6" s="64"/>
@@ -32517,7 +32581,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -32540,7 +32604,7 @@
       <c r="U7" s="59"/>
       <c r="V7" s="60"/>
       <c r="W7" s="61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X7" s="62"/>
       <c r="Y7" s="62"/>
@@ -32551,10 +32615,10 @@
       <c r="AD7" s="62"/>
       <c r="AE7" s="63"/>
       <c r="AF7" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG7" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AH7" s="64"/>
       <c r="AI7" s="64"/>
@@ -32570,7 +32634,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -32593,7 +32657,7 @@
       <c r="U8" s="59"/>
       <c r="V8" s="60"/>
       <c r="W8" s="61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X8" s="62"/>
       <c r="Y8" s="62"/>
@@ -32604,10 +32668,10 @@
       <c r="AD8" s="62"/>
       <c r="AE8" s="63"/>
       <c r="AF8" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG8" s="38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH8" s="64"/>
       <c r="AI8" s="64"/>
@@ -32623,7 +32687,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
@@ -32646,7 +32710,7 @@
       <c r="U9" s="59"/>
       <c r="V9" s="60"/>
       <c r="W9" s="61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="X9" s="62"/>
       <c r="Y9" s="62"/>
@@ -32657,10 +32721,10 @@
       <c r="AD9" s="62"/>
       <c r="AE9" s="63"/>
       <c r="AF9" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG9" s="38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH9" s="64"/>
       <c r="AI9" s="64"/>
@@ -32676,7 +32740,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
@@ -32699,7 +32763,7 @@
       <c r="U10" s="59"/>
       <c r="V10" s="60"/>
       <c r="W10" s="61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X10" s="62"/>
       <c r="Y10" s="62"/>
@@ -32710,7 +32774,7 @@
       <c r="AD10" s="62"/>
       <c r="AE10" s="63"/>
       <c r="AF10" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG10" s="38"/>
       <c r="AH10" s="64"/>
@@ -32727,7 +32791,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
@@ -32750,7 +32814,7 @@
       <c r="U11" s="59"/>
       <c r="V11" s="60"/>
       <c r="W11" s="61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X11" s="62"/>
       <c r="Y11" s="62"/>
@@ -32761,10 +32825,10 @@
       <c r="AD11" s="62"/>
       <c r="AE11" s="63"/>
       <c r="AF11" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG11" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AH11" s="64"/>
       <c r="AI11" s="64"/>
@@ -32780,7 +32844,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
@@ -32803,7 +32867,7 @@
       <c r="U12" s="59"/>
       <c r="V12" s="60"/>
       <c r="W12" s="61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X12" s="62"/>
       <c r="Y12" s="62"/>
@@ -32814,10 +32878,10 @@
       <c r="AD12" s="62"/>
       <c r="AE12" s="63"/>
       <c r="AF12" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG12" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AH12" s="64"/>
       <c r="AI12" s="64"/>
@@ -32833,7 +32897,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -32856,7 +32920,7 @@
       <c r="U13" s="59"/>
       <c r="V13" s="60"/>
       <c r="W13" s="61" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X13" s="62"/>
       <c r="Y13" s="62"/>
@@ -32868,7 +32932,7 @@
       <c r="AE13" s="63"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AH13" s="64"/>
       <c r="AI13" s="64"/>
@@ -32884,7 +32948,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -32907,7 +32971,7 @@
       <c r="U14" s="59"/>
       <c r="V14" s="60"/>
       <c r="W14" s="61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X14" s="62"/>
       <c r="Y14" s="62"/>
@@ -32919,7 +32983,7 @@
       <c r="AE14" s="63"/>
       <c r="AF14" s="16"/>
       <c r="AG14" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AH14" s="64"/>
       <c r="AI14" s="64"/>
@@ -32935,7 +32999,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
@@ -32958,7 +33022,7 @@
       <c r="U15" s="59"/>
       <c r="V15" s="60"/>
       <c r="W15" s="61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="X15" s="62"/>
       <c r="Y15" s="62"/>
@@ -32970,7 +33034,7 @@
       <c r="AE15" s="63"/>
       <c r="AF15" s="16"/>
       <c r="AG15" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AH15" s="64"/>
       <c r="AI15" s="64"/>
@@ -32986,7 +33050,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
@@ -33009,7 +33073,7 @@
       <c r="U16" s="59"/>
       <c r="V16" s="60"/>
       <c r="W16" s="61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="X16" s="62"/>
       <c r="Y16" s="62"/>
@@ -33021,7 +33085,7 @@
       <c r="AE16" s="63"/>
       <c r="AF16" s="16"/>
       <c r="AG16" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AH16" s="64"/>
       <c r="AI16" s="64"/>
@@ -33037,7 +33101,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -33060,7 +33124,7 @@
       <c r="U17" s="59"/>
       <c r="V17" s="60"/>
       <c r="W17" s="61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X17" s="62"/>
       <c r="Y17" s="62"/>
@@ -33072,7 +33136,7 @@
       <c r="AE17" s="63"/>
       <c r="AF17" s="16"/>
       <c r="AG17" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AH17" s="64"/>
       <c r="AI17" s="64"/>
@@ -33088,7 +33152,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -33111,7 +33175,7 @@
       <c r="U18" s="59"/>
       <c r="V18" s="60"/>
       <c r="W18" s="61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="X18" s="62"/>
       <c r="Y18" s="62"/>
@@ -33123,7 +33187,7 @@
       <c r="AE18" s="63"/>
       <c r="AF18" s="16"/>
       <c r="AG18" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AH18" s="64"/>
       <c r="AI18" s="64"/>
@@ -33139,7 +33203,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -33162,7 +33226,7 @@
       <c r="U19" s="59"/>
       <c r="V19" s="60"/>
       <c r="W19" s="61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X19" s="62"/>
       <c r="Y19" s="62"/>
@@ -33173,7 +33237,7 @@
       <c r="AD19" s="62"/>
       <c r="AE19" s="63"/>
       <c r="AF19" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG19" s="38"/>
       <c r="AH19" s="64"/>
@@ -33190,7 +33254,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -33213,7 +33277,7 @@
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
       <c r="W20" s="61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X20" s="62"/>
       <c r="Y20" s="62"/>
@@ -33224,7 +33288,7 @@
       <c r="AD20" s="62"/>
       <c r="AE20" s="63"/>
       <c r="AF20" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG20" s="38"/>
       <c r="AH20" s="64"/>
@@ -33241,7 +33305,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -33264,7 +33328,7 @@
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
       <c r="W21" s="61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="X21" s="62"/>
       <c r="Y21" s="62"/>
@@ -33275,10 +33339,10 @@
       <c r="AD21" s="62"/>
       <c r="AE21" s="63"/>
       <c r="AF21" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG21" s="38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AH21" s="64"/>
       <c r="AI21" s="64"/>
@@ -33294,7 +33358,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -33317,7 +33381,7 @@
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
       <c r="W22" s="61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="X22" s="62"/>
       <c r="Y22" s="62"/>
@@ -33328,10 +33392,10 @@
       <c r="AD22" s="62"/>
       <c r="AE22" s="63"/>
       <c r="AF22" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG22" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AH22" s="64"/>
       <c r="AI22" s="64"/>
@@ -33347,7 +33411,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -33370,7 +33434,7 @@
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
       <c r="W23" s="61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="X23" s="62"/>
       <c r="Y23" s="62"/>
@@ -33381,7 +33445,7 @@
       <c r="AD23" s="62"/>
       <c r="AE23" s="63"/>
       <c r="AF23" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG23" s="38"/>
       <c r="AH23" s="64"/>
@@ -33398,7 +33462,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -33421,7 +33485,7 @@
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
       <c r="W24" s="61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
@@ -33432,10 +33496,10 @@
       <c r="AD24" s="62"/>
       <c r="AE24" s="63"/>
       <c r="AF24" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG24" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH24" s="64"/>
       <c r="AI24" s="64"/>
@@ -33451,7 +33515,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -33474,7 +33538,7 @@
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
       <c r="W25" s="61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X25" s="62"/>
       <c r="Y25" s="62"/>
@@ -33485,10 +33549,10 @@
       <c r="AD25" s="62"/>
       <c r="AE25" s="63"/>
       <c r="AF25" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG25" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AH25" s="64"/>
       <c r="AI25" s="64"/>
@@ -33504,7 +33568,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
@@ -33527,7 +33591,7 @@
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
       <c r="W26" s="61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="X26" s="62"/>
       <c r="Y26" s="62"/>
@@ -33538,10 +33602,10 @@
       <c r="AD26" s="62"/>
       <c r="AE26" s="63"/>
       <c r="AF26" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG26" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AH26" s="64"/>
       <c r="AI26" s="64"/>
@@ -33557,7 +33621,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -33580,7 +33644,7 @@
       <c r="U27" s="59"/>
       <c r="V27" s="60"/>
       <c r="W27" s="61" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X27" s="62"/>
       <c r="Y27" s="62"/>
@@ -33591,10 +33655,10 @@
       <c r="AD27" s="62"/>
       <c r="AE27" s="63"/>
       <c r="AF27" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG27" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AH27" s="64"/>
       <c r="AI27" s="64"/>
@@ -33610,7 +33674,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
@@ -33633,7 +33697,7 @@
       <c r="U28" s="59"/>
       <c r="V28" s="60"/>
       <c r="W28" s="61" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="X28" s="62"/>
       <c r="Y28" s="62"/>
@@ -33644,10 +33708,10 @@
       <c r="AD28" s="62"/>
       <c r="AE28" s="63"/>
       <c r="AF28" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG28" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AH28" s="64"/>
       <c r="AI28" s="64"/>
@@ -33663,7 +33727,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -33686,7 +33750,7 @@
       <c r="U29" s="59"/>
       <c r="V29" s="60"/>
       <c r="W29" s="61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="X29" s="62"/>
       <c r="Y29" s="62"/>
@@ -33697,10 +33761,10 @@
       <c r="AD29" s="62"/>
       <c r="AE29" s="63"/>
       <c r="AF29" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG29" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AH29" s="64"/>
       <c r="AI29" s="64"/>
@@ -33716,7 +33780,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -33739,7 +33803,7 @@
       <c r="U30" s="59"/>
       <c r="V30" s="60"/>
       <c r="W30" s="61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="X30" s="62"/>
       <c r="Y30" s="62"/>
@@ -33750,7 +33814,7 @@
       <c r="AD30" s="62"/>
       <c r="AE30" s="63"/>
       <c r="AF30" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG30" s="38"/>
       <c r="AH30" s="64"/>
@@ -33767,7 +33831,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="71"/>
@@ -33790,7 +33854,7 @@
       <c r="U31" s="71"/>
       <c r="V31" s="72"/>
       <c r="W31" s="61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X31" s="62"/>
       <c r="Y31" s="62"/>
@@ -33801,7 +33865,7 @@
       <c r="AD31" s="62"/>
       <c r="AE31" s="63"/>
       <c r="AF31" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG31" s="38"/>
       <c r="AH31" s="64"/>
@@ -33818,7 +33882,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
@@ -33841,7 +33905,7 @@
       <c r="U32" s="59"/>
       <c r="V32" s="60"/>
       <c r="W32" s="61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="X32" s="62"/>
       <c r="Y32" s="62"/>
@@ -33852,10 +33916,10 @@
       <c r="AD32" s="62"/>
       <c r="AE32" s="63"/>
       <c r="AF32" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG32" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AH32" s="64"/>
       <c r="AI32" s="64"/>
@@ -33871,7 +33935,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
@@ -33894,7 +33958,7 @@
       <c r="U33" s="59"/>
       <c r="V33" s="60"/>
       <c r="W33" s="61" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X33" s="62"/>
       <c r="Y33" s="62"/>
@@ -33905,10 +33969,10 @@
       <c r="AD33" s="62"/>
       <c r="AE33" s="63"/>
       <c r="AF33" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG33" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AH33" s="64"/>
       <c r="AI33" s="64"/>
@@ -33924,7 +33988,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -33947,7 +34011,7 @@
       <c r="U34" s="59"/>
       <c r="V34" s="60"/>
       <c r="W34" s="61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X34" s="62"/>
       <c r="Y34" s="62"/>
@@ -33958,7 +34022,7 @@
       <c r="AD34" s="62"/>
       <c r="AE34" s="63"/>
       <c r="AF34" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG34" s="38"/>
       <c r="AH34" s="64"/>
@@ -33975,7 +34039,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
@@ -33998,7 +34062,7 @@
       <c r="U35" s="59"/>
       <c r="V35" s="60"/>
       <c r="W35" s="61" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X35" s="62"/>
       <c r="Y35" s="62"/>
@@ -34009,10 +34073,10 @@
       <c r="AD35" s="62"/>
       <c r="AE35" s="63"/>
       <c r="AF35" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG35" s="38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AH35" s="64"/>
       <c r="AI35" s="64"/>
@@ -34028,7 +34092,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
@@ -34051,7 +34115,7 @@
       <c r="U36" s="59"/>
       <c r="V36" s="60"/>
       <c r="W36" s="61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X36" s="62"/>
       <c r="Y36" s="62"/>
@@ -34062,10 +34126,10 @@
       <c r="AD36" s="62"/>
       <c r="AE36" s="63"/>
       <c r="AF36" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG36" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AH36" s="64"/>
       <c r="AI36" s="64"/>
@@ -34081,7 +34145,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
@@ -34104,7 +34168,7 @@
       <c r="U37" s="59"/>
       <c r="V37" s="60"/>
       <c r="W37" s="61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X37" s="62"/>
       <c r="Y37" s="62"/>
@@ -34115,10 +34179,10 @@
       <c r="AD37" s="62"/>
       <c r="AE37" s="63"/>
       <c r="AF37" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG37" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AH37" s="64"/>
       <c r="AI37" s="64"/>
@@ -34134,7 +34198,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
@@ -34157,7 +34221,7 @@
       <c r="U38" s="59"/>
       <c r="V38" s="60"/>
       <c r="W38" s="61" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X38" s="62"/>
       <c r="Y38" s="62"/>
@@ -34168,10 +34232,10 @@
       <c r="AD38" s="62"/>
       <c r="AE38" s="63"/>
       <c r="AF38" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG38" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AH38" s="64"/>
       <c r="AI38" s="64"/>
@@ -34187,7 +34251,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -34210,7 +34274,7 @@
       <c r="U39" s="59"/>
       <c r="V39" s="60"/>
       <c r="W39" s="61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="X39" s="62"/>
       <c r="Y39" s="62"/>
@@ -34221,10 +34285,10 @@
       <c r="AD39" s="62"/>
       <c r="AE39" s="63"/>
       <c r="AF39" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG39" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AH39" s="64"/>
       <c r="AI39" s="64"/>
@@ -34240,7 +34304,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
@@ -34263,7 +34327,7 @@
       <c r="U40" s="59"/>
       <c r="V40" s="60"/>
       <c r="W40" s="61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="X40" s="62"/>
       <c r="Y40" s="62"/>
@@ -34274,7 +34338,7 @@
       <c r="AD40" s="62"/>
       <c r="AE40" s="63"/>
       <c r="AF40" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG40" s="38"/>
       <c r="AH40" s="64"/>
@@ -34291,7 +34355,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="71"/>
@@ -34314,7 +34378,7 @@
       <c r="U41" s="71"/>
       <c r="V41" s="72"/>
       <c r="W41" s="61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="X41" s="62"/>
       <c r="Y41" s="62"/>
@@ -34325,7 +34389,7 @@
       <c r="AD41" s="62"/>
       <c r="AE41" s="63"/>
       <c r="AF41" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG41" s="38"/>
       <c r="AH41" s="64"/>
@@ -34342,7 +34406,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -34365,7 +34429,7 @@
       <c r="U42" s="59"/>
       <c r="V42" s="60"/>
       <c r="W42" s="61" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="X42" s="62"/>
       <c r="Y42" s="62"/>
@@ -34376,7 +34440,7 @@
       <c r="AD42" s="62"/>
       <c r="AE42" s="63"/>
       <c r="AF42" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG42" s="38"/>
       <c r="AH42" s="64"/>
@@ -34393,7 +34457,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
@@ -34416,7 +34480,7 @@
       <c r="U43" s="59"/>
       <c r="V43" s="60"/>
       <c r="W43" s="61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="X43" s="62"/>
       <c r="Y43" s="62"/>
@@ -34427,7 +34491,7 @@
       <c r="AD43" s="62"/>
       <c r="AE43" s="63"/>
       <c r="AF43" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG43" s="38"/>
       <c r="AH43" s="64"/>
@@ -34444,7 +34508,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -34467,7 +34531,7 @@
       <c r="U44" s="59"/>
       <c r="V44" s="60"/>
       <c r="W44" s="61" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X44" s="62"/>
       <c r="Y44" s="62"/>
@@ -34478,7 +34542,7 @@
       <c r="AD44" s="62"/>
       <c r="AE44" s="63"/>
       <c r="AF44" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG44" s="38"/>
       <c r="AH44" s="64"/>
@@ -34495,7 +34559,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
@@ -34518,7 +34582,7 @@
       <c r="U45" s="59"/>
       <c r="V45" s="60"/>
       <c r="W45" s="61" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="X45" s="62"/>
       <c r="Y45" s="62"/>
@@ -34529,10 +34593,10 @@
       <c r="AD45" s="62"/>
       <c r="AE45" s="63"/>
       <c r="AF45" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG45" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AH45" s="64"/>
       <c r="AI45" s="64"/>
@@ -34548,7 +34612,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
@@ -34571,7 +34635,7 @@
       <c r="U46" s="59"/>
       <c r="V46" s="60"/>
       <c r="W46" s="61" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="X46" s="62"/>
       <c r="Y46" s="62"/>
@@ -34582,7 +34646,7 @@
       <c r="AD46" s="62"/>
       <c r="AE46" s="63"/>
       <c r="AF46" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG46" s="38"/>
       <c r="AH46" s="64"/>
@@ -34599,7 +34663,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
@@ -34622,7 +34686,7 @@
       <c r="U47" s="59"/>
       <c r="V47" s="60"/>
       <c r="W47" s="61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="X47" s="62"/>
       <c r="Y47" s="62"/>
@@ -34633,7 +34697,7 @@
       <c r="AD47" s="62"/>
       <c r="AE47" s="63"/>
       <c r="AF47" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG47" s="38"/>
       <c r="AH47" s="64"/>
@@ -34650,7 +34714,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
@@ -34673,7 +34737,7 @@
       <c r="U48" s="59"/>
       <c r="V48" s="60"/>
       <c r="W48" s="61" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X48" s="62"/>
       <c r="Y48" s="62"/>
@@ -34684,10 +34748,10 @@
       <c r="AD48" s="62"/>
       <c r="AE48" s="63"/>
       <c r="AF48" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG48" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AH48" s="64"/>
       <c r="AI48" s="64"/>
@@ -34703,7 +34767,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -34726,7 +34790,7 @@
       <c r="U49" s="59"/>
       <c r="V49" s="60"/>
       <c r="W49" s="61" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="X49" s="62"/>
       <c r="Y49" s="62"/>
@@ -34737,10 +34801,10 @@
       <c r="AD49" s="62"/>
       <c r="AE49" s="63"/>
       <c r="AF49" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG49" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AH49" s="64"/>
       <c r="AI49" s="64"/>
@@ -34756,7 +34820,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
@@ -34779,7 +34843,7 @@
       <c r="U50" s="59"/>
       <c r="V50" s="60"/>
       <c r="W50" s="61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="X50" s="62"/>
       <c r="Y50" s="62"/>
@@ -34790,10 +34854,10 @@
       <c r="AD50" s="62"/>
       <c r="AE50" s="63"/>
       <c r="AF50" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG50" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AH50" s="64"/>
       <c r="AI50" s="64"/>
@@ -35111,7 +35175,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -35167,7 +35231,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -35436,7 +35500,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -35655,7 +35719,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -35737,7 +35801,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -37562,7 +37626,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -37618,7 +37682,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -37887,7 +37951,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -38106,7 +38170,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -38188,7 +38252,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -40013,7 +40077,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -40069,7 +40133,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -40338,7 +40402,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -40557,7 +40621,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -40639,7 +40703,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -42465,7 +42529,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -42521,7 +42585,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -42790,7 +42854,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -43009,7 +43073,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -43091,7 +43155,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -44916,7 +44980,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -44972,7 +45036,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -45241,7 +45305,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -45460,7 +45524,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -45542,7 +45606,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -47370,7 +47434,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -47426,7 +47490,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -47695,7 +47759,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -47914,7 +47978,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -47996,7 +48060,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -49760,7 +49824,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>22</v>
@@ -49769,7 +49833,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27">
@@ -49777,7 +49841,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>25</v>
@@ -49792,13 +49856,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="33"/>
     </row>
@@ -49807,7 +49871,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>31</v>
@@ -49822,10 +49886,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>36</v>
@@ -49837,7 +49901,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>41</v>
@@ -49852,7 +49916,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>42</v>
@@ -49867,13 +49931,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="33"/>
     </row>
@@ -49882,16 +49946,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5">
@@ -49899,16 +49963,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27">
@@ -49916,16 +49980,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="40.5">
@@ -49933,13 +49997,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="35"/>
     </row>
@@ -49948,13 +50012,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="35"/>
     </row>
@@ -49963,13 +50027,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="35"/>
     </row>
@@ -49978,13 +50042,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="35"/>
     </row>
@@ -49993,13 +50057,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="35"/>
     </row>
@@ -50008,13 +50072,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="35"/>
     </row>
@@ -50023,13 +50087,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="35"/>
     </row>
@@ -50038,13 +50102,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E20" s="35"/>
     </row>
@@ -50053,13 +50117,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="35"/>
     </row>
@@ -50068,16 +50132,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -50102,14 +50166,14 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -50278,7 +50342,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="79" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -50547,7 +50611,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -51679,7 +51743,7 @@
       <c r="BB23" s="26"/>
       <c r="BC23" s="1"/>
       <c r="BE23" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF23" s="83"/>
       <c r="BG23" s="83"/>
@@ -52688,7 +52752,7 @@
     </row>
     <row r="41" spans="1:78">
       <c r="A41" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="BB41" s="26"/>
       <c r="BC41" s="1"/>
@@ -52699,7 +52763,7 @@
     </row>
     <row r="43" spans="1:78">
       <c r="A43" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="BB43" s="26"/>
       <c r="BC43" s="1"/>
@@ -52708,21 +52772,21 @@
       <c r="BB44" s="26"/>
       <c r="BC44" s="1"/>
       <c r="BD44" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:78">
       <c r="BB45" s="26"/>
       <c r="BC45" s="1"/>
       <c r="BE45" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:78">
       <c r="BB46" s="26"/>
       <c r="BC46" s="1"/>
       <c r="BF46" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:78">
@@ -52733,7 +52797,7 @@
       <c r="BB48" s="26"/>
       <c r="BC48" s="1"/>
       <c r="BE48" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="54:58">
@@ -52745,35 +52809,35 @@
       <c r="BB50" s="26"/>
       <c r="BC50" s="1"/>
       <c r="BF50" s="47" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="54:58">
       <c r="BB51" s="26"/>
       <c r="BC51" s="1"/>
       <c r="BF51" s="47" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="54:58">
       <c r="BB52" s="26"/>
       <c r="BC52" s="1"/>
       <c r="BF52" s="47" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="54:58">
       <c r="BB53" s="26"/>
       <c r="BC53" s="1"/>
       <c r="BF53" s="47" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="54:58">
       <c r="BB54" s="26"/>
       <c r="BC54" s="1"/>
       <c r="BF54" s="47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="54:58">
@@ -52785,7 +52849,7 @@
       <c r="BB56" s="26"/>
       <c r="BC56" s="1"/>
       <c r="BE56" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BF56" s="46"/>
     </row>
@@ -52897,7 +52961,7 @@
       <c r="BB83" s="26"/>
       <c r="BC83" s="1"/>
       <c r="BF83" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="54:58">
@@ -53087,7 +53151,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -53143,7 +53207,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="79" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -53412,7 +53476,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -53631,7 +53695,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -53713,7 +53777,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -54896,7 +54960,7 @@
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:78">
@@ -54956,7 +55020,7 @@
       <c r="BB30" s="26"/>
       <c r="BC30" s="1"/>
       <c r="BE30" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:78">
@@ -55016,7 +55080,7 @@
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
       <c r="BF31" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:78">
@@ -55304,7 +55368,7 @@
       <c r="BB36" s="26"/>
       <c r="BC36" s="1"/>
       <c r="BE36" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:57">
@@ -55919,7 +55983,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -56138,7 +56202,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -57690,7 +57754,7 @@
       <c r="BB34" s="26"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:59">
@@ -57750,7 +57814,7 @@
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
       <c r="BE35" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:59">
@@ -57867,7 +57931,7 @@
       <c r="BB37" s="26"/>
       <c r="BC37" s="1"/>
       <c r="BG37" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:59">
@@ -57929,7 +57993,7 @@
     <row r="41" spans="1:59">
       <c r="BB41" s="26"/>
       <c r="BE41" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:59">
@@ -58620,7 +58684,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -58839,7 +58903,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -58921,7 +58985,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -60045,7 +60109,7 @@
       <c r="BB28" s="26"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:78">
@@ -60105,7 +60169,7 @@
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
       <c r="BE29" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:78">
@@ -60222,7 +60286,7 @@
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
       <c r="BG31" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:78">
@@ -60453,7 +60517,7 @@
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
       <c r="BE35" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:57">
@@ -61134,7 +61198,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -61459,7 +61523,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -61678,7 +61742,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -61760,7 +61824,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -62059,7 +62123,7 @@
       <c r="BB13" s="26"/>
       <c r="BC13" s="1"/>
       <c r="BE13" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:78">
@@ -62119,7 +62183,7 @@
       <c r="BB14" s="26"/>
       <c r="BC14" s="1"/>
       <c r="BF14" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:78">
@@ -62293,7 +62357,7 @@
       <c r="BB17" s="26"/>
       <c r="BC17" s="1"/>
       <c r="BI17" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:61">
@@ -62467,7 +62531,7 @@
       <c r="BB20" s="26"/>
       <c r="BC20" s="1"/>
       <c r="BF20" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:61">

--- a/doc/EMMS  Project 信息查询系统-网页模板格式(用于爬虫解析).xlsx
+++ b/doc/EMMS  Project 信息查询系统-网页模板格式(用于爬虫解析).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="495" windowWidth="14805" windowHeight="6840" tabRatio="911" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="495" windowWidth="14805" windowHeight="6840" tabRatio="911" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="6" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="298">
   <si>
     <t>香港大搜索有限公司</t>
   </si>
@@ -470,10 +470,6 @@
   </si>
   <si>
     <t>http://barlist.hkba.org/hkba/Bar_listCN/1062.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://barlist.hkba.org/hkba/Bar_listCN/bar_list_stroke_8.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1399,11 +1395,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.当前网页URL参数pg查询。从第1页开始采集数据</t>
+    <t>http://www.hklawsoc.org.hk/pub_c/memberlawlist/mem_withcert.asp?name=&amp;pg=1&amp;sj=0</t>
+  </si>
+  <si>
+    <t>http://barlist.hkba.org/hkba/Bar_listCN/bar_list_stroke_8.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.hklawsoc.org.hk/pub_c/memberlawlist/mem_withcert.asp?name=&amp;pg=1&amp;sj=0</t>
+    <t>律师界名录-香港大律师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://barlist.hkba.org/hkba/SeniorityCN/seniority.htm</t>
+  </si>
+  <si>
+    <t>2.当前网页,获取需采集的记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.插件根据生成的网址，后台获取对应网址内容，提交数据库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.操作方式，打开功能页，如图下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.当前网页URL参数pg查询。从第1页开始采集数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2170,15 +2189,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>57</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>92</xdr:col>
-      <xdr:colOff>607950</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>27993</xdr:rowOff>
+      <xdr:colOff>617475</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>113718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2195,8 +2214,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8143875" y="6943725"/>
+          <a:off x="8153400" y="12858750"/>
           <a:ext cx="13209525" cy="4657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>465710</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="7458075"/>
+          <a:ext cx="8123810" cy="3971925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2289,15 +2346,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>57</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>90</xdr:col>
-      <xdr:colOff>617654</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>142386</xdr:rowOff>
+      <xdr:colOff>665279</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>47136</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2314,8 +2371,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220075" y="8486775"/>
+          <a:off x="8267700" y="12677775"/>
           <a:ext cx="11771429" cy="3914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>465710</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="7286625"/>
+          <a:ext cx="8123810" cy="3886199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2397,6 +2492,82 @@
         <a:xfrm>
           <a:off x="0" y="7629525"/>
           <a:ext cx="6942858" cy="5666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>65397</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="12525375"/>
+          <a:ext cx="10228572" cy="4123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>684790</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="7972425"/>
+          <a:ext cx="8085715" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7923,7 +8094,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -8142,7 +8313,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -8224,7 +8395,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -8869,7 +9040,7 @@
     </row>
     <row r="20" spans="1:78">
       <c r="A20" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8928,7 +9099,7 @@
     </row>
     <row r="21" spans="1:78">
       <c r="A21" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -8985,7 +9156,7 @@
       <c r="BB21" s="26"/>
       <c r="BC21" s="1"/>
       <c r="BE21" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:78">
@@ -9159,7 +9330,7 @@
       <c r="BB24" s="26"/>
       <c r="BC24" s="1"/>
       <c r="BG24" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:78">
@@ -9333,7 +9504,7 @@
       <c r="BB27" s="26"/>
       <c r="BC27" s="1"/>
       <c r="BE27" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:78">
@@ -10048,7 +10219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ129"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="BQ50" sqref="BQ50"/>
     </sheetView>
   </sheetViews>
@@ -10200,7 +10371,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -10469,7 +10640,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -10688,7 +10859,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -10770,7 +10941,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -12474,7 +12645,7 @@
     </row>
     <row r="40" spans="1:78">
       <c r="A40" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB40" s="26"/>
       <c r="BC40" s="1"/>
@@ -12485,42 +12656,42 @@
     </row>
     <row r="42" spans="1:78">
       <c r="A42" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BB42" s="26"/>
       <c r="BC42" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:78">
       <c r="BB43" s="26"/>
       <c r="BD43" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:78">
       <c r="BB44" s="26"/>
       <c r="BE44" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:78">
       <c r="BB45" s="26"/>
       <c r="BE45" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:78">
       <c r="A46"/>
       <c r="BB46" s="26"/>
       <c r="BE46" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:78">
       <c r="BB47" s="26"/>
       <c r="BE47" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:78">
@@ -12529,116 +12700,116 @@
     <row r="49" spans="54:56">
       <c r="BB49" s="26"/>
       <c r="BD49" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="54:56">
+      <c r="BB50" s="26"/>
+    </row>
+    <row r="51" spans="54:56">
+      <c r="BB51" s="26"/>
+    </row>
+    <row r="52" spans="54:56">
+      <c r="BB52" s="26"/>
+    </row>
+    <row r="53" spans="54:56">
+      <c r="BB53" s="26"/>
+    </row>
+    <row r="54" spans="54:56">
+      <c r="BB54" s="26"/>
+    </row>
+    <row r="55" spans="54:56">
+      <c r="BB55" s="26"/>
+    </row>
+    <row r="56" spans="54:56">
+      <c r="BB56" s="26"/>
+    </row>
+    <row r="57" spans="54:56">
+      <c r="BB57" s="26"/>
+    </row>
+    <row r="58" spans="54:56">
+      <c r="BB58" s="26"/>
+    </row>
+    <row r="59" spans="54:56">
+      <c r="BB59" s="26"/>
+    </row>
+    <row r="60" spans="54:56">
+      <c r="BB60" s="26"/>
+    </row>
+    <row r="61" spans="54:56">
+      <c r="BB61" s="26"/>
+    </row>
+    <row r="62" spans="54:56">
+      <c r="BB62" s="26"/>
+    </row>
+    <row r="63" spans="54:56">
+      <c r="BB63" s="26"/>
+    </row>
+    <row r="64" spans="54:56">
+      <c r="BB64" s="26"/>
+    </row>
+    <row r="65" spans="54:54">
+      <c r="BB65" s="26"/>
+    </row>
+    <row r="66" spans="54:54">
+      <c r="BB66" s="26"/>
+    </row>
+    <row r="67" spans="54:54">
+      <c r="BB67" s="26"/>
+    </row>
+    <row r="68" spans="54:54">
+      <c r="BB68" s="26"/>
+    </row>
+    <row r="69" spans="54:54">
+      <c r="BB69" s="26"/>
+    </row>
+    <row r="70" spans="54:54">
+      <c r="BB70" s="26"/>
+    </row>
+    <row r="71" spans="54:54">
+      <c r="BB71" s="26"/>
+    </row>
+    <row r="72" spans="54:54">
+      <c r="BB72" s="26"/>
+    </row>
+    <row r="73" spans="54:54">
+      <c r="BB73" s="26"/>
+    </row>
+    <row r="74" spans="54:54">
+      <c r="BB74" s="26"/>
+    </row>
+    <row r="75" spans="54:54">
+      <c r="BB75" s="26"/>
+    </row>
+    <row r="76" spans="54:54">
+      <c r="BB76" s="26"/>
+    </row>
+    <row r="77" spans="54:54">
+      <c r="BB77" s="26"/>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="54:56">
-      <c r="BB50" s="26"/>
-    </row>
-    <row r="51" spans="54:56">
-      <c r="BB51" s="26"/>
-    </row>
-    <row r="52" spans="54:56">
-      <c r="BB52" s="26"/>
-    </row>
-    <row r="53" spans="54:56">
-      <c r="BB53" s="26"/>
-    </row>
-    <row r="54" spans="54:56">
-      <c r="BB54" s="26"/>
-    </row>
-    <row r="55" spans="54:56">
-      <c r="BB55" s="26"/>
-    </row>
-    <row r="56" spans="54:56">
-      <c r="BB56" s="26"/>
-    </row>
-    <row r="57" spans="54:56">
-      <c r="BB57" s="26"/>
-    </row>
-    <row r="58" spans="54:56">
-      <c r="BB58" s="26"/>
-    </row>
-    <row r="59" spans="54:56">
-      <c r="BB59" s="26"/>
-    </row>
-    <row r="60" spans="54:56">
-      <c r="BB60" s="26"/>
-    </row>
-    <row r="61" spans="54:56">
-      <c r="BB61" s="26"/>
-    </row>
-    <row r="62" spans="54:56">
-      <c r="BB62" s="26"/>
-    </row>
-    <row r="63" spans="54:56">
-      <c r="BB63" s="26"/>
-    </row>
-    <row r="64" spans="54:56">
-      <c r="BB64" s="26"/>
-    </row>
-    <row r="65" spans="54:54">
-      <c r="BB65" s="26"/>
-    </row>
-    <row r="66" spans="54:54">
-      <c r="BB66" s="26"/>
-    </row>
-    <row r="67" spans="54:54">
-      <c r="BB67" s="26"/>
-    </row>
-    <row r="68" spans="54:54">
-      <c r="BB68" s="26"/>
-    </row>
-    <row r="69" spans="54:54">
-      <c r="BB69" s="26"/>
-    </row>
-    <row r="70" spans="54:54">
-      <c r="BB70" s="26"/>
-    </row>
-    <row r="71" spans="54:54">
-      <c r="BB71" s="26"/>
-    </row>
-    <row r="72" spans="54:54">
-      <c r="BB72" s="26"/>
-    </row>
-    <row r="73" spans="54:54">
-      <c r="BB73" s="26"/>
-    </row>
-    <row r="74" spans="54:54">
-      <c r="BB74" s="26"/>
-    </row>
-    <row r="75" spans="54:54">
-      <c r="BB75" s="26"/>
-    </row>
-    <row r="76" spans="54:54">
-      <c r="BB76" s="26"/>
-    </row>
-    <row r="77" spans="54:54">
-      <c r="BB77" s="26"/>
-    </row>
-    <row r="84" spans="3:4">
-      <c r="C84" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
     <row r="86" spans="3:4">
       <c r="C86" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="D87" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="D88" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="3:4">
-      <c r="D87" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="D88" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
     <row r="129" spans="2:2">
       <c r="B129" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -12663,7 +12834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="BX31" sqref="BX31"/>
     </sheetView>
   </sheetViews>
@@ -12759,7 +12930,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -12815,7 +12986,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -13084,7 +13255,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -13303,7 +13474,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -13385,7 +13556,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -14043,7 +14214,7 @@
       <c r="BB20" s="26"/>
       <c r="BC20" s="1"/>
       <c r="BE20" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:61">
@@ -14103,7 +14274,7 @@
       <c r="BB21" s="26"/>
       <c r="BC21" s="1"/>
       <c r="BF21" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:61">
@@ -14163,7 +14334,7 @@
       <c r="BB22" s="26"/>
       <c r="BC22" s="1"/>
       <c r="BG22" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:61">
@@ -14223,7 +14394,7 @@
       <c r="BB23" s="26"/>
       <c r="BC23" s="1"/>
       <c r="BG23" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:61">
@@ -14283,7 +14454,7 @@
       <c r="BB24" s="26"/>
       <c r="BC24" s="1"/>
       <c r="BG24" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:61">
@@ -14343,7 +14514,7 @@
       <c r="BB25" s="26"/>
       <c r="BC25" s="1"/>
       <c r="BG25" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:61">
@@ -14460,7 +14631,7 @@
       <c r="BB27" s="26"/>
       <c r="BC27" s="1"/>
       <c r="BF27" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:61">
@@ -14577,7 +14748,7 @@
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
       <c r="BI29" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:61">
@@ -14637,7 +14808,7 @@
       <c r="BB30" s="26"/>
       <c r="BC30" s="1"/>
       <c r="BI30" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:61">
@@ -14754,7 +14925,7 @@
       <c r="BB32" s="26"/>
       <c r="BC32" s="1"/>
       <c r="BF32" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:55">
@@ -15121,8 +15292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ179"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="BF41" sqref="BF41"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="BF42" sqref="BF42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15217,7 +15388,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -15542,7 +15713,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -15761,7 +15932,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -17262,7 +17433,7 @@
       <c r="BB32" s="26"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:59">
+    <row r="33" spans="1:58">
       <c r="A33" s="12"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -17318,11 +17489,8 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="26"/>
       <c r="BC33" s="1"/>
-      <c r="BE33" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:59">
+    </row>
+    <row r="34" spans="1:58">
       <c r="A34" s="12"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -17379,7 +17547,7 @@
       <c r="BB34" s="26"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:59">
+    <row r="35" spans="1:58">
       <c r="A35" s="12"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -17435,11 +17603,8 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
-      <c r="BG35" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:59">
+    </row>
+    <row r="36" spans="1:58">
       <c r="A36" s="12"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -17496,7 +17661,7 @@
       <c r="BB36" s="26"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:59">
+    <row r="37" spans="1:58">
       <c r="A37" s="12"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -17553,7 +17718,7 @@
       <c r="BB37" s="26"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:59">
+    <row r="38" spans="1:58">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -17601,40 +17766,40 @@
       <c r="BB38" s="26"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:59">
+    <row r="39" spans="1:58">
       <c r="BB39" s="26"/>
       <c r="BC39" s="1"/>
-      <c r="BE39" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:59">
+    </row>
+    <row r="40" spans="1:58">
       <c r="BB40" s="26"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:59">
+    <row r="41" spans="1:58">
       <c r="BB41" s="26"/>
     </row>
-    <row r="42" spans="1:59">
+    <row r="42" spans="1:58">
       <c r="BB42" s="26"/>
-    </row>
-    <row r="43" spans="1:59">
+      <c r="BF42" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:58">
       <c r="BB43" s="26"/>
     </row>
-    <row r="44" spans="1:59">
+    <row r="44" spans="1:58">
       <c r="BB44" s="26"/>
     </row>
-    <row r="45" spans="1:59">
+    <row r="45" spans="1:58">
       <c r="BB45" s="26"/>
     </row>
-    <row r="46" spans="1:59">
+    <row r="46" spans="1:58">
       <c r="A46"/>
       <c r="BB46" s="26"/>
     </row>
-    <row r="47" spans="1:59">
+    <row r="47" spans="1:58">
       <c r="BB47" s="26"/>
     </row>
-    <row r="48" spans="1:59">
+    <row r="48" spans="1:58">
       <c r="BB48" s="26"/>
     </row>
     <row r="49" spans="54:54">
@@ -17685,52 +17850,61 @@
     <row r="64" spans="54:54">
       <c r="BB64" s="26"/>
     </row>
-    <row r="65" spans="54:54">
+    <row r="65" spans="54:58">
       <c r="BB65" s="26"/>
     </row>
-    <row r="66" spans="54:54">
+    <row r="66" spans="54:58">
       <c r="BB66" s="26"/>
     </row>
-    <row r="67" spans="54:54">
+    <row r="67" spans="54:58">
       <c r="BB67" s="26"/>
     </row>
-    <row r="68" spans="54:54">
+    <row r="68" spans="54:58">
       <c r="BB68" s="26"/>
-    </row>
-    <row r="69" spans="54:54">
+      <c r="BE68" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="54:58">
       <c r="BB69" s="26"/>
     </row>
-    <row r="70" spans="54:54">
+    <row r="70" spans="54:58">
       <c r="BB70" s="26"/>
     </row>
-    <row r="71" spans="54:54">
+    <row r="71" spans="54:58">
       <c r="BB71" s="26"/>
-    </row>
-    <row r="72" spans="54:54">
+      <c r="BF71" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="54:58">
       <c r="BB72" s="26"/>
     </row>
-    <row r="73" spans="54:54">
+    <row r="73" spans="54:58">
       <c r="BB73" s="26"/>
     </row>
-    <row r="74" spans="54:54">
+    <row r="74" spans="54:58">
       <c r="BB74" s="26"/>
-    </row>
-    <row r="75" spans="54:54">
+      <c r="BE74" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="54:58">
       <c r="BB75" s="26"/>
     </row>
-    <row r="76" spans="54:54">
+    <row r="76" spans="54:58">
       <c r="BB76" s="26"/>
     </row>
-    <row r="77" spans="54:54">
+    <row r="77" spans="54:58">
       <c r="BB77" s="26"/>
     </row>
-    <row r="78" spans="54:54">
+    <row r="78" spans="54:58">
       <c r="BB78" s="26"/>
     </row>
-    <row r="79" spans="54:54">
+    <row r="79" spans="54:58">
       <c r="BB79" s="26"/>
     </row>
-    <row r="80" spans="54:54">
+    <row r="80" spans="54:58">
       <c r="BB80" s="26"/>
     </row>
     <row r="81" spans="54:54">
@@ -18051,8 +18225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="BY81" sqref="BY81"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="CC40" sqref="CC40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18147,7 +18321,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -18472,7 +18646,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -18691,7 +18865,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -20482,21 +20656,18 @@
     </row>
     <row r="41" spans="1:78">
       <c r="BB41" s="26"/>
+      <c r="BE41" s="2" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="42" spans="1:78">
       <c r="BB42" s="26"/>
-      <c r="BE42" s="2" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="43" spans="1:78">
       <c r="BB43" s="26"/>
     </row>
     <row r="44" spans="1:78">
       <c r="BB44" s="26"/>
-      <c r="BG44" s="87" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="45" spans="1:78">
       <c r="BB45" s="26"/>
@@ -20510,9 +20681,6 @@
     </row>
     <row r="48" spans="1:78">
       <c r="BB48" s="26"/>
-      <c r="BE48" s="2" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="49" spans="54:54">
       <c r="BB49" s="26"/>
@@ -20562,52 +20730,61 @@
     <row r="64" spans="54:54">
       <c r="BB64" s="26"/>
     </row>
-    <row r="65" spans="54:54">
+    <row r="65" spans="54:59">
       <c r="BB65" s="26"/>
     </row>
-    <row r="66" spans="54:54">
+    <row r="66" spans="54:59">
       <c r="BB66" s="26"/>
     </row>
-    <row r="67" spans="54:54">
+    <row r="67" spans="54:59">
       <c r="BB67" s="26"/>
-    </row>
-    <row r="68" spans="54:54">
+      <c r="BE67" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="54:59">
       <c r="BB68" s="26"/>
     </row>
-    <row r="69" spans="54:54">
+    <row r="69" spans="54:59">
       <c r="BB69" s="26"/>
-    </row>
-    <row r="70" spans="54:54">
+      <c r="BG69" s="87" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="54:59">
       <c r="BB70" s="26"/>
     </row>
-    <row r="71" spans="54:54">
+    <row r="71" spans="54:59">
       <c r="BB71" s="26"/>
     </row>
-    <row r="72" spans="54:54">
+    <row r="72" spans="54:59">
       <c r="BB72" s="26"/>
     </row>
-    <row r="73" spans="54:54">
+    <row r="73" spans="54:59">
       <c r="BB73" s="26"/>
-    </row>
-    <row r="74" spans="54:54">
+      <c r="BE73" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="54:59">
       <c r="BB74" s="26"/>
     </row>
-    <row r="75" spans="54:54">
+    <row r="75" spans="54:59">
       <c r="BB75" s="26"/>
     </row>
-    <row r="76" spans="54:54">
+    <row r="76" spans="54:59">
       <c r="BB76" s="26"/>
     </row>
-    <row r="77" spans="54:54">
+    <row r="77" spans="54:59">
       <c r="BB77" s="26"/>
     </row>
-    <row r="78" spans="54:54">
+    <row r="78" spans="54:59">
       <c r="BB78" s="26"/>
     </row>
-    <row r="79" spans="54:54">
+    <row r="79" spans="54:59">
       <c r="BB79" s="26"/>
     </row>
-    <row r="80" spans="54:54">
+    <row r="80" spans="54:59">
       <c r="BB80" s="26"/>
     </row>
     <row r="81" spans="54:54">
@@ -21026,7 +21203,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="BG44" r:id="rId2"/>
+    <hyperlink ref="BG69" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -21035,10 +21212,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ46"/>
+  <dimension ref="A1:BZ72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="BE8" sqref="BE8:BX8"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="BC45" sqref="BC45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21133,7 +21310,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -21458,7 +21635,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -21677,7 +21854,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -21759,7 +21936,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>58</v>
+        <v>292</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -23464,8 +23641,28 @@
       <c r="BC40" s="1"/>
       <c r="BZ40" s="13"/>
     </row>
+    <row r="45" spans="1:78">
+      <c r="BC45" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
     <row r="46" spans="1:78">
       <c r="A46"/>
+    </row>
+    <row r="66" spans="55:56">
+      <c r="BC66" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="55:56">
+      <c r="BD68" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="72" spans="55:56">
+      <c r="BC72" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -23584,7 +23781,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -23640,7 +23837,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -23909,7 +24106,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -24128,7 +24325,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -24210,7 +24407,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -26035,7 +26232,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -26091,7 +26288,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -26360,7 +26557,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -26579,7 +26776,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -26661,7 +26858,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -28486,7 +28683,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -28542,7 +28739,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -28811,7 +29008,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -29030,7 +29227,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -29112,7 +29309,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -30937,7 +31134,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -30993,7 +31190,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -31262,7 +31459,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -31481,7 +31678,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -31563,7 +31760,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -33354,7 +33551,7 @@
     <row r="2" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -33377,7 +33574,7 @@
       <c r="U2" s="68"/>
       <c r="V2" s="69"/>
       <c r="W2" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X2" s="65"/>
       <c r="Y2" s="65"/>
@@ -33388,13 +33585,13 @@
       <c r="AD2" s="65"/>
       <c r="AE2" s="65"/>
       <c r="AF2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG2" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="AG2" s="39" t="s">
+      <c r="AH2" s="66" t="s">
         <v>123</v>
-      </c>
-      <c r="AH2" s="66" t="s">
-        <v>124</v>
       </c>
       <c r="AI2" s="66"/>
       <c r="AJ2" s="66"/>
@@ -33409,7 +33606,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
@@ -33432,7 +33629,7 @@
       <c r="U3" s="59"/>
       <c r="V3" s="60"/>
       <c r="W3" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X3" s="62"/>
       <c r="Y3" s="62"/>
@@ -33443,7 +33640,7 @@
       <c r="AD3" s="62"/>
       <c r="AE3" s="63"/>
       <c r="AF3" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG3" s="38"/>
       <c r="AH3" s="64"/>
@@ -33460,7 +33657,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
@@ -33483,7 +33680,7 @@
       <c r="U4" s="59"/>
       <c r="V4" s="60"/>
       <c r="W4" s="61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X4" s="62"/>
       <c r="Y4" s="62"/>
@@ -33494,7 +33691,7 @@
       <c r="AD4" s="62"/>
       <c r="AE4" s="63"/>
       <c r="AF4" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG4" s="38"/>
       <c r="AH4" s="64"/>
@@ -33511,7 +33708,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -33534,7 +33731,7 @@
       <c r="U5" s="59"/>
       <c r="V5" s="60"/>
       <c r="W5" s="61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X5" s="62"/>
       <c r="Y5" s="62"/>
@@ -33545,10 +33742,10 @@
       <c r="AD5" s="62"/>
       <c r="AE5" s="63"/>
       <c r="AF5" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG5" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AH5" s="64"/>
       <c r="AI5" s="64"/>
@@ -33564,7 +33761,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
@@ -33587,7 +33784,7 @@
       <c r="U6" s="59"/>
       <c r="V6" s="60"/>
       <c r="W6" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X6" s="62"/>
       <c r="Y6" s="62"/>
@@ -33598,10 +33795,10 @@
       <c r="AD6" s="62"/>
       <c r="AE6" s="63"/>
       <c r="AF6" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG6" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH6" s="64"/>
       <c r="AI6" s="64"/>
@@ -33617,7 +33814,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -33640,7 +33837,7 @@
       <c r="U7" s="59"/>
       <c r="V7" s="60"/>
       <c r="W7" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X7" s="62"/>
       <c r="Y7" s="62"/>
@@ -33651,10 +33848,10 @@
       <c r="AD7" s="62"/>
       <c r="AE7" s="63"/>
       <c r="AF7" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG7" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH7" s="64"/>
       <c r="AI7" s="64"/>
@@ -33670,7 +33867,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -33693,7 +33890,7 @@
       <c r="U8" s="59"/>
       <c r="V8" s="60"/>
       <c r="W8" s="61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X8" s="62"/>
       <c r="Y8" s="62"/>
@@ -33704,10 +33901,10 @@
       <c r="AD8" s="62"/>
       <c r="AE8" s="63"/>
       <c r="AF8" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG8" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH8" s="64"/>
       <c r="AI8" s="64"/>
@@ -33723,7 +33920,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
@@ -33746,7 +33943,7 @@
       <c r="U9" s="59"/>
       <c r="V9" s="60"/>
       <c r="W9" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X9" s="62"/>
       <c r="Y9" s="62"/>
@@ -33757,10 +33954,10 @@
       <c r="AD9" s="62"/>
       <c r="AE9" s="63"/>
       <c r="AF9" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG9" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH9" s="64"/>
       <c r="AI9" s="64"/>
@@ -33776,7 +33973,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
@@ -33799,7 +33996,7 @@
       <c r="U10" s="59"/>
       <c r="V10" s="60"/>
       <c r="W10" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X10" s="62"/>
       <c r="Y10" s="62"/>
@@ -33810,7 +34007,7 @@
       <c r="AD10" s="62"/>
       <c r="AE10" s="63"/>
       <c r="AF10" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG10" s="38"/>
       <c r="AH10" s="64"/>
@@ -33827,7 +34024,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
@@ -33850,7 +34047,7 @@
       <c r="U11" s="59"/>
       <c r="V11" s="60"/>
       <c r="W11" s="61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X11" s="62"/>
       <c r="Y11" s="62"/>
@@ -33861,10 +34058,10 @@
       <c r="AD11" s="62"/>
       <c r="AE11" s="63"/>
       <c r="AF11" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG11" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH11" s="64"/>
       <c r="AI11" s="64"/>
@@ -33880,7 +34077,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
@@ -33903,7 +34100,7 @@
       <c r="U12" s="59"/>
       <c r="V12" s="60"/>
       <c r="W12" s="61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X12" s="62"/>
       <c r="Y12" s="62"/>
@@ -33914,10 +34111,10 @@
       <c r="AD12" s="62"/>
       <c r="AE12" s="63"/>
       <c r="AF12" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG12" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH12" s="64"/>
       <c r="AI12" s="64"/>
@@ -33933,7 +34130,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -33956,7 +34153,7 @@
       <c r="U13" s="59"/>
       <c r="V13" s="60"/>
       <c r="W13" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X13" s="62"/>
       <c r="Y13" s="62"/>
@@ -33968,7 +34165,7 @@
       <c r="AE13" s="63"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH13" s="64"/>
       <c r="AI13" s="64"/>
@@ -33984,7 +34181,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -34007,7 +34204,7 @@
       <c r="U14" s="59"/>
       <c r="V14" s="60"/>
       <c r="W14" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X14" s="62"/>
       <c r="Y14" s="62"/>
@@ -34019,7 +34216,7 @@
       <c r="AE14" s="63"/>
       <c r="AF14" s="16"/>
       <c r="AG14" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH14" s="64"/>
       <c r="AI14" s="64"/>
@@ -34035,7 +34232,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
@@ -34058,7 +34255,7 @@
       <c r="U15" s="59"/>
       <c r="V15" s="60"/>
       <c r="W15" s="61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X15" s="62"/>
       <c r="Y15" s="62"/>
@@ -34070,7 +34267,7 @@
       <c r="AE15" s="63"/>
       <c r="AF15" s="16"/>
       <c r="AG15" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH15" s="64"/>
       <c r="AI15" s="64"/>
@@ -34086,7 +34283,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
@@ -34109,7 +34306,7 @@
       <c r="U16" s="59"/>
       <c r="V16" s="60"/>
       <c r="W16" s="61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X16" s="62"/>
       <c r="Y16" s="62"/>
@@ -34121,7 +34318,7 @@
       <c r="AE16" s="63"/>
       <c r="AF16" s="16"/>
       <c r="AG16" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH16" s="64"/>
       <c r="AI16" s="64"/>
@@ -34137,7 +34334,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -34160,7 +34357,7 @@
       <c r="U17" s="59"/>
       <c r="V17" s="60"/>
       <c r="W17" s="61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X17" s="62"/>
       <c r="Y17" s="62"/>
@@ -34172,7 +34369,7 @@
       <c r="AE17" s="63"/>
       <c r="AF17" s="16"/>
       <c r="AG17" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH17" s="64"/>
       <c r="AI17" s="64"/>
@@ -34188,7 +34385,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -34211,7 +34408,7 @@
       <c r="U18" s="59"/>
       <c r="V18" s="60"/>
       <c r="W18" s="61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X18" s="62"/>
       <c r="Y18" s="62"/>
@@ -34223,7 +34420,7 @@
       <c r="AE18" s="63"/>
       <c r="AF18" s="16"/>
       <c r="AG18" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH18" s="64"/>
       <c r="AI18" s="64"/>
@@ -34239,7 +34436,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -34262,7 +34459,7 @@
       <c r="U19" s="59"/>
       <c r="V19" s="60"/>
       <c r="W19" s="61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X19" s="62"/>
       <c r="Y19" s="62"/>
@@ -34273,7 +34470,7 @@
       <c r="AD19" s="62"/>
       <c r="AE19" s="63"/>
       <c r="AF19" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG19" s="38"/>
       <c r="AH19" s="64"/>
@@ -34290,7 +34487,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -34313,7 +34510,7 @@
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
       <c r="W20" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X20" s="62"/>
       <c r="Y20" s="62"/>
@@ -34324,7 +34521,7 @@
       <c r="AD20" s="62"/>
       <c r="AE20" s="63"/>
       <c r="AF20" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG20" s="38"/>
       <c r="AH20" s="64"/>
@@ -34341,7 +34538,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -34364,7 +34561,7 @@
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
       <c r="W21" s="61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X21" s="62"/>
       <c r="Y21" s="62"/>
@@ -34375,10 +34572,10 @@
       <c r="AD21" s="62"/>
       <c r="AE21" s="63"/>
       <c r="AF21" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG21" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH21" s="64"/>
       <c r="AI21" s="64"/>
@@ -34394,7 +34591,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -34417,7 +34614,7 @@
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
       <c r="W22" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X22" s="62"/>
       <c r="Y22" s="62"/>
@@ -34428,10 +34625,10 @@
       <c r="AD22" s="62"/>
       <c r="AE22" s="63"/>
       <c r="AF22" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG22" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AH22" s="64"/>
       <c r="AI22" s="64"/>
@@ -34447,7 +34644,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -34470,7 +34667,7 @@
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
       <c r="W23" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X23" s="62"/>
       <c r="Y23" s="62"/>
@@ -34481,7 +34678,7 @@
       <c r="AD23" s="62"/>
       <c r="AE23" s="63"/>
       <c r="AF23" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG23" s="38"/>
       <c r="AH23" s="64"/>
@@ -34498,7 +34695,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -34521,7 +34718,7 @@
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
       <c r="W24" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
@@ -34532,10 +34729,10 @@
       <c r="AD24" s="62"/>
       <c r="AE24" s="63"/>
       <c r="AF24" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG24" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AH24" s="64"/>
       <c r="AI24" s="64"/>
@@ -34551,7 +34748,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -34574,7 +34771,7 @@
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
       <c r="W25" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X25" s="62"/>
       <c r="Y25" s="62"/>
@@ -34585,10 +34782,10 @@
       <c r="AD25" s="62"/>
       <c r="AE25" s="63"/>
       <c r="AF25" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH25" s="64"/>
       <c r="AI25" s="64"/>
@@ -34604,7 +34801,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
@@ -34627,7 +34824,7 @@
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
       <c r="W26" s="61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X26" s="62"/>
       <c r="Y26" s="62"/>
@@ -34638,10 +34835,10 @@
       <c r="AD26" s="62"/>
       <c r="AE26" s="63"/>
       <c r="AF26" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG26" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH26" s="64"/>
       <c r="AI26" s="64"/>
@@ -34657,7 +34854,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -34680,7 +34877,7 @@
       <c r="U27" s="59"/>
       <c r="V27" s="60"/>
       <c r="W27" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X27" s="62"/>
       <c r="Y27" s="62"/>
@@ -34691,10 +34888,10 @@
       <c r="AD27" s="62"/>
       <c r="AE27" s="63"/>
       <c r="AF27" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG27" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH27" s="64"/>
       <c r="AI27" s="64"/>
@@ -34710,7 +34907,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
@@ -34733,7 +34930,7 @@
       <c r="U28" s="59"/>
       <c r="V28" s="60"/>
       <c r="W28" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X28" s="62"/>
       <c r="Y28" s="62"/>
@@ -34744,10 +34941,10 @@
       <c r="AD28" s="62"/>
       <c r="AE28" s="63"/>
       <c r="AF28" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG28" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH28" s="64"/>
       <c r="AI28" s="64"/>
@@ -34763,7 +34960,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -34786,7 +34983,7 @@
       <c r="U29" s="59"/>
       <c r="V29" s="60"/>
       <c r="W29" s="61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X29" s="62"/>
       <c r="Y29" s="62"/>
@@ -34797,10 +34994,10 @@
       <c r="AD29" s="62"/>
       <c r="AE29" s="63"/>
       <c r="AF29" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG29" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH29" s="64"/>
       <c r="AI29" s="64"/>
@@ -34816,7 +35013,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -34839,7 +35036,7 @@
       <c r="U30" s="59"/>
       <c r="V30" s="60"/>
       <c r="W30" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X30" s="62"/>
       <c r="Y30" s="62"/>
@@ -34850,7 +35047,7 @@
       <c r="AD30" s="62"/>
       <c r="AE30" s="63"/>
       <c r="AF30" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG30" s="38"/>
       <c r="AH30" s="64"/>
@@ -34867,7 +35064,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="71"/>
@@ -34890,7 +35087,7 @@
       <c r="U31" s="71"/>
       <c r="V31" s="72"/>
       <c r="W31" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X31" s="62"/>
       <c r="Y31" s="62"/>
@@ -34901,7 +35098,7 @@
       <c r="AD31" s="62"/>
       <c r="AE31" s="63"/>
       <c r="AF31" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG31" s="38"/>
       <c r="AH31" s="64"/>
@@ -34918,7 +35115,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
@@ -34941,7 +35138,7 @@
       <c r="U32" s="59"/>
       <c r="V32" s="60"/>
       <c r="W32" s="61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X32" s="62"/>
       <c r="Y32" s="62"/>
@@ -34952,10 +35149,10 @@
       <c r="AD32" s="62"/>
       <c r="AE32" s="63"/>
       <c r="AF32" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG32" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH32" s="64"/>
       <c r="AI32" s="64"/>
@@ -34971,7 +35168,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
@@ -34994,7 +35191,7 @@
       <c r="U33" s="59"/>
       <c r="V33" s="60"/>
       <c r="W33" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X33" s="62"/>
       <c r="Y33" s="62"/>
@@ -35005,10 +35202,10 @@
       <c r="AD33" s="62"/>
       <c r="AE33" s="63"/>
       <c r="AF33" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG33" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH33" s="64"/>
       <c r="AI33" s="64"/>
@@ -35024,7 +35221,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -35047,7 +35244,7 @@
       <c r="U34" s="59"/>
       <c r="V34" s="60"/>
       <c r="W34" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X34" s="62"/>
       <c r="Y34" s="62"/>
@@ -35058,7 +35255,7 @@
       <c r="AD34" s="62"/>
       <c r="AE34" s="63"/>
       <c r="AF34" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG34" s="38"/>
       <c r="AH34" s="64"/>
@@ -35075,7 +35272,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
@@ -35098,7 +35295,7 @@
       <c r="U35" s="59"/>
       <c r="V35" s="60"/>
       <c r="W35" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X35" s="62"/>
       <c r="Y35" s="62"/>
@@ -35109,10 +35306,10 @@
       <c r="AD35" s="62"/>
       <c r="AE35" s="63"/>
       <c r="AF35" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG35" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH35" s="64"/>
       <c r="AI35" s="64"/>
@@ -35128,7 +35325,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
@@ -35151,7 +35348,7 @@
       <c r="U36" s="59"/>
       <c r="V36" s="60"/>
       <c r="W36" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X36" s="62"/>
       <c r="Y36" s="62"/>
@@ -35162,10 +35359,10 @@
       <c r="AD36" s="62"/>
       <c r="AE36" s="63"/>
       <c r="AF36" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG36" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH36" s="64"/>
       <c r="AI36" s="64"/>
@@ -35181,7 +35378,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
@@ -35204,7 +35401,7 @@
       <c r="U37" s="59"/>
       <c r="V37" s="60"/>
       <c r="W37" s="61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X37" s="62"/>
       <c r="Y37" s="62"/>
@@ -35215,10 +35412,10 @@
       <c r="AD37" s="62"/>
       <c r="AE37" s="63"/>
       <c r="AF37" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG37" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH37" s="64"/>
       <c r="AI37" s="64"/>
@@ -35234,7 +35431,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
@@ -35257,7 +35454,7 @@
       <c r="U38" s="59"/>
       <c r="V38" s="60"/>
       <c r="W38" s="61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X38" s="62"/>
       <c r="Y38" s="62"/>
@@ -35268,10 +35465,10 @@
       <c r="AD38" s="62"/>
       <c r="AE38" s="63"/>
       <c r="AF38" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG38" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH38" s="64"/>
       <c r="AI38" s="64"/>
@@ -35287,7 +35484,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -35310,7 +35507,7 @@
       <c r="U39" s="59"/>
       <c r="V39" s="60"/>
       <c r="W39" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X39" s="62"/>
       <c r="Y39" s="62"/>
@@ -35321,10 +35518,10 @@
       <c r="AD39" s="62"/>
       <c r="AE39" s="63"/>
       <c r="AF39" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG39" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AH39" s="64"/>
       <c r="AI39" s="64"/>
@@ -35340,7 +35537,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
@@ -35363,7 +35560,7 @@
       <c r="U40" s="59"/>
       <c r="V40" s="60"/>
       <c r="W40" s="61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X40" s="62"/>
       <c r="Y40" s="62"/>
@@ -35374,7 +35571,7 @@
       <c r="AD40" s="62"/>
       <c r="AE40" s="63"/>
       <c r="AF40" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG40" s="38"/>
       <c r="AH40" s="64"/>
@@ -35391,7 +35588,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="71"/>
@@ -35414,7 +35611,7 @@
       <c r="U41" s="71"/>
       <c r="V41" s="72"/>
       <c r="W41" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X41" s="62"/>
       <c r="Y41" s="62"/>
@@ -35425,7 +35622,7 @@
       <c r="AD41" s="62"/>
       <c r="AE41" s="63"/>
       <c r="AF41" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG41" s="38"/>
       <c r="AH41" s="64"/>
@@ -35442,7 +35639,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -35465,7 +35662,7 @@
       <c r="U42" s="59"/>
       <c r="V42" s="60"/>
       <c r="W42" s="61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X42" s="62"/>
       <c r="Y42" s="62"/>
@@ -35476,7 +35673,7 @@
       <c r="AD42" s="62"/>
       <c r="AE42" s="63"/>
       <c r="AF42" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG42" s="38"/>
       <c r="AH42" s="64"/>
@@ -35493,7 +35690,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
@@ -35516,7 +35713,7 @@
       <c r="U43" s="59"/>
       <c r="V43" s="60"/>
       <c r="W43" s="61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X43" s="62"/>
       <c r="Y43" s="62"/>
@@ -35527,7 +35724,7 @@
       <c r="AD43" s="62"/>
       <c r="AE43" s="63"/>
       <c r="AF43" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG43" s="38"/>
       <c r="AH43" s="64"/>
@@ -35544,7 +35741,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -35567,7 +35764,7 @@
       <c r="U44" s="59"/>
       <c r="V44" s="60"/>
       <c r="W44" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X44" s="62"/>
       <c r="Y44" s="62"/>
@@ -35578,7 +35775,7 @@
       <c r="AD44" s="62"/>
       <c r="AE44" s="63"/>
       <c r="AF44" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG44" s="38"/>
       <c r="AH44" s="64"/>
@@ -35595,7 +35792,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
@@ -35618,7 +35815,7 @@
       <c r="U45" s="59"/>
       <c r="V45" s="60"/>
       <c r="W45" s="61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X45" s="62"/>
       <c r="Y45" s="62"/>
@@ -35629,10 +35826,10 @@
       <c r="AD45" s="62"/>
       <c r="AE45" s="63"/>
       <c r="AF45" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG45" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH45" s="64"/>
       <c r="AI45" s="64"/>
@@ -35648,7 +35845,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
@@ -35671,7 +35868,7 @@
       <c r="U46" s="59"/>
       <c r="V46" s="60"/>
       <c r="W46" s="61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X46" s="62"/>
       <c r="Y46" s="62"/>
@@ -35682,7 +35879,7 @@
       <c r="AD46" s="62"/>
       <c r="AE46" s="63"/>
       <c r="AF46" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG46" s="38"/>
       <c r="AH46" s="64"/>
@@ -35699,7 +35896,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
@@ -35722,7 +35919,7 @@
       <c r="U47" s="59"/>
       <c r="V47" s="60"/>
       <c r="W47" s="61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X47" s="62"/>
       <c r="Y47" s="62"/>
@@ -35733,7 +35930,7 @@
       <c r="AD47" s="62"/>
       <c r="AE47" s="63"/>
       <c r="AF47" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG47" s="38"/>
       <c r="AH47" s="64"/>
@@ -35750,7 +35947,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
@@ -35773,7 +35970,7 @@
       <c r="U48" s="59"/>
       <c r="V48" s="60"/>
       <c r="W48" s="61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X48" s="62"/>
       <c r="Y48" s="62"/>
@@ -35784,10 +35981,10 @@
       <c r="AD48" s="62"/>
       <c r="AE48" s="63"/>
       <c r="AF48" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG48" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH48" s="64"/>
       <c r="AI48" s="64"/>
@@ -35803,7 +36000,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -35826,7 +36023,7 @@
       <c r="U49" s="59"/>
       <c r="V49" s="60"/>
       <c r="W49" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X49" s="62"/>
       <c r="Y49" s="62"/>
@@ -35837,10 +36034,10 @@
       <c r="AD49" s="62"/>
       <c r="AE49" s="63"/>
       <c r="AF49" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG49" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AH49" s="64"/>
       <c r="AI49" s="64"/>
@@ -35856,7 +36053,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
@@ -35879,7 +36076,7 @@
       <c r="U50" s="59"/>
       <c r="V50" s="60"/>
       <c r="W50" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X50" s="62"/>
       <c r="Y50" s="62"/>
@@ -35890,10 +36087,10 @@
       <c r="AD50" s="62"/>
       <c r="AE50" s="63"/>
       <c r="AF50" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG50" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH50" s="64"/>
       <c r="AI50" s="64"/>
@@ -36211,7 +36408,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -36267,7 +36464,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -36536,7 +36733,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -36755,7 +36952,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -36837,7 +37034,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -38662,7 +38859,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -38718,7 +38915,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -38987,7 +39184,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -39206,7 +39403,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -39288,7 +39485,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -41113,7 +41310,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -41169,7 +41366,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -41438,7 +41635,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -41657,7 +41854,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -41739,7 +41936,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -43565,7 +43762,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -43621,7 +43818,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -43890,7 +44087,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -44109,7 +44306,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -44191,7 +44388,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -46016,7 +46213,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -46072,7 +46269,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -46341,7 +46538,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -46560,7 +46757,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -46642,7 +46839,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -48470,7 +48667,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -48526,7 +48723,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -48795,7 +48992,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -49014,7 +49211,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -49096,7 +49293,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -50860,7 +51057,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>22</v>
@@ -50869,7 +51066,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27">
@@ -50877,7 +51074,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>25</v>
@@ -50892,13 +51089,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="33"/>
     </row>
@@ -50907,7 +51104,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>31</v>
@@ -50922,10 +51119,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>36</v>
@@ -50937,7 +51134,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>41</v>
@@ -50952,7 +51149,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>42</v>
@@ -50967,7 +51164,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>45</v>
@@ -50982,7 +51179,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>48</v>
@@ -50999,13 +51196,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>49</v>
@@ -51016,7 +51213,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>59</v>
@@ -51033,13 +51230,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="35"/>
     </row>
@@ -51048,13 +51245,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="35"/>
     </row>
@@ -51063,13 +51260,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="35"/>
     </row>
@@ -51078,13 +51275,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="35"/>
     </row>
@@ -51093,13 +51290,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="35"/>
     </row>
@@ -51108,13 +51305,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="35"/>
     </row>
@@ -51123,13 +51320,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="35"/>
     </row>
@@ -51138,13 +51335,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" s="35"/>
     </row>
@@ -51153,13 +51350,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="35"/>
     </row>
@@ -51168,16 +51365,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -51202,14 +51399,14 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -51378,7 +51575,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="79" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -51647,7 +51844,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -52779,7 +52976,7 @@
       <c r="BB23" s="26"/>
       <c r="BC23" s="1"/>
       <c r="BE23" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF23" s="83"/>
       <c r="BG23" s="83"/>
@@ -53788,7 +53985,7 @@
     </row>
     <row r="41" spans="1:78">
       <c r="A41" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB41" s="26"/>
       <c r="BC41" s="1"/>
@@ -53799,7 +53996,7 @@
     </row>
     <row r="43" spans="1:78">
       <c r="A43" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BB43" s="26"/>
       <c r="BC43" s="1"/>
@@ -53808,21 +54005,21 @@
       <c r="BB44" s="26"/>
       <c r="BC44" s="1"/>
       <c r="BD44" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:78">
       <c r="BB45" s="26"/>
       <c r="BC45" s="1"/>
       <c r="BE45" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:78">
       <c r="BB46" s="26"/>
       <c r="BC46" s="1"/>
       <c r="BF46" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:78">
@@ -53833,7 +54030,7 @@
       <c r="BB48" s="26"/>
       <c r="BC48" s="1"/>
       <c r="BE48" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="54:58">
@@ -53845,35 +54042,35 @@
       <c r="BB50" s="26"/>
       <c r="BC50" s="1"/>
       <c r="BF50" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="54:58">
       <c r="BB51" s="26"/>
       <c r="BC51" s="1"/>
       <c r="BF51" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="54:58">
       <c r="BB52" s="26"/>
       <c r="BC52" s="1"/>
       <c r="BF52" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="54:58">
       <c r="BB53" s="26"/>
       <c r="BC53" s="1"/>
       <c r="BF53" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="54:58">
       <c r="BB54" s="26"/>
       <c r="BC54" s="1"/>
       <c r="BF54" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="54:58">
@@ -53885,7 +54082,7 @@
       <c r="BB56" s="26"/>
       <c r="BC56" s="1"/>
       <c r="BE56" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BF56" s="46"/>
     </row>
@@ -53997,7 +54194,7 @@
       <c r="BB83" s="26"/>
       <c r="BC83" s="1"/>
       <c r="BF83" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="54:58">
@@ -54187,7 +54384,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -54243,7 +54440,7 @@
       <c r="BA2" s="77"/>
       <c r="BB2" s="78"/>
       <c r="BC2" s="79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
@@ -54512,7 +54709,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -54731,7 +54928,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -54813,7 +55010,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -55996,7 +56193,7 @@
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:78">
@@ -56056,7 +56253,7 @@
       <c r="BB30" s="26"/>
       <c r="BC30" s="1"/>
       <c r="BE30" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:78">
@@ -56116,7 +56313,7 @@
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
       <c r="BF31" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:78">
@@ -56404,7 +56601,7 @@
       <c r="BB36" s="26"/>
       <c r="BC36" s="1"/>
       <c r="BE36" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:57">
@@ -57019,7 +57216,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -57238,7 +57435,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -58790,7 +58987,7 @@
       <c r="BB34" s="26"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:59">
@@ -58850,7 +59047,7 @@
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
       <c r="BE35" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:59">
@@ -58967,7 +59164,7 @@
       <c r="BB37" s="26"/>
       <c r="BC37" s="1"/>
       <c r="BG37" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:59">
@@ -59029,7 +59226,7 @@
     <row r="41" spans="1:59">
       <c r="BB41" s="26"/>
       <c r="BE41" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:59">
@@ -59720,7 +59917,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -59939,7 +60136,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -60021,7 +60218,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -61145,7 +61342,7 @@
       <c r="BB28" s="26"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:78">
@@ -61205,7 +61402,7 @@
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
       <c r="BE29" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:78">
@@ -61322,7 +61519,7 @@
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
       <c r="BG31" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:78">
@@ -61553,7 +61750,7 @@
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
       <c r="BE35" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:57">
@@ -62234,7 +62431,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -62559,7 +62756,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -62778,7 +62975,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF8" s="83"/>
       <c r="BG8" s="83"/>
@@ -62860,7 +63057,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -63159,7 +63356,7 @@
       <c r="BB13" s="26"/>
       <c r="BC13" s="1"/>
       <c r="BE13" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:78">
@@ -63219,7 +63416,7 @@
       <c r="BB14" s="26"/>
       <c r="BC14" s="1"/>
       <c r="BF14" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:78">
@@ -63393,7 +63590,7 @@
       <c r="BB17" s="26"/>
       <c r="BC17" s="1"/>
       <c r="BI17" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:61">
@@ -63567,7 +63764,7 @@
       <c r="BB20" s="26"/>
       <c r="BC20" s="1"/>
       <c r="BF20" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:61">

--- a/doc/EMMS  Project 信息查询系统-网页模板格式(用于爬虫解析).xlsx
+++ b/doc/EMMS  Project 信息查询系统-网页模板格式(用于爬虫解析).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="780" windowWidth="14805" windowHeight="6840" tabRatio="911" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="6330" yWindow="780" windowWidth="18780" windowHeight="9900" tabRatio="911" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$A$1:$BZ$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">网址列表!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="302">
   <si>
     <t>香港大搜索有限公司</t>
   </si>
@@ -510,10 +510,6 @@
   </si>
   <si>
     <t>香港心理学会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.hkia.net/en/LookingForArchitects/LookingForArchitects_02.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1424,6 +1420,26 @@
     <t>http://www.hkps.org.hk/index.php?fi=public</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>http://www.hkia.net/en/LookingForArchitects/LookingForArchitects_02.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://218.188.25.84/corporate_member/contact.php?page=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sb.gov.hk/sc/links/sgsia/tall.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港特别行政区政府保安局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hkics.org.hk/index.php?_room=member&amp;_subRoom=&amp;surname=&amp;other_name=&amp;searchDone=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1965,9 +1981,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1986,14 +1999,8 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2009,6 +2016,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8094,7 +8110,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -8313,7 +8329,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -8395,7 +8411,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -9040,7 +9056,7 @@
     </row>
     <row r="20" spans="1:78">
       <c r="A20" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9099,7 +9115,7 @@
     </row>
     <row r="21" spans="1:78">
       <c r="A21" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9156,7 +9172,7 @@
       <c r="BB21" s="26"/>
       <c r="BC21" s="1"/>
       <c r="BE21" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:78">
@@ -9330,7 +9346,7 @@
       <c r="BB24" s="26"/>
       <c r="BC24" s="1"/>
       <c r="BG24" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:78">
@@ -9504,7 +9520,7 @@
       <c r="BB27" s="26"/>
       <c r="BC27" s="1"/>
       <c r="BE27" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:78">
@@ -10371,7 +10387,7 @@
       <c r="BA2" s="79"/>
       <c r="BB2" s="80"/>
       <c r="BC2" s="87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BD2" s="82"/>
       <c r="BE2" s="82"/>
@@ -10640,7 +10656,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -10859,7 +10875,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -10941,7 +10957,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -12645,7 +12661,7 @@
     </row>
     <row r="40" spans="1:78">
       <c r="A40" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BB40" s="26"/>
       <c r="BC40" s="1"/>
@@ -12656,42 +12672,42 @@
     </row>
     <row r="42" spans="1:78">
       <c r="A42" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BB42" s="26"/>
       <c r="BC42" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:78">
       <c r="BB43" s="26"/>
       <c r="BD43" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:78">
       <c r="BB44" s="26"/>
       <c r="BE44" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:78">
       <c r="BB45" s="26"/>
       <c r="BE45" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:78">
       <c r="A46"/>
       <c r="BB46" s="26"/>
       <c r="BE46" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:78">
       <c r="BB47" s="26"/>
       <c r="BE47" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:78">
@@ -12700,116 +12716,116 @@
     <row r="49" spans="54:56">
       <c r="BB49" s="26"/>
       <c r="BD49" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="54:56">
+      <c r="BB50" s="26"/>
+    </row>
+    <row r="51" spans="54:56">
+      <c r="BB51" s="26"/>
+    </row>
+    <row r="52" spans="54:56">
+      <c r="BB52" s="26"/>
+    </row>
+    <row r="53" spans="54:56">
+      <c r="BB53" s="26"/>
+    </row>
+    <row r="54" spans="54:56">
+      <c r="BB54" s="26"/>
+    </row>
+    <row r="55" spans="54:56">
+      <c r="BB55" s="26"/>
+    </row>
+    <row r="56" spans="54:56">
+      <c r="BB56" s="26"/>
+    </row>
+    <row r="57" spans="54:56">
+      <c r="BB57" s="26"/>
+    </row>
+    <row r="58" spans="54:56">
+      <c r="BB58" s="26"/>
+    </row>
+    <row r="59" spans="54:56">
+      <c r="BB59" s="26"/>
+    </row>
+    <row r="60" spans="54:56">
+      <c r="BB60" s="26"/>
+    </row>
+    <row r="61" spans="54:56">
+      <c r="BB61" s="26"/>
+    </row>
+    <row r="62" spans="54:56">
+      <c r="BB62" s="26"/>
+    </row>
+    <row r="63" spans="54:56">
+      <c r="BB63" s="26"/>
+    </row>
+    <row r="64" spans="54:56">
+      <c r="BB64" s="26"/>
+    </row>
+    <row r="65" spans="54:54">
+      <c r="BB65" s="26"/>
+    </row>
+    <row r="66" spans="54:54">
+      <c r="BB66" s="26"/>
+    </row>
+    <row r="67" spans="54:54">
+      <c r="BB67" s="26"/>
+    </row>
+    <row r="68" spans="54:54">
+      <c r="BB68" s="26"/>
+    </row>
+    <row r="69" spans="54:54">
+      <c r="BB69" s="26"/>
+    </row>
+    <row r="70" spans="54:54">
+      <c r="BB70" s="26"/>
+    </row>
+    <row r="71" spans="54:54">
+      <c r="BB71" s="26"/>
+    </row>
+    <row r="72" spans="54:54">
+      <c r="BB72" s="26"/>
+    </row>
+    <row r="73" spans="54:54">
+      <c r="BB73" s="26"/>
+    </row>
+    <row r="74" spans="54:54">
+      <c r="BB74" s="26"/>
+    </row>
+    <row r="75" spans="54:54">
+      <c r="BB75" s="26"/>
+    </row>
+    <row r="76" spans="54:54">
+      <c r="BB76" s="26"/>
+    </row>
+    <row r="77" spans="54:54">
+      <c r="BB77" s="26"/>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="54:56">
-      <c r="BB50" s="26"/>
-    </row>
-    <row r="51" spans="54:56">
-      <c r="BB51" s="26"/>
-    </row>
-    <row r="52" spans="54:56">
-      <c r="BB52" s="26"/>
-    </row>
-    <row r="53" spans="54:56">
-      <c r="BB53" s="26"/>
-    </row>
-    <row r="54" spans="54:56">
-      <c r="BB54" s="26"/>
-    </row>
-    <row r="55" spans="54:56">
-      <c r="BB55" s="26"/>
-    </row>
-    <row r="56" spans="54:56">
-      <c r="BB56" s="26"/>
-    </row>
-    <row r="57" spans="54:56">
-      <c r="BB57" s="26"/>
-    </row>
-    <row r="58" spans="54:56">
-      <c r="BB58" s="26"/>
-    </row>
-    <row r="59" spans="54:56">
-      <c r="BB59" s="26"/>
-    </row>
-    <row r="60" spans="54:56">
-      <c r="BB60" s="26"/>
-    </row>
-    <row r="61" spans="54:56">
-      <c r="BB61" s="26"/>
-    </row>
-    <row r="62" spans="54:56">
-      <c r="BB62" s="26"/>
-    </row>
-    <row r="63" spans="54:56">
-      <c r="BB63" s="26"/>
-    </row>
-    <row r="64" spans="54:56">
-      <c r="BB64" s="26"/>
-    </row>
-    <row r="65" spans="54:54">
-      <c r="BB65" s="26"/>
-    </row>
-    <row r="66" spans="54:54">
-      <c r="BB66" s="26"/>
-    </row>
-    <row r="67" spans="54:54">
-      <c r="BB67" s="26"/>
-    </row>
-    <row r="68" spans="54:54">
-      <c r="BB68" s="26"/>
-    </row>
-    <row r="69" spans="54:54">
-      <c r="BB69" s="26"/>
-    </row>
-    <row r="70" spans="54:54">
-      <c r="BB70" s="26"/>
-    </row>
-    <row r="71" spans="54:54">
-      <c r="BB71" s="26"/>
-    </row>
-    <row r="72" spans="54:54">
-      <c r="BB72" s="26"/>
-    </row>
-    <row r="73" spans="54:54">
-      <c r="BB73" s="26"/>
-    </row>
-    <row r="74" spans="54:54">
-      <c r="BB74" s="26"/>
-    </row>
-    <row r="75" spans="54:54">
-      <c r="BB75" s="26"/>
-    </row>
-    <row r="76" spans="54:54">
-      <c r="BB76" s="26"/>
-    </row>
-    <row r="77" spans="54:54">
-      <c r="BB77" s="26"/>
-    </row>
-    <row r="84" spans="3:4">
-      <c r="C84" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
     <row r="86" spans="3:4">
       <c r="C86" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="D87" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="D88" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="3:4">
-      <c r="D87" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="D88" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
     <row r="129" spans="2:2">
       <c r="B129" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -12930,7 +12946,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -12986,7 +13002,7 @@
       <c r="BA2" s="79"/>
       <c r="BB2" s="80"/>
       <c r="BC2" s="87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BD2" s="82"/>
       <c r="BE2" s="82"/>
@@ -13255,7 +13271,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -13474,7 +13490,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -13556,7 +13572,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -14214,7 +14230,7 @@
       <c r="BB20" s="26"/>
       <c r="BC20" s="1"/>
       <c r="BE20" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:61">
@@ -14274,7 +14290,7 @@
       <c r="BB21" s="26"/>
       <c r="BC21" s="1"/>
       <c r="BF21" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:61">
@@ -14334,7 +14350,7 @@
       <c r="BB22" s="26"/>
       <c r="BC22" s="1"/>
       <c r="BG22" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:61">
@@ -14394,7 +14410,7 @@
       <c r="BB23" s="26"/>
       <c r="BC23" s="1"/>
       <c r="BG23" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:61">
@@ -14454,7 +14470,7 @@
       <c r="BB24" s="26"/>
       <c r="BC24" s="1"/>
       <c r="BG24" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:61">
@@ -14514,7 +14530,7 @@
       <c r="BB25" s="26"/>
       <c r="BC25" s="1"/>
       <c r="BG25" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:61">
@@ -14631,7 +14647,7 @@
       <c r="BB27" s="26"/>
       <c r="BC27" s="1"/>
       <c r="BF27" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:61">
@@ -14748,7 +14764,7 @@
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
       <c r="BI29" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:61">
@@ -14808,7 +14824,7 @@
       <c r="BB30" s="26"/>
       <c r="BC30" s="1"/>
       <c r="BI30" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:61">
@@ -14925,7 +14941,7 @@
       <c r="BB32" s="26"/>
       <c r="BC32" s="1"/>
       <c r="BF32" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:55">
@@ -15388,7 +15404,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -15713,7 +15729,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -15932,7 +15948,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -17780,7 +17796,7 @@
     <row r="42" spans="1:58">
       <c r="BB42" s="26"/>
       <c r="BF42" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:58">
@@ -17862,7 +17878,7 @@
     <row r="68" spans="54:58">
       <c r="BB68" s="26"/>
       <c r="BE68" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="54:58">
@@ -17874,7 +17890,7 @@
     <row r="71" spans="54:58">
       <c r="BB71" s="26"/>
       <c r="BF71" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="54:58">
@@ -17886,7 +17902,7 @@
     <row r="74" spans="54:58">
       <c r="BB74" s="26"/>
       <c r="BE74" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="54:58">
@@ -18321,7 +18337,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -18646,7 +18662,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -18865,7 +18881,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -20657,7 +20673,7 @@
     <row r="41" spans="1:78">
       <c r="BB41" s="26"/>
       <c r="BE41" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:78">
@@ -20739,7 +20755,7 @@
     <row r="67" spans="54:59">
       <c r="BB67" s="26"/>
       <c r="BE67" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="54:59">
@@ -20748,7 +20764,7 @@
     <row r="69" spans="54:59">
       <c r="BB69" s="26"/>
       <c r="BG69" s="49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="54:59">
@@ -20763,7 +20779,7 @@
     <row r="73" spans="54:59">
       <c r="BB73" s="26"/>
       <c r="BE73" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="54:59">
@@ -21310,7 +21326,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -21635,7 +21651,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -21854,7 +21870,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -21936,7 +21952,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -23643,7 +23659,7 @@
     </row>
     <row r="45" spans="1:78">
       <c r="BC45" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:78">
@@ -23651,17 +23667,17 @@
     </row>
     <row r="66" spans="55:56">
       <c r="BC66" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="55:56">
       <c r="BD68" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="55:56">
       <c r="BC72" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -24106,7 +24122,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -24325,7 +24341,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -26232,7 +26248,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -26557,7 +26573,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -26776,7 +26792,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -28683,7 +28699,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -29008,7 +29024,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -29227,7 +29243,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -31038,7 +31054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BO15" sqref="BO15"/>
     </sheetView>
   </sheetViews>
@@ -31134,7 +31150,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -31459,7 +31475,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -31678,7 +31694,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -33550,2607 +33566,2634 @@
     </row>
     <row r="2" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="20"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="70" t="s">
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AG2" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="AG2" s="39" t="s">
+      <c r="AH2" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="AH2" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
     </row>
     <row r="3" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="64" t="s">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="16" t="s">
-        <v>123</v>
-      </c>
       <c r="AG3" s="38"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
     </row>
     <row r="4" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="37">
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="66"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="65"/>
       <c r="AF4" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG4" s="38"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="66"/>
     </row>
     <row r="5" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="37">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="64" t="s">
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="16" t="s">
+      <c r="AG5" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="AG5" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="60"/>
-      <c r="AN5" s="60"/>
-      <c r="AO5" s="60"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
     </row>
     <row r="6" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="64" t="s">
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG6" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG6" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="60"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="66"/>
+      <c r="AO6" s="66"/>
     </row>
     <row r="7" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="37">
         <v>5</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>130</v>
+      <c r="B7" s="60" t="s">
+        <v>129</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="64" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG7" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG7" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="60"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="60"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="66"/>
     </row>
     <row r="8" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="37">
         <v>6</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="64" t="s">
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG8" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG8" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="60"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
     </row>
     <row r="9" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="37">
         <v>7</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="66"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="65"/>
       <c r="AF9" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG9" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
     </row>
     <row r="10" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="37">
         <v>8</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="66"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="65"/>
       <c r="AF10" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG10" s="38"/>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="60"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
     </row>
     <row r="11" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="37">
         <v>9</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="64" t="s">
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG11" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG11" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="60"/>
-      <c r="AM11" s="60"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="60"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
     </row>
     <row r="12" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="37">
         <v>10</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="64" t="s">
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG12" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG12" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH12" s="60"/>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="60"/>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="60"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
     </row>
     <row r="13" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="37">
         <v>11</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="64" t="s">
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="60"/>
-      <c r="AK13" s="60"/>
-      <c r="AL13" s="60"/>
-      <c r="AM13" s="60"/>
-      <c r="AN13" s="60"/>
-      <c r="AO13" s="60"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
     </row>
     <row r="14" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="37">
         <v>12</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="66"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="65"/>
       <c r="AF14" s="16"/>
       <c r="AG14" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="60"/>
-      <c r="AJ14" s="60"/>
-      <c r="AK14" s="60"/>
-      <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="60"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
     </row>
     <row r="15" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="37">
         <v>13</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="66"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="65"/>
       <c r="AF15" s="16"/>
       <c r="AG15" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="60"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
     </row>
     <row r="16" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="37">
         <v>14</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="66"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="65"/>
       <c r="AF16" s="16"/>
       <c r="AG16" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="60"/>
-      <c r="AM16" s="60"/>
-      <c r="AN16" s="60"/>
-      <c r="AO16" s="60"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="66"/>
+      <c r="AO16" s="66"/>
     </row>
     <row r="17" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A17" s="37">
         <v>15</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="66"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64"/>
+      <c r="AE17" s="65"/>
       <c r="AF17" s="16"/>
       <c r="AG17" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="60"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="60"/>
-      <c r="AM17" s="60"/>
-      <c r="AN17" s="60"/>
-      <c r="AO17" s="60"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="66"/>
     </row>
     <row r="18" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A18" s="37">
         <v>16</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="66"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="65"/>
       <c r="AF18" s="16"/>
       <c r="AG18" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="60"/>
-      <c r="AJ18" s="60"/>
-      <c r="AK18" s="60"/>
-      <c r="AL18" s="60"/>
-      <c r="AM18" s="60"/>
-      <c r="AN18" s="60"/>
-      <c r="AO18" s="60"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
+      <c r="AM18" s="66"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="66"/>
     </row>
     <row r="19" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="37">
         <v>17</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="66"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="65"/>
       <c r="AF19" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG19" s="38"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="60"/>
-      <c r="AM19" s="60"/>
-      <c r="AN19" s="60"/>
-      <c r="AO19" s="60"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
     </row>
     <row r="20" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="37">
         <v>18</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="64"/>
+      <c r="AC20" s="64"/>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="65"/>
       <c r="AF20" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG20" s="38"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="60"/>
-      <c r="AL20" s="60"/>
-      <c r="AM20" s="60"/>
-      <c r="AN20" s="60"/>
-      <c r="AO20" s="60"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
     </row>
     <row r="21" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="37">
         <v>19</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="64" t="s">
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG21" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG21" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="60"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="60"/>
-      <c r="AM21" s="60"/>
-      <c r="AN21" s="60"/>
-      <c r="AO21" s="60"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
     </row>
     <row r="22" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A22" s="37">
         <v>20</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="64" t="s">
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG22" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG22" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="60"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="60"/>
-      <c r="AM22" s="60"/>
-      <c r="AN22" s="60"/>
-      <c r="AO22" s="60"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="66"/>
     </row>
     <row r="23" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="37">
         <v>21</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="66"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="65"/>
       <c r="AF23" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG23" s="38"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="60"/>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="60"/>
-      <c r="AL23" s="60"/>
-      <c r="AM23" s="60"/>
-      <c r="AN23" s="60"/>
-      <c r="AO23" s="60"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="66"/>
     </row>
     <row r="24" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="37">
         <v>22</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="64" t="s">
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG24" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG24" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="60"/>
-      <c r="AJ24" s="60"/>
-      <c r="AK24" s="60"/>
-      <c r="AL24" s="60"/>
-      <c r="AM24" s="60"/>
-      <c r="AN24" s="60"/>
-      <c r="AO24" s="60"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="66"/>
     </row>
     <row r="25" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="37">
         <v>23</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="64" t="s">
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG25" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG25" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="60"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="60"/>
-      <c r="AL25" s="60"/>
-      <c r="AM25" s="60"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="60"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
+      <c r="AM25" s="66"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="66"/>
     </row>
     <row r="26" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="37">
         <v>24</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="66"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="65"/>
       <c r="AF26" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG26" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="60"/>
-      <c r="AK26" s="60"/>
-      <c r="AL26" s="60"/>
-      <c r="AM26" s="60"/>
-      <c r="AN26" s="60"/>
-      <c r="AO26" s="60"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
+      <c r="AM26" s="66"/>
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="66"/>
     </row>
     <row r="27" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="37">
         <v>25</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="66"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="65"/>
       <c r="AF27" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG27" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="60"/>
-      <c r="AL27" s="60"/>
-      <c r="AM27" s="60"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="60"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="66"/>
+      <c r="AM27" s="66"/>
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="66"/>
     </row>
     <row r="28" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="37">
         <v>26</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="64" t="s">
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG28" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG28" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="60"/>
-      <c r="AJ28" s="60"/>
-      <c r="AK28" s="60"/>
-      <c r="AL28" s="60"/>
-      <c r="AM28" s="60"/>
-      <c r="AN28" s="60"/>
-      <c r="AO28" s="60"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
     </row>
     <row r="29" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="37">
         <v>27</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="66"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="65"/>
       <c r="AF29" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG29" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="60"/>
-      <c r="AJ29" s="60"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="60"/>
-      <c r="AM29" s="60"/>
-      <c r="AN29" s="60"/>
-      <c r="AO29" s="60"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="66"/>
+      <c r="AM29" s="66"/>
+      <c r="AN29" s="66"/>
+      <c r="AO29" s="66"/>
     </row>
     <row r="30" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A30" s="37">
         <v>28</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="64" t="s">
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="64"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="64"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="65"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="16" t="s">
-        <v>190</v>
-      </c>
       <c r="AG30" s="38"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
-      <c r="AJ30" s="60"/>
-      <c r="AK30" s="60"/>
-      <c r="AL30" s="60"/>
-      <c r="AM30" s="60"/>
-      <c r="AN30" s="60"/>
-      <c r="AO30" s="60"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="66"/>
+      <c r="AL30" s="66"/>
+      <c r="AM30" s="66"/>
+      <c r="AN30" s="66"/>
+      <c r="AO30" s="66"/>
     </row>
     <row r="31" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A31" s="37">
         <v>29</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="66"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="65"/>
       <c r="AF31" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG31" s="38"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="60"/>
-      <c r="AJ31" s="60"/>
-      <c r="AK31" s="60"/>
-      <c r="AL31" s="60"/>
-      <c r="AM31" s="60"/>
-      <c r="AN31" s="60"/>
-      <c r="AO31" s="60"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="66"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="66"/>
     </row>
     <row r="32" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A32" s="37">
         <v>30</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="64" t="s">
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="64"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG32" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="65"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG32" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="60"/>
-      <c r="AJ32" s="60"/>
-      <c r="AK32" s="60"/>
-      <c r="AL32" s="60"/>
-      <c r="AM32" s="60"/>
-      <c r="AN32" s="60"/>
-      <c r="AO32" s="60"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="66"/>
+      <c r="AM32" s="66"/>
+      <c r="AN32" s="66"/>
+      <c r="AO32" s="66"/>
     </row>
     <row r="33" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A33" s="37">
         <v>31</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="65"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="66"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="65"/>
       <c r="AF33" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG33" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="60"/>
-      <c r="AJ33" s="60"/>
-      <c r="AK33" s="60"/>
-      <c r="AL33" s="60"/>
-      <c r="AM33" s="60"/>
-      <c r="AN33" s="60"/>
-      <c r="AO33" s="60"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="66"/>
+      <c r="AM33" s="66"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="66"/>
     </row>
     <row r="34" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A34" s="37">
         <v>32</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="66"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="64"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="65"/>
       <c r="AF34" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG34" s="38"/>
-      <c r="AH34" s="60"/>
-      <c r="AI34" s="60"/>
-      <c r="AJ34" s="60"/>
-      <c r="AK34" s="60"/>
-      <c r="AL34" s="60"/>
-      <c r="AM34" s="60"/>
-      <c r="AN34" s="60"/>
-      <c r="AO34" s="60"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="66"/>
+      <c r="AM34" s="66"/>
+      <c r="AN34" s="66"/>
+      <c r="AO34" s="66"/>
     </row>
     <row r="35" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A35" s="37">
         <v>33</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="64" t="s">
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG35" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="65"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG35" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH35" s="60"/>
-      <c r="AI35" s="60"/>
-      <c r="AJ35" s="60"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="60"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="60"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="66"/>
+      <c r="AL35" s="66"/>
+      <c r="AM35" s="66"/>
+      <c r="AN35" s="66"/>
+      <c r="AO35" s="66"/>
     </row>
     <row r="36" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A36" s="37">
         <v>34</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="65"/>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="65"/>
-      <c r="AD36" s="65"/>
-      <c r="AE36" s="66"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="64"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="65"/>
       <c r="AF36" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG36" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="60"/>
-      <c r="AK36" s="60"/>
-      <c r="AL36" s="60"/>
-      <c r="AM36" s="60"/>
-      <c r="AN36" s="60"/>
-      <c r="AO36" s="60"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="66"/>
+      <c r="AO36" s="66"/>
     </row>
     <row r="37" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A37" s="37">
         <v>35</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="65"/>
-      <c r="AA37" s="65"/>
-      <c r="AB37" s="65"/>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="65"/>
-      <c r="AE37" s="66"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
+      <c r="AC37" s="64"/>
+      <c r="AD37" s="64"/>
+      <c r="AE37" s="65"/>
       <c r="AF37" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG37" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
-      <c r="AH37" s="60"/>
-      <c r="AI37" s="60"/>
-      <c r="AJ37" s="60"/>
-      <c r="AK37" s="60"/>
-      <c r="AL37" s="60"/>
-      <c r="AM37" s="60"/>
-      <c r="AN37" s="60"/>
-      <c r="AO37" s="60"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="66"/>
+      <c r="AK37" s="66"/>
+      <c r="AL37" s="66"/>
+      <c r="AM37" s="66"/>
+      <c r="AN37" s="66"/>
+      <c r="AO37" s="66"/>
     </row>
     <row r="38" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A38" s="37">
         <v>36</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
-      <c r="AD38" s="65"/>
-      <c r="AE38" s="66"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="64"/>
+      <c r="AC38" s="64"/>
+      <c r="AD38" s="64"/>
+      <c r="AE38" s="65"/>
       <c r="AF38" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG38" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
-      <c r="AH38" s="60"/>
-      <c r="AI38" s="60"/>
-      <c r="AJ38" s="60"/>
-      <c r="AK38" s="60"/>
-      <c r="AL38" s="60"/>
-      <c r="AM38" s="60"/>
-      <c r="AN38" s="60"/>
-      <c r="AO38" s="60"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="66"/>
+      <c r="AL38" s="66"/>
+      <c r="AM38" s="66"/>
+      <c r="AN38" s="66"/>
+      <c r="AO38" s="66"/>
     </row>
     <row r="39" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A39" s="37">
         <v>37</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="61"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="65"/>
-      <c r="Z39" s="65"/>
-      <c r="AA39" s="65"/>
-      <c r="AB39" s="65"/>
-      <c r="AC39" s="65"/>
-      <c r="AD39" s="65"/>
-      <c r="AE39" s="66"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="64"/>
+      <c r="AB39" s="64"/>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="64"/>
+      <c r="AE39" s="65"/>
       <c r="AF39" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG39" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
-      <c r="AH39" s="60"/>
-      <c r="AI39" s="60"/>
-      <c r="AJ39" s="60"/>
-      <c r="AK39" s="60"/>
-      <c r="AL39" s="60"/>
-      <c r="AM39" s="60"/>
-      <c r="AN39" s="60"/>
-      <c r="AO39" s="60"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="66"/>
+      <c r="AL39" s="66"/>
+      <c r="AM39" s="66"/>
+      <c r="AN39" s="66"/>
+      <c r="AO39" s="66"/>
     </row>
     <row r="40" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A40" s="37">
         <v>38</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="63"/>
-      <c r="W40" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
-      <c r="AA40" s="65"/>
-      <c r="AB40" s="65"/>
-      <c r="AC40" s="65"/>
-      <c r="AD40" s="65"/>
-      <c r="AE40" s="66"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="64"/>
+      <c r="AB40" s="64"/>
+      <c r="AC40" s="64"/>
+      <c r="AD40" s="64"/>
+      <c r="AE40" s="65"/>
       <c r="AF40" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG40" s="38"/>
-      <c r="AH40" s="60"/>
-      <c r="AI40" s="60"/>
-      <c r="AJ40" s="60"/>
-      <c r="AK40" s="60"/>
-      <c r="AL40" s="60"/>
-      <c r="AM40" s="60"/>
-      <c r="AN40" s="60"/>
-      <c r="AO40" s="60"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="66"/>
+      <c r="AK40" s="66"/>
+      <c r="AL40" s="66"/>
+      <c r="AM40" s="66"/>
+      <c r="AN40" s="66"/>
+      <c r="AO40" s="66"/>
     </row>
     <row r="41" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A41" s="37">
         <v>39</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="74"/>
+      <c r="W41" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="65"/>
-      <c r="AA41" s="65"/>
-      <c r="AB41" s="65"/>
-      <c r="AC41" s="65"/>
-      <c r="AD41" s="65"/>
-      <c r="AE41" s="66"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="64"/>
+      <c r="AB41" s="64"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="64"/>
+      <c r="AE41" s="65"/>
       <c r="AF41" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG41" s="38"/>
-      <c r="AH41" s="60"/>
-      <c r="AI41" s="60"/>
-      <c r="AJ41" s="60"/>
-      <c r="AK41" s="60"/>
-      <c r="AL41" s="60"/>
-      <c r="AM41" s="60"/>
-      <c r="AN41" s="60"/>
-      <c r="AO41" s="60"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="66"/>
+      <c r="AM41" s="66"/>
+      <c r="AN41" s="66"/>
+      <c r="AO41" s="66"/>
     </row>
     <row r="42" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A42" s="37">
         <v>40</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="63"/>
-      <c r="W42" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="65"/>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="65"/>
-      <c r="AE42" s="66"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="64"/>
+      <c r="AE42" s="65"/>
       <c r="AF42" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG42" s="38"/>
-      <c r="AH42" s="60"/>
-      <c r="AI42" s="60"/>
-      <c r="AJ42" s="60"/>
-      <c r="AK42" s="60"/>
-      <c r="AL42" s="60"/>
-      <c r="AM42" s="60"/>
-      <c r="AN42" s="60"/>
-      <c r="AO42" s="60"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="66"/>
+      <c r="AK42" s="66"/>
+      <c r="AL42" s="66"/>
+      <c r="AM42" s="66"/>
+      <c r="AN42" s="66"/>
+      <c r="AO42" s="66"/>
     </row>
     <row r="43" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A43" s="37">
         <v>41</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="61"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="62"/>
+      <c r="W43" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="63"/>
-      <c r="W43" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="65"/>
-      <c r="AB43" s="65"/>
-      <c r="AC43" s="65"/>
-      <c r="AD43" s="65"/>
-      <c r="AE43" s="66"/>
+      <c r="X43" s="64"/>
+      <c r="Y43" s="64"/>
+      <c r="Z43" s="64"/>
+      <c r="AA43" s="64"/>
+      <c r="AB43" s="64"/>
+      <c r="AC43" s="64"/>
+      <c r="AD43" s="64"/>
+      <c r="AE43" s="65"/>
       <c r="AF43" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG43" s="38"/>
-      <c r="AH43" s="60"/>
-      <c r="AI43" s="60"/>
-      <c r="AJ43" s="60"/>
-      <c r="AK43" s="60"/>
-      <c r="AL43" s="60"/>
-      <c r="AM43" s="60"/>
-      <c r="AN43" s="60"/>
-      <c r="AO43" s="60"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="66"/>
+      <c r="AK43" s="66"/>
+      <c r="AL43" s="66"/>
+      <c r="AM43" s="66"/>
+      <c r="AN43" s="66"/>
+      <c r="AO43" s="66"/>
     </row>
     <row r="44" spans="1:41" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A44" s="37">
         <v>42</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="63"/>
-      <c r="W44" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="65"/>
-      <c r="AC44" s="65"/>
-      <c r="AD44" s="65"/>
-      <c r="AE44" s="66"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="64"/>
+      <c r="AA44" s="64"/>
+      <c r="AB44" s="64"/>
+      <c r="AC44" s="64"/>
+      <c r="AD44" s="64"/>
+      <c r="AE44" s="65"/>
       <c r="AF44" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG44" s="38"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="60"/>
-      <c r="AJ44" s="60"/>
-      <c r="AK44" s="60"/>
-      <c r="AL44" s="60"/>
-      <c r="AM44" s="60"/>
-      <c r="AN44" s="60"/>
-      <c r="AO44" s="60"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="66"/>
+      <c r="AL44" s="66"/>
+      <c r="AM44" s="66"/>
+      <c r="AN44" s="66"/>
+      <c r="AO44" s="66"/>
     </row>
     <row r="45" spans="1:41" ht="21" customHeight="1">
       <c r="A45" s="37">
         <v>43</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="63"/>
-      <c r="W45" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="65"/>
-      <c r="AB45" s="65"/>
-      <c r="AC45" s="65"/>
-      <c r="AD45" s="65"/>
-      <c r="AE45" s="66"/>
+      <c r="X45" s="64"/>
+      <c r="Y45" s="64"/>
+      <c r="Z45" s="64"/>
+      <c r="AA45" s="64"/>
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="64"/>
+      <c r="AE45" s="65"/>
       <c r="AF45" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG45" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
-      <c r="AH45" s="60"/>
-      <c r="AI45" s="60"/>
-      <c r="AJ45" s="60"/>
-      <c r="AK45" s="60"/>
-      <c r="AL45" s="60"/>
-      <c r="AM45" s="60"/>
-      <c r="AN45" s="60"/>
-      <c r="AO45" s="60"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="66"/>
+      <c r="AK45" s="66"/>
+      <c r="AL45" s="66"/>
+      <c r="AM45" s="66"/>
+      <c r="AN45" s="66"/>
+      <c r="AO45" s="66"/>
     </row>
     <row r="46" spans="1:41" ht="21" customHeight="1">
       <c r="A46" s="37">
         <v>44</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="62"/>
-      <c r="V46" s="63"/>
-      <c r="W46" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="X46" s="65"/>
-      <c r="Y46" s="65"/>
-      <c r="Z46" s="65"/>
-      <c r="AA46" s="65"/>
-      <c r="AB46" s="65"/>
-      <c r="AC46" s="65"/>
-      <c r="AD46" s="65"/>
-      <c r="AE46" s="66"/>
+      <c r="X46" s="64"/>
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="64"/>
+      <c r="AA46" s="64"/>
+      <c r="AB46" s="64"/>
+      <c r="AC46" s="64"/>
+      <c r="AD46" s="64"/>
+      <c r="AE46" s="65"/>
       <c r="AF46" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG46" s="38"/>
-      <c r="AH46" s="60"/>
-      <c r="AI46" s="60"/>
-      <c r="AJ46" s="60"/>
-      <c r="AK46" s="60"/>
-      <c r="AL46" s="60"/>
-      <c r="AM46" s="60"/>
-      <c r="AN46" s="60"/>
-      <c r="AO46" s="60"/>
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="66"/>
+      <c r="AK46" s="66"/>
+      <c r="AL46" s="66"/>
+      <c r="AM46" s="66"/>
+      <c r="AN46" s="66"/>
+      <c r="AO46" s="66"/>
     </row>
     <row r="47" spans="1:41" ht="21" customHeight="1">
       <c r="A47" s="37">
         <v>46</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="62"/>
-      <c r="V47" s="63"/>
-      <c r="W47" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="X47" s="65"/>
-      <c r="Y47" s="65"/>
-      <c r="Z47" s="65"/>
-      <c r="AA47" s="65"/>
-      <c r="AB47" s="65"/>
-      <c r="AC47" s="65"/>
-      <c r="AD47" s="65"/>
-      <c r="AE47" s="66"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+      <c r="Z47" s="64"/>
+      <c r="AA47" s="64"/>
+      <c r="AB47" s="64"/>
+      <c r="AC47" s="64"/>
+      <c r="AD47" s="64"/>
+      <c r="AE47" s="65"/>
       <c r="AF47" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG47" s="38"/>
-      <c r="AH47" s="60"/>
-      <c r="AI47" s="60"/>
-      <c r="AJ47" s="60"/>
-      <c r="AK47" s="60"/>
-      <c r="AL47" s="60"/>
-      <c r="AM47" s="60"/>
-      <c r="AN47" s="60"/>
-      <c r="AO47" s="60"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="66"/>
+      <c r="AJ47" s="66"/>
+      <c r="AK47" s="66"/>
+      <c r="AL47" s="66"/>
+      <c r="AM47" s="66"/>
+      <c r="AN47" s="66"/>
+      <c r="AO47" s="66"/>
     </row>
     <row r="48" spans="1:41" ht="21" customHeight="1">
       <c r="A48" s="37">
         <v>47</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="62"/>
-      <c r="T48" s="62"/>
-      <c r="U48" s="62"/>
-      <c r="V48" s="63"/>
-      <c r="W48" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="X48" s="65"/>
-      <c r="Y48" s="65"/>
-      <c r="Z48" s="65"/>
-      <c r="AA48" s="65"/>
-      <c r="AB48" s="65"/>
-      <c r="AC48" s="65"/>
-      <c r="AD48" s="65"/>
-      <c r="AE48" s="66"/>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="64"/>
+      <c r="Z48" s="64"/>
+      <c r="AA48" s="64"/>
+      <c r="AB48" s="64"/>
+      <c r="AC48" s="64"/>
+      <c r="AD48" s="64"/>
+      <c r="AE48" s="65"/>
       <c r="AF48" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG48" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
-      <c r="AH48" s="60"/>
-      <c r="AI48" s="60"/>
-      <c r="AJ48" s="60"/>
-      <c r="AK48" s="60"/>
-      <c r="AL48" s="60"/>
-      <c r="AM48" s="60"/>
-      <c r="AN48" s="60"/>
-      <c r="AO48" s="60"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="66"/>
+      <c r="AK48" s="66"/>
+      <c r="AL48" s="66"/>
+      <c r="AM48" s="66"/>
+      <c r="AN48" s="66"/>
+      <c r="AO48" s="66"/>
     </row>
     <row r="49" spans="1:41" ht="21" customHeight="1">
       <c r="A49" s="37">
         <v>48</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="62"/>
-      <c r="U49" s="62"/>
-      <c r="V49" s="63"/>
-      <c r="W49" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="X49" s="65"/>
-      <c r="Y49" s="65"/>
-      <c r="Z49" s="65"/>
-      <c r="AA49" s="65"/>
-      <c r="AB49" s="65"/>
-      <c r="AC49" s="65"/>
-      <c r="AD49" s="65"/>
-      <c r="AE49" s="66"/>
+      <c r="X49" s="64"/>
+      <c r="Y49" s="64"/>
+      <c r="Z49" s="64"/>
+      <c r="AA49" s="64"/>
+      <c r="AB49" s="64"/>
+      <c r="AC49" s="64"/>
+      <c r="AD49" s="64"/>
+      <c r="AE49" s="65"/>
       <c r="AF49" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG49" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
-      <c r="AH49" s="60"/>
-      <c r="AI49" s="60"/>
-      <c r="AJ49" s="60"/>
-      <c r="AK49" s="60"/>
-      <c r="AL49" s="60"/>
-      <c r="AM49" s="60"/>
-      <c r="AN49" s="60"/>
-      <c r="AO49" s="60"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="66"/>
+      <c r="AK49" s="66"/>
+      <c r="AL49" s="66"/>
+      <c r="AM49" s="66"/>
+      <c r="AN49" s="66"/>
+      <c r="AO49" s="66"/>
     </row>
     <row r="50" spans="1:41" ht="21" customHeight="1">
       <c r="A50" s="37">
         <v>49</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="62"/>
+      <c r="W50" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="62"/>
-      <c r="V50" s="63"/>
-      <c r="W50" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="X50" s="65"/>
-      <c r="Y50" s="65"/>
-      <c r="Z50" s="65"/>
-      <c r="AA50" s="65"/>
-      <c r="AB50" s="65"/>
-      <c r="AC50" s="65"/>
-      <c r="AD50" s="65"/>
-      <c r="AE50" s="66"/>
+      <c r="X50" s="64"/>
+      <c r="Y50" s="64"/>
+      <c r="Z50" s="64"/>
+      <c r="AA50" s="64"/>
+      <c r="AB50" s="64"/>
+      <c r="AC50" s="64"/>
+      <c r="AD50" s="64"/>
+      <c r="AE50" s="65"/>
       <c r="AF50" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG50" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
-      <c r="AH50" s="60"/>
-      <c r="AI50" s="60"/>
-      <c r="AJ50" s="60"/>
-      <c r="AK50" s="60"/>
-      <c r="AL50" s="60"/>
-      <c r="AM50" s="60"/>
-      <c r="AN50" s="60"/>
-      <c r="AO50" s="60"/>
+      <c r="AH50" s="66"/>
+      <c r="AI50" s="66"/>
+      <c r="AJ50" s="66"/>
+      <c r="AK50" s="66"/>
+      <c r="AL50" s="66"/>
+      <c r="AM50" s="66"/>
+      <c r="AN50" s="66"/>
+      <c r="AO50" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="W4:AE4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="W5:AE5"/>
-    <mergeCell ref="AH5:AO5"/>
-    <mergeCell ref="B6:V6"/>
-    <mergeCell ref="W6:AE6"/>
-    <mergeCell ref="AH6:AO6"/>
-    <mergeCell ref="B7:V7"/>
-    <mergeCell ref="W7:AE7"/>
-    <mergeCell ref="AH7:AO7"/>
-    <mergeCell ref="B8:V8"/>
-    <mergeCell ref="W8:AE8"/>
-    <mergeCell ref="AH8:AO8"/>
-    <mergeCell ref="B9:V9"/>
-    <mergeCell ref="W9:AE9"/>
-    <mergeCell ref="AH9:AO9"/>
-    <mergeCell ref="B10:V10"/>
-    <mergeCell ref="W10:AE10"/>
-    <mergeCell ref="AH10:AO10"/>
-    <mergeCell ref="B23:V23"/>
-    <mergeCell ref="B24:V24"/>
-    <mergeCell ref="W27:AE27"/>
-    <mergeCell ref="AH27:AO27"/>
-    <mergeCell ref="W26:AE26"/>
-    <mergeCell ref="AH26:AO26"/>
-    <mergeCell ref="W25:AE25"/>
-    <mergeCell ref="W24:AE24"/>
-    <mergeCell ref="AH24:AO24"/>
-    <mergeCell ref="W23:AE23"/>
-    <mergeCell ref="AH23:AO23"/>
-    <mergeCell ref="AH25:AO25"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="B26:V26"/>
-    <mergeCell ref="B27:V27"/>
-    <mergeCell ref="AH17:AO17"/>
-    <mergeCell ref="B21:V21"/>
-    <mergeCell ref="B22:V22"/>
-    <mergeCell ref="W20:AE20"/>
-    <mergeCell ref="AH20:AO20"/>
-    <mergeCell ref="W19:AE19"/>
-    <mergeCell ref="AH19:AO19"/>
-    <mergeCell ref="B19:V19"/>
-    <mergeCell ref="B20:V20"/>
-    <mergeCell ref="W22:AE22"/>
-    <mergeCell ref="AH22:AO22"/>
-    <mergeCell ref="W21:AE21"/>
-    <mergeCell ref="AH21:AO21"/>
+    <mergeCell ref="AH46:AO46"/>
+    <mergeCell ref="AH47:AO47"/>
+    <mergeCell ref="AH48:AO48"/>
+    <mergeCell ref="AH49:AO49"/>
+    <mergeCell ref="AH50:AO50"/>
+    <mergeCell ref="B49:V49"/>
+    <mergeCell ref="W49:AE49"/>
+    <mergeCell ref="B50:V50"/>
+    <mergeCell ref="W50:AE50"/>
+    <mergeCell ref="B46:V46"/>
+    <mergeCell ref="W46:AE46"/>
+    <mergeCell ref="B47:V47"/>
+    <mergeCell ref="W47:AE47"/>
+    <mergeCell ref="B48:V48"/>
+    <mergeCell ref="W48:AE48"/>
+    <mergeCell ref="B44:V44"/>
+    <mergeCell ref="W44:AE44"/>
+    <mergeCell ref="AH44:AO44"/>
+    <mergeCell ref="B45:V45"/>
+    <mergeCell ref="W45:AE45"/>
+    <mergeCell ref="AH45:AO45"/>
+    <mergeCell ref="B42:V42"/>
+    <mergeCell ref="W42:AE42"/>
+    <mergeCell ref="AH42:AO42"/>
+    <mergeCell ref="B43:V43"/>
+    <mergeCell ref="W43:AE43"/>
+    <mergeCell ref="AH43:AO43"/>
+    <mergeCell ref="B40:V40"/>
+    <mergeCell ref="W40:AE40"/>
+    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="B41:V41"/>
+    <mergeCell ref="W41:AE41"/>
+    <mergeCell ref="AH41:AO41"/>
+    <mergeCell ref="B38:V38"/>
+    <mergeCell ref="W38:AE38"/>
+    <mergeCell ref="AH38:AO38"/>
+    <mergeCell ref="B39:V39"/>
+    <mergeCell ref="W39:AE39"/>
+    <mergeCell ref="AH39:AO39"/>
+    <mergeCell ref="B36:V36"/>
+    <mergeCell ref="W36:AE36"/>
+    <mergeCell ref="AH36:AO36"/>
+    <mergeCell ref="B37:V37"/>
+    <mergeCell ref="W37:AE37"/>
+    <mergeCell ref="AH37:AO37"/>
+    <mergeCell ref="B34:V34"/>
+    <mergeCell ref="W34:AE34"/>
+    <mergeCell ref="AH34:AO34"/>
+    <mergeCell ref="B35:V35"/>
+    <mergeCell ref="W35:AE35"/>
+    <mergeCell ref="AH35:AO35"/>
+    <mergeCell ref="AH13:AO13"/>
+    <mergeCell ref="B17:V17"/>
+    <mergeCell ref="B18:V18"/>
+    <mergeCell ref="B32:V32"/>
+    <mergeCell ref="W32:AE32"/>
+    <mergeCell ref="AH32:AO32"/>
+    <mergeCell ref="B33:V33"/>
+    <mergeCell ref="W33:AE33"/>
+    <mergeCell ref="AH33:AO33"/>
+    <mergeCell ref="B30:V30"/>
+    <mergeCell ref="W30:AE30"/>
+    <mergeCell ref="AH30:AO30"/>
+    <mergeCell ref="B31:V31"/>
+    <mergeCell ref="W31:AE31"/>
+    <mergeCell ref="AH31:AO31"/>
+    <mergeCell ref="W16:AE16"/>
+    <mergeCell ref="AH16:AO16"/>
+    <mergeCell ref="W15:AE15"/>
+    <mergeCell ref="AH15:AO15"/>
+    <mergeCell ref="B15:V15"/>
+    <mergeCell ref="B16:V16"/>
+    <mergeCell ref="W18:AE18"/>
+    <mergeCell ref="AH18:AO18"/>
+    <mergeCell ref="W17:AE17"/>
     <mergeCell ref="W2:AE2"/>
     <mergeCell ref="AH2:AO2"/>
     <mergeCell ref="B2:V2"/>
@@ -36175,81 +36218,54 @@
     <mergeCell ref="W14:AE14"/>
     <mergeCell ref="AH14:AO14"/>
     <mergeCell ref="W13:AE13"/>
-    <mergeCell ref="AH13:AO13"/>
-    <mergeCell ref="B17:V17"/>
-    <mergeCell ref="B18:V18"/>
-    <mergeCell ref="B32:V32"/>
-    <mergeCell ref="W32:AE32"/>
-    <mergeCell ref="AH32:AO32"/>
-    <mergeCell ref="B33:V33"/>
-    <mergeCell ref="W33:AE33"/>
-    <mergeCell ref="AH33:AO33"/>
-    <mergeCell ref="B30:V30"/>
-    <mergeCell ref="W30:AE30"/>
-    <mergeCell ref="AH30:AO30"/>
-    <mergeCell ref="B31:V31"/>
-    <mergeCell ref="W31:AE31"/>
-    <mergeCell ref="AH31:AO31"/>
-    <mergeCell ref="W16:AE16"/>
-    <mergeCell ref="AH16:AO16"/>
-    <mergeCell ref="W15:AE15"/>
-    <mergeCell ref="AH15:AO15"/>
-    <mergeCell ref="B15:V15"/>
-    <mergeCell ref="B16:V16"/>
-    <mergeCell ref="W18:AE18"/>
-    <mergeCell ref="AH18:AO18"/>
-    <mergeCell ref="W17:AE17"/>
-    <mergeCell ref="B36:V36"/>
-    <mergeCell ref="W36:AE36"/>
-    <mergeCell ref="AH36:AO36"/>
-    <mergeCell ref="B37:V37"/>
-    <mergeCell ref="W37:AE37"/>
-    <mergeCell ref="AH37:AO37"/>
-    <mergeCell ref="B34:V34"/>
-    <mergeCell ref="W34:AE34"/>
-    <mergeCell ref="AH34:AO34"/>
-    <mergeCell ref="B35:V35"/>
-    <mergeCell ref="W35:AE35"/>
-    <mergeCell ref="AH35:AO35"/>
-    <mergeCell ref="B40:V40"/>
-    <mergeCell ref="W40:AE40"/>
-    <mergeCell ref="AH40:AO40"/>
-    <mergeCell ref="B41:V41"/>
-    <mergeCell ref="W41:AE41"/>
-    <mergeCell ref="AH41:AO41"/>
-    <mergeCell ref="B38:V38"/>
-    <mergeCell ref="W38:AE38"/>
-    <mergeCell ref="AH38:AO38"/>
-    <mergeCell ref="B39:V39"/>
-    <mergeCell ref="W39:AE39"/>
-    <mergeCell ref="AH39:AO39"/>
-    <mergeCell ref="B44:V44"/>
-    <mergeCell ref="W44:AE44"/>
-    <mergeCell ref="AH44:AO44"/>
-    <mergeCell ref="B45:V45"/>
-    <mergeCell ref="W45:AE45"/>
-    <mergeCell ref="AH45:AO45"/>
-    <mergeCell ref="B42:V42"/>
-    <mergeCell ref="W42:AE42"/>
-    <mergeCell ref="AH42:AO42"/>
-    <mergeCell ref="B43:V43"/>
-    <mergeCell ref="W43:AE43"/>
-    <mergeCell ref="AH43:AO43"/>
-    <mergeCell ref="AH46:AO46"/>
-    <mergeCell ref="AH47:AO47"/>
-    <mergeCell ref="AH48:AO48"/>
-    <mergeCell ref="AH49:AO49"/>
-    <mergeCell ref="AH50:AO50"/>
-    <mergeCell ref="B49:V49"/>
-    <mergeCell ref="W49:AE49"/>
-    <mergeCell ref="B50:V50"/>
-    <mergeCell ref="W50:AE50"/>
-    <mergeCell ref="B46:V46"/>
-    <mergeCell ref="W46:AE46"/>
-    <mergeCell ref="B47:V47"/>
-    <mergeCell ref="W47:AE47"/>
-    <mergeCell ref="B48:V48"/>
-    <mergeCell ref="W48:AE48"/>
+    <mergeCell ref="AH17:AO17"/>
+    <mergeCell ref="B21:V21"/>
+    <mergeCell ref="B22:V22"/>
+    <mergeCell ref="W20:AE20"/>
+    <mergeCell ref="AH20:AO20"/>
+    <mergeCell ref="W19:AE19"/>
+    <mergeCell ref="AH19:AO19"/>
+    <mergeCell ref="B19:V19"/>
+    <mergeCell ref="B20:V20"/>
+    <mergeCell ref="W22:AE22"/>
+    <mergeCell ref="AH22:AO22"/>
+    <mergeCell ref="W21:AE21"/>
+    <mergeCell ref="AH21:AO21"/>
+    <mergeCell ref="B23:V23"/>
+    <mergeCell ref="B24:V24"/>
+    <mergeCell ref="W27:AE27"/>
+    <mergeCell ref="AH27:AO27"/>
+    <mergeCell ref="W26:AE26"/>
+    <mergeCell ref="AH26:AO26"/>
+    <mergeCell ref="W25:AE25"/>
+    <mergeCell ref="W24:AE24"/>
+    <mergeCell ref="AH24:AO24"/>
+    <mergeCell ref="W23:AE23"/>
+    <mergeCell ref="AH23:AO23"/>
+    <mergeCell ref="AH25:AO25"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="B26:V26"/>
+    <mergeCell ref="B27:V27"/>
+    <mergeCell ref="B8:V8"/>
+    <mergeCell ref="W8:AE8"/>
+    <mergeCell ref="AH8:AO8"/>
+    <mergeCell ref="B9:V9"/>
+    <mergeCell ref="W9:AE9"/>
+    <mergeCell ref="AH9:AO9"/>
+    <mergeCell ref="B10:V10"/>
+    <mergeCell ref="W10:AE10"/>
+    <mergeCell ref="AH10:AO10"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="W4:AE4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="W5:AE5"/>
+    <mergeCell ref="AH5:AO5"/>
+    <mergeCell ref="B6:V6"/>
+    <mergeCell ref="W6:AE6"/>
+    <mergeCell ref="AH6:AO6"/>
+    <mergeCell ref="B7:V7"/>
+    <mergeCell ref="W7:AE7"/>
+    <mergeCell ref="AH7:AO7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -36408,7 +36424,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -36464,7 +36480,7 @@
       <c r="BA2" s="79"/>
       <c r="BB2" s="80"/>
       <c r="BC2" s="87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BD2" s="82"/>
       <c r="BE2" s="82"/>
@@ -36733,7 +36749,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -36952,7 +36968,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -37034,7 +37050,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -38764,7 +38780,7 @@
   <dimension ref="A1:BZ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -38859,7 +38875,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>70</v>
+        <v>297</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -38915,7 +38931,7 @@
       <c r="BA2" s="79"/>
       <c r="BB2" s="80"/>
       <c r="BC2" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BD2" s="82"/>
       <c r="BE2" s="82"/>
@@ -39184,7 +39200,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -39403,7 +39419,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -39485,7 +39501,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -41214,8 +41230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BM29" sqref="BM29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="BJ19" sqref="BJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41310,7 +41326,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -41366,7 +41382,7 @@
       <c r="BA2" s="79"/>
       <c r="BB2" s="80"/>
       <c r="BC2" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BD2" s="82"/>
       <c r="BE2" s="82"/>
@@ -41635,7 +41651,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -41854,7 +41870,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -41936,7 +41952,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -43667,7 +43683,7 @@
   <dimension ref="A1:BZ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="BE9" sqref="BE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43762,7 +43778,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>114</v>
+        <v>299</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -43818,7 +43834,7 @@
       <c r="BA2" s="79"/>
       <c r="BB2" s="80"/>
       <c r="BC2" s="87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BD2" s="82"/>
       <c r="BE2" s="82"/>
@@ -44087,7 +44103,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -44306,7 +44322,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -44388,7 +44404,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -46117,8 +46133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BN25" sqref="BN25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BP17" sqref="BP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -46213,7 +46229,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>114</v>
+        <v>301</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -46269,7 +46285,7 @@
       <c r="BA2" s="79"/>
       <c r="BB2" s="80"/>
       <c r="BC2" s="87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD2" s="82"/>
       <c r="BE2" s="82"/>
@@ -46538,7 +46554,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -46757,7 +46773,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -46839,7 +46855,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -48667,7 +48683,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -48723,7 +48739,7 @@
       <c r="BA2" s="79"/>
       <c r="BB2" s="80"/>
       <c r="BC2" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BD2" s="82"/>
       <c r="BE2" s="82"/>
@@ -48992,7 +49008,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -49211,7 +49227,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -49293,7 +49309,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -51022,8 +51038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51057,7 +51073,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>22</v>
@@ -51066,7 +51082,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27">
@@ -51074,7 +51090,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>25</v>
@@ -51089,13 +51105,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="33"/>
     </row>
@@ -51104,7 +51120,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>31</v>
@@ -51119,10 +51135,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>36</v>
@@ -51134,7 +51150,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>41</v>
@@ -51149,7 +51165,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>42</v>
@@ -51164,7 +51180,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>45</v>
@@ -51179,7 +51195,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>48</v>
@@ -51196,13 +51212,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>49</v>
@@ -51213,7 +51229,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>59</v>
@@ -51230,7 +51246,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>61</v>
@@ -51245,10 +51261,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>64</v>
@@ -51260,10 +51276,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>67</v>
@@ -51275,10 +51291,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>69</v>
@@ -51290,13 +51306,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="35"/>
     </row>
@@ -51305,13 +51321,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="35"/>
     </row>
@@ -51320,13 +51336,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="35"/>
     </row>
@@ -51335,13 +51351,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="35"/>
     </row>
@@ -51350,13 +51366,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="35"/>
     </row>
@@ -51365,16 +51381,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -51401,14 +51417,14 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -51577,7 +51593,7 @@
       <c r="BA2" s="79"/>
       <c r="BB2" s="80"/>
       <c r="BC2" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BD2" s="82"/>
       <c r="BE2" s="82"/>
@@ -51846,7 +51862,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -52978,7 +52994,7 @@
       <c r="BB23" s="26"/>
       <c r="BC23" s="1"/>
       <c r="BE23" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF23" s="85"/>
       <c r="BG23" s="85"/>
@@ -53987,7 +54003,7 @@
     </row>
     <row r="41" spans="1:78">
       <c r="A41" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BB41" s="26"/>
       <c r="BC41" s="1"/>
@@ -53998,7 +54014,7 @@
     </row>
     <row r="43" spans="1:78">
       <c r="A43" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BB43" s="26"/>
       <c r="BC43" s="1"/>
@@ -54007,21 +54023,21 @@
       <c r="BB44" s="26"/>
       <c r="BC44" s="1"/>
       <c r="BD44" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:78">
       <c r="BB45" s="26"/>
       <c r="BC45" s="1"/>
       <c r="BE45" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:78">
       <c r="BB46" s="26"/>
       <c r="BC46" s="1"/>
       <c r="BF46" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:78">
@@ -54032,7 +54048,7 @@
       <c r="BB48" s="26"/>
       <c r="BC48" s="1"/>
       <c r="BE48" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="54:58">
@@ -54044,35 +54060,35 @@
       <c r="BB50" s="26"/>
       <c r="BC50" s="1"/>
       <c r="BF50" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="54:58">
       <c r="BB51" s="26"/>
       <c r="BC51" s="1"/>
       <c r="BF51" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="54:58">
       <c r="BB52" s="26"/>
       <c r="BC52" s="1"/>
       <c r="BF52" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="54:58">
       <c r="BB53" s="26"/>
       <c r="BC53" s="1"/>
       <c r="BF53" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="54:58">
       <c r="BB54" s="26"/>
       <c r="BC54" s="1"/>
       <c r="BF54" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="54:58">
@@ -54084,7 +54100,7 @@
       <c r="BB56" s="26"/>
       <c r="BC56" s="1"/>
       <c r="BE56" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BF56" s="46"/>
     </row>
@@ -54196,7 +54212,7 @@
       <c r="BB83" s="26"/>
       <c r="BC83" s="1"/>
       <c r="BF83" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="54:58">
@@ -54386,7 +54402,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -54442,7 +54458,7 @@
       <c r="BA2" s="79"/>
       <c r="BB2" s="80"/>
       <c r="BC2" s="81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BD2" s="82"/>
       <c r="BE2" s="82"/>
@@ -54711,7 +54727,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -54930,7 +54946,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -55012,7 +55028,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -56195,7 +56211,7 @@
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:78">
@@ -56255,7 +56271,7 @@
       <c r="BB30" s="26"/>
       <c r="BC30" s="1"/>
       <c r="BE30" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:78">
@@ -56315,7 +56331,7 @@
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
       <c r="BF31" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:78">
@@ -56603,7 +56619,7 @@
       <c r="BB36" s="26"/>
       <c r="BC36" s="1"/>
       <c r="BE36" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:57">
@@ -57218,7 +57234,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -57437,7 +57453,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -58989,7 +59005,7 @@
       <c r="BB34" s="26"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:59">
@@ -59049,7 +59065,7 @@
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
       <c r="BE35" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:59">
@@ -59166,7 +59182,7 @@
       <c r="BB37" s="26"/>
       <c r="BC37" s="1"/>
       <c r="BG37" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:59">
@@ -59228,7 +59244,7 @@
     <row r="41" spans="1:59">
       <c r="BB41" s="26"/>
       <c r="BE41" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:59">
@@ -59919,7 +59935,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -60138,7 +60154,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -60220,7 +60236,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -61344,7 +61360,7 @@
       <c r="BB28" s="26"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:78">
@@ -61404,7 +61420,7 @@
       <c r="BB29" s="26"/>
       <c r="BC29" s="1"/>
       <c r="BE29" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:78">
@@ -61521,7 +61537,7 @@
       <c r="BB31" s="26"/>
       <c r="BC31" s="1"/>
       <c r="BG31" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:78">
@@ -61752,7 +61768,7 @@
       <c r="BB35" s="26"/>
       <c r="BC35" s="1"/>
       <c r="BE35" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:57">
@@ -62433,7 +62449,7 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2" s="78" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -62758,7 +62774,7 @@
     <row r="6" spans="1:78" ht="20.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -62977,7 +62993,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BF8" s="85"/>
       <c r="BG8" s="85"/>
@@ -63059,7 +63075,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BF9" s="30"/>
       <c r="BG9" s="30"/>
@@ -63358,7 +63374,7 @@
       <c r="BB13" s="26"/>
       <c r="BC13" s="1"/>
       <c r="BE13" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:78">
@@ -63418,7 +63434,7 @@
       <c r="BB14" s="26"/>
       <c r="BC14" s="1"/>
       <c r="BF14" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:78">
@@ -63592,7 +63608,7 @@
       <c r="BB17" s="26"/>
       <c r="BC17" s="1"/>
       <c r="BI17" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:61">
@@ -63766,7 +63782,7 @@
       <c r="BB20" s="26"/>
       <c r="BC20" s="1"/>
       <c r="BF20" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:61">
